--- a/src/main/resources/excel/finished/6高炉/高炉月报表.xlsx
+++ b/src/main/resources/excel/finished/6高炉/高炉月报表.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="月报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_month_day" sheetId="2" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="_tag_month_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>高炉月报表</t>
   </si>
@@ -162,6 +162,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -171,6 +172,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -182,6 +184,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>H</t>
@@ -191,6 +194,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -202,6 +206,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -211,6 +216,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -218,111 +224,6 @@
   </si>
   <si>
     <t>点名</t>
-  </si>
-  <si>
-    <t>BF6_L2M_BatchRate_1m</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_ActBlastFlow_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_OxygenFlow_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_OxygenEnrichmentRate_1m</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastTemp_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_ColdBlastPress_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_HotBlastPress_1m_cur</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_TopPress_1min_avg需取四个顶压的平均值</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Pressdiff_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BH_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_PCI_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_CCT_1min_avg需确认十字测温中心点的点名</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_CCT2_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_PCT_1min_avg需确认最边缘</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Z_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_W_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_Z_W_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_K_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_Ek_1min_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BlastVelocityAct_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_FlamTemp_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_BoshgasIndex_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08001_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08002_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08003_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE08004_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO2_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasCO_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasH2_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_topgasN2_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2M_CoalRate_1m</t>
-  </si>
-  <si>
-    <t>BF6_L2M_FuelRate_1m</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_GasUtilization_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04001_1m_cur</t>
-  </si>
-  <si>
-    <t>BF6_L1R_BD_Q_1min_avg</t>
   </si>
   <si>
     <t>平均</t>
@@ -462,45 +363,53 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -526,12 +435,14 @@
       <sz val="11"/>
       <color indexed="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -545,6 +456,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1019,18 +931,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,6 +959,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AJ35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1415,33 +1327,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="8" customFormat="1" ht="25.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="e">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46" t="e">
         <f>[1]_metadata!B1</f>
         <v>#REF!</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
       <c r="Y1" s="33"/>
@@ -1458,63 +1370,63 @@
       <c r="AJ1" s="33"/>
     </row>
     <row r="2" spans="1:67" s="8" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="54" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="54" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="45" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AJ2" s="57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:67" s="8" customFormat="1" ht="36">
-      <c r="A3" s="58"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1605,39 +1517,39 @@
       <c r="AE3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="48"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="58"/>
     </row>
-    <row r="4" spans="1:67" s="8" customFormat="1" ht="72">
+    <row r="4" spans="1:67" s="8" customFormat="1" ht="48">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>49</v>
@@ -1649,76 +1561,76 @@
         <v>51</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="V4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AB4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AC4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AD4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AE4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AF4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AG4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AH4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AJ4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:67" s="8" customFormat="1" ht="14.25">
@@ -1726,143 +1638,143 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="str">
-        <f>IF(_tag_month_day!A2="","",_tag_month_day!A2)</f>
+        <f>IF(_tag_month_all!A2="","",_tag_month_all!A2)</f>
         <v/>
       </c>
       <c r="C5" s="14" t="str">
-        <f>IF(_tag_month_day!B2="","",_tag_month_day!B2)</f>
+        <f>IF(_tag_month_all!B2="","",_tag_month_all!B2)</f>
         <v/>
       </c>
       <c r="D5" s="14" t="str">
-        <f>IF(_tag_month_day!C2="","",_tag_month_day!C2)</f>
+        <f>IF(_tag_month_all!C2="","",_tag_month_all!C2)</f>
         <v/>
       </c>
       <c r="E5" s="14" t="str">
-        <f>IF(_tag_month_day!D2="","",_tag_month_day!D2)</f>
+        <f>IF(_tag_month_all!D2="","",_tag_month_all!D2)</f>
         <v/>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF(_tag_month_day!E2="","",_tag_month_day!E2)</f>
+        <f>IF(_tag_month_all!E2="","",_tag_month_all!E2)</f>
         <v/>
       </c>
       <c r="G5" s="15" t="str">
-        <f>IF(_tag_month_day!F2="","",_tag_month_day!F2)</f>
+        <f>IF(_tag_month_all!F2="","",_tag_month_all!F2)</f>
         <v/>
       </c>
       <c r="H5" s="2" t="str">
-        <f>IF(_tag_month_day!G2="","",_tag_month_day!G2)</f>
+        <f>IF(_tag_month_all!G2="","",_tag_month_all!G2)</f>
         <v/>
       </c>
       <c r="I5" s="14" t="str">
-        <f>IF(_tag_month_day!H2="","",_tag_month_day!H2)</f>
+        <f>IF(_tag_month_all!H2="","",_tag_month_all!H2)</f>
         <v/>
       </c>
       <c r="J5" s="14" t="str">
-        <f>IF(_tag_month_day!I2="","",_tag_month_day!I2)</f>
+        <f>IF(_tag_month_all!I2="","",_tag_month_all!I2)</f>
         <v/>
       </c>
       <c r="K5" s="1" t="str">
-        <f>IF(_tag_month_day!J2="","",_tag_month_day!J2)</f>
+        <f>IF(_tag_month_all!J2="","",_tag_month_all!J2)</f>
         <v/>
       </c>
       <c r="L5" s="14" t="str">
-        <f>IF(_tag_month_day!K2="","",_tag_month_day!K2)</f>
+        <f>IF(_tag_month_all!K2="","",_tag_month_all!K2)</f>
         <v/>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IF(_tag_month_day!L2="","",_tag_month_day!L2)</f>
+        <f>IF(_tag_month_all!L2="","",_tag_month_all!L2)</f>
         <v/>
       </c>
       <c r="N5" s="14" t="str">
-        <f>IF(_tag_month_day!M2="","",_tag_month_day!M2)</f>
+        <f>IF(_tag_month_all!M2="","",_tag_month_all!M2)</f>
         <v/>
       </c>
       <c r="O5" s="14" t="str">
-        <f>IF(_tag_month_day!N2="","",_tag_month_day!N2)</f>
+        <f>IF(_tag_month_all!N2="","",_tag_month_all!N2)</f>
         <v/>
       </c>
       <c r="P5" s="14" t="str">
-        <f>IF(_tag_month_day!O2="","",_tag_month_day!O2)</f>
+        <f>IF(_tag_month_all!O2="","",_tag_month_all!O2)</f>
         <v/>
       </c>
       <c r="Q5" s="14" t="str">
-        <f>IF(_tag_month_day!P2="","",_tag_month_day!P2)</f>
+        <f>IF(_tag_month_all!P2="","",_tag_month_all!P2)</f>
         <v/>
       </c>
       <c r="R5" s="14" t="str">
-        <f>IF(_tag_month_day!Q2="","",_tag_month_day!Q2)</f>
+        <f>IF(_tag_month_all!Q2="","",_tag_month_all!Q2)</f>
         <v/>
       </c>
       <c r="S5" s="14" t="str">
-        <f>IF(_tag_month_day!R2="","",_tag_month_day!R2)</f>
+        <f>IF(_tag_month_all!R2="","",_tag_month_all!R2)</f>
         <v/>
       </c>
       <c r="T5" s="14" t="str">
-        <f>IF(_tag_month_day!S2="","",_tag_month_day!S2)</f>
+        <f>IF(_tag_month_all!S2="","",_tag_month_all!S2)</f>
         <v/>
       </c>
       <c r="U5" s="14" t="str">
-        <f>IF(_tag_month_day!T2="","",_tag_month_day!T2)</f>
+        <f>IF(_tag_month_all!T2="","",_tag_month_all!T2)</f>
         <v/>
       </c>
       <c r="V5" s="14" t="str">
-        <f>IF(_tag_month_day!U2="","",_tag_month_day!U2)</f>
+        <f>IF(_tag_month_all!U2="","",_tag_month_all!U2)</f>
         <v/>
       </c>
       <c r="W5" s="14" t="str">
-        <f>IF(_tag_month_day!V2="","",_tag_month_day!V2)</f>
+        <f>IF(_tag_month_all!V2="","",_tag_month_all!V2)</f>
         <v/>
       </c>
       <c r="X5" s="14" t="str">
-        <f>IF(_tag_month_day!W2="","",_tag_month_day!W2)</f>
+        <f>IF(_tag_month_all!W2="","",_tag_month_all!W2)</f>
         <v/>
       </c>
       <c r="Y5" s="14" t="str">
-        <f>IF(_tag_month_day!X2="","",_tag_month_day!X2)</f>
+        <f>IF(_tag_month_all!X2="","",_tag_month_all!X2)</f>
         <v/>
       </c>
       <c r="Z5" s="14" t="str">
-        <f>IF(_tag_month_day!Y2="","",_tag_month_day!Y2)</f>
+        <f>IF(_tag_month_all!Y2="","",_tag_month_all!Y2)</f>
         <v/>
       </c>
       <c r="AA5" s="14" t="str">
-        <f>IF(_tag_month_day!Z2="","",_tag_month_day!Z2)</f>
+        <f>IF(_tag_month_all!Z2="","",_tag_month_all!Z2)</f>
         <v/>
       </c>
       <c r="AB5" s="36" t="str">
-        <f>IF(_tag_month_day!AA2="","",_tag_month_day!AA2)</f>
+        <f>IF(_tag_month_all!AA2="","",_tag_month_all!AA2)</f>
         <v/>
       </c>
       <c r="AC5" s="37" t="str">
-        <f>IF(_tag_month_day!AB2="","",_tag_month_day!AB2)</f>
+        <f>IF(_tag_month_all!AB2="","",_tag_month_all!AB2)</f>
         <v/>
       </c>
       <c r="AD5" s="37" t="str">
-        <f>IF(_tag_month_day!AC2="","",_tag_month_day!AC2)</f>
+        <f>IF(_tag_month_all!AC2="","",_tag_month_all!AC2)</f>
         <v/>
       </c>
       <c r="AE5" s="37" t="str">
-        <f>IF(_tag_month_day!AD2="","",_tag_month_day!AD2)</f>
+        <f>IF(_tag_month_all!AD2="","",_tag_month_all!AD2)</f>
         <v/>
       </c>
       <c r="AF5" s="14" t="str">
-        <f>IF(_tag_month_day!AE2="","",_tag_month_day!AE2)</f>
+        <f>IF(_tag_month_all!AE2="","",_tag_month_all!AE2)</f>
         <v/>
       </c>
       <c r="AG5" s="14" t="str">
-        <f>IF(_tag_month_day!AF2="","",_tag_month_day!AF2)</f>
+        <f>IF(_tag_month_all!AF2="","",_tag_month_all!AF2)</f>
         <v/>
       </c>
       <c r="AH5" s="14" t="str">
-        <f>IF(_tag_month_day!AG2="","",_tag_month_day!AG2)</f>
+        <f>IF(_tag_month_all!AG2="","",_tag_month_all!AG2)</f>
         <v/>
       </c>
       <c r="AI5" s="14" t="str">
-        <f>IF(_tag_month_day!AH2="","",_tag_month_day!AH2)</f>
+        <f>IF(_tag_month_all!AH2="","",_tag_month_all!AH2)</f>
         <v/>
       </c>
       <c r="AJ5" s="38" t="str">
-        <f>IF(_tag_month_day!AI2="","",_tag_month_day!AI2)</f>
+        <f>IF(_tag_month_all!AI2="","",_tag_month_all!AI2)</f>
         <v/>
       </c>
     </row>
@@ -1871,143 +1783,143 @@
         <v>2</v>
       </c>
       <c r="B6" s="14" t="str">
-        <f>IF(_tag_month_day!A3="","",_tag_month_day!A3)</f>
+        <f>IF(_tag_month_all!A3="","",_tag_month_all!A3)</f>
         <v/>
       </c>
       <c r="C6" s="14" t="str">
-        <f>IF(_tag_month_day!B3="","",_tag_month_day!B3)</f>
+        <f>IF(_tag_month_all!B3="","",_tag_month_all!B3)</f>
         <v/>
       </c>
       <c r="D6" s="14" t="str">
-        <f>IF(_tag_month_day!C3="","",_tag_month_day!C3)</f>
+        <f>IF(_tag_month_all!C3="","",_tag_month_all!C3)</f>
         <v/>
       </c>
       <c r="E6" s="14" t="str">
-        <f>IF(_tag_month_day!D3="","",_tag_month_day!D3)</f>
+        <f>IF(_tag_month_all!D3="","",_tag_month_all!D3)</f>
         <v/>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF(_tag_month_day!E3="","",_tag_month_day!E3)</f>
+        <f>IF(_tag_month_all!E3="","",_tag_month_all!E3)</f>
         <v/>
       </c>
       <c r="G6" s="15" t="str">
-        <f>IF(_tag_month_day!F3="","",_tag_month_day!F3)</f>
+        <f>IF(_tag_month_all!F3="","",_tag_month_all!F3)</f>
         <v/>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(_tag_month_day!G3="","",_tag_month_day!G3)</f>
+        <f>IF(_tag_month_all!G3="","",_tag_month_all!G3)</f>
         <v/>
       </c>
       <c r="I6" s="14" t="str">
-        <f>IF(_tag_month_day!H3="","",_tag_month_day!H3)</f>
+        <f>IF(_tag_month_all!H3="","",_tag_month_all!H3)</f>
         <v/>
       </c>
       <c r="J6" s="14" t="str">
-        <f>IF(_tag_month_day!I3="","",_tag_month_day!I3)</f>
+        <f>IF(_tag_month_all!I3="","",_tag_month_all!I3)</f>
         <v/>
       </c>
       <c r="K6" s="1" t="str">
-        <f>IF(_tag_month_day!J3="","",_tag_month_day!J3)</f>
+        <f>IF(_tag_month_all!J3="","",_tag_month_all!J3)</f>
         <v/>
       </c>
       <c r="L6" s="14" t="str">
-        <f>IF(_tag_month_day!K3="","",_tag_month_day!K3)</f>
+        <f>IF(_tag_month_all!K3="","",_tag_month_all!K3)</f>
         <v/>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IF(_tag_month_day!L3="","",_tag_month_day!L3)</f>
+        <f>IF(_tag_month_all!L3="","",_tag_month_all!L3)</f>
         <v/>
       </c>
       <c r="N6" s="14" t="str">
-        <f>IF(_tag_month_day!M3="","",_tag_month_day!M3)</f>
+        <f>IF(_tag_month_all!M3="","",_tag_month_all!M3)</f>
         <v/>
       </c>
       <c r="O6" s="14" t="str">
-        <f>IF(_tag_month_day!N3="","",_tag_month_day!N3)</f>
+        <f>IF(_tag_month_all!N3="","",_tag_month_all!N3)</f>
         <v/>
       </c>
       <c r="P6" s="14" t="str">
-        <f>IF(_tag_month_day!O3="","",_tag_month_day!O3)</f>
+        <f>IF(_tag_month_all!O3="","",_tag_month_all!O3)</f>
         <v/>
       </c>
       <c r="Q6" s="14" t="str">
-        <f>IF(_tag_month_day!P3="","",_tag_month_day!P3)</f>
+        <f>IF(_tag_month_all!P3="","",_tag_month_all!P3)</f>
         <v/>
       </c>
       <c r="R6" s="14" t="str">
-        <f>IF(_tag_month_day!Q3="","",_tag_month_day!Q3)</f>
+        <f>IF(_tag_month_all!Q3="","",_tag_month_all!Q3)</f>
         <v/>
       </c>
       <c r="S6" s="14" t="str">
-        <f>IF(_tag_month_day!R3="","",_tag_month_day!R3)</f>
+        <f>IF(_tag_month_all!R3="","",_tag_month_all!R3)</f>
         <v/>
       </c>
       <c r="T6" s="14" t="str">
-        <f>IF(_tag_month_day!S3="","",_tag_month_day!S3)</f>
+        <f>IF(_tag_month_all!S3="","",_tag_month_all!S3)</f>
         <v/>
       </c>
       <c r="U6" s="14" t="str">
-        <f>IF(_tag_month_day!T3="","",_tag_month_day!T3)</f>
+        <f>IF(_tag_month_all!T3="","",_tag_month_all!T3)</f>
         <v/>
       </c>
       <c r="V6" s="14" t="str">
-        <f>IF(_tag_month_day!U3="","",_tag_month_day!U3)</f>
+        <f>IF(_tag_month_all!U3="","",_tag_month_all!U3)</f>
         <v/>
       </c>
       <c r="W6" s="14" t="str">
-        <f>IF(_tag_month_day!V3="","",_tag_month_day!V3)</f>
+        <f>IF(_tag_month_all!V3="","",_tag_month_all!V3)</f>
         <v/>
       </c>
       <c r="X6" s="14" t="str">
-        <f>IF(_tag_month_day!W3="","",_tag_month_day!W3)</f>
+        <f>IF(_tag_month_all!W3="","",_tag_month_all!W3)</f>
         <v/>
       </c>
       <c r="Y6" s="14" t="str">
-        <f>IF(_tag_month_day!X3="","",_tag_month_day!X3)</f>
+        <f>IF(_tag_month_all!X3="","",_tag_month_all!X3)</f>
         <v/>
       </c>
       <c r="Z6" s="14" t="str">
-        <f>IF(_tag_month_day!Y3="","",_tag_month_day!Y3)</f>
+        <f>IF(_tag_month_all!Y3="","",_tag_month_all!Y3)</f>
         <v/>
       </c>
       <c r="AA6" s="14" t="str">
-        <f>IF(_tag_month_day!Z3="","",_tag_month_day!Z3)</f>
+        <f>IF(_tag_month_all!Z3="","",_tag_month_all!Z3)</f>
         <v/>
       </c>
       <c r="AB6" s="36" t="str">
-        <f>IF(_tag_month_day!AA3="","",_tag_month_day!AA3)</f>
+        <f>IF(_tag_month_all!AA3="","",_tag_month_all!AA3)</f>
         <v/>
       </c>
       <c r="AC6" s="37" t="str">
-        <f>IF(_tag_month_day!AB3="","",_tag_month_day!AB3)</f>
+        <f>IF(_tag_month_all!AB3="","",_tag_month_all!AB3)</f>
         <v/>
       </c>
       <c r="AD6" s="37" t="str">
-        <f>IF(_tag_month_day!AC3="","",_tag_month_day!AC3)</f>
+        <f>IF(_tag_month_all!AC3="","",_tag_month_all!AC3)</f>
         <v/>
       </c>
       <c r="AE6" s="37" t="str">
-        <f>IF(_tag_month_day!AD3="","",_tag_month_day!AD3)</f>
+        <f>IF(_tag_month_all!AD3="","",_tag_month_all!AD3)</f>
         <v/>
       </c>
       <c r="AF6" s="14" t="str">
-        <f>IF(_tag_month_day!AE3="","",_tag_month_day!AE3)</f>
+        <f>IF(_tag_month_all!AE3="","",_tag_month_all!AE3)</f>
         <v/>
       </c>
       <c r="AG6" s="14" t="str">
-        <f>IF(_tag_month_day!AF3="","",_tag_month_day!AF3)</f>
+        <f>IF(_tag_month_all!AF3="","",_tag_month_all!AF3)</f>
         <v/>
       </c>
       <c r="AH6" s="14" t="str">
-        <f>IF(_tag_month_day!AG3="","",_tag_month_day!AG3)</f>
+        <f>IF(_tag_month_all!AG3="","",_tag_month_all!AG3)</f>
         <v/>
       </c>
       <c r="AI6" s="14" t="str">
-        <f>IF(_tag_month_day!AH3="","",_tag_month_day!AH3)</f>
+        <f>IF(_tag_month_all!AH3="","",_tag_month_all!AH3)</f>
         <v/>
       </c>
       <c r="AJ6" s="38" t="str">
-        <f>IF(_tag_month_day!AI3="","",_tag_month_day!AI3)</f>
+        <f>IF(_tag_month_all!AI3="","",_tag_month_all!AI3)</f>
         <v/>
       </c>
     </row>
@@ -2016,143 +1928,143 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="str">
-        <f>IF(_tag_month_day!A4="","",_tag_month_day!A4)</f>
+        <f>IF(_tag_month_all!A4="","",_tag_month_all!A4)</f>
         <v/>
       </c>
       <c r="C7" s="16" t="str">
-        <f>IF(_tag_month_day!B4="","",_tag_month_day!B4)</f>
+        <f>IF(_tag_month_all!B4="","",_tag_month_all!B4)</f>
         <v/>
       </c>
       <c r="D7" s="17" t="str">
-        <f>IF(_tag_month_day!C4="","",_tag_month_day!C4)</f>
+        <f>IF(_tag_month_all!C4="","",_tag_month_all!C4)</f>
         <v/>
       </c>
       <c r="E7" s="18" t="str">
-        <f>IF(_tag_month_day!D4="","",_tag_month_day!D4)</f>
+        <f>IF(_tag_month_all!D4="","",_tag_month_all!D4)</f>
         <v/>
       </c>
       <c r="F7" s="19" t="str">
-        <f>IF(_tag_month_day!E4="","",_tag_month_day!E4)</f>
+        <f>IF(_tag_month_all!E4="","",_tag_month_all!E4)</f>
         <v/>
       </c>
       <c r="G7" s="20" t="str">
-        <f>IF(_tag_month_day!F4="","",_tag_month_day!F4)</f>
+        <f>IF(_tag_month_all!F4="","",_tag_month_all!F4)</f>
         <v/>
       </c>
       <c r="H7" s="21" t="str">
-        <f>IF(_tag_month_day!G4="","",_tag_month_day!G4)</f>
+        <f>IF(_tag_month_all!G4="","",_tag_month_all!G4)</f>
         <v/>
       </c>
       <c r="I7" s="18" t="str">
-        <f>IF(_tag_month_day!H4="","",_tag_month_day!H4)</f>
+        <f>IF(_tag_month_all!H4="","",_tag_month_all!H4)</f>
         <v/>
       </c>
       <c r="J7" s="18" t="str">
-        <f>IF(_tag_month_day!I4="","",_tag_month_day!I4)</f>
+        <f>IF(_tag_month_all!I4="","",_tag_month_all!I4)</f>
         <v/>
       </c>
       <c r="K7" s="27" t="str">
-        <f>IF(_tag_month_day!J4="","",_tag_month_day!J4)</f>
+        <f>IF(_tag_month_all!J4="","",_tag_month_all!J4)</f>
         <v/>
       </c>
       <c r="L7" s="18" t="str">
-        <f>IF(_tag_month_day!K4="","",_tag_month_day!K4)</f>
+        <f>IF(_tag_month_all!K4="","",_tag_month_all!K4)</f>
         <v/>
       </c>
       <c r="M7" s="28" t="str">
-        <f>IF(_tag_month_day!L4="","",_tag_month_day!L4)</f>
+        <f>IF(_tag_month_all!L4="","",_tag_month_all!L4)</f>
         <v/>
       </c>
       <c r="N7" s="29" t="str">
-        <f>IF(_tag_month_day!M4="","",_tag_month_day!M4)</f>
+        <f>IF(_tag_month_all!M4="","",_tag_month_all!M4)</f>
         <v/>
       </c>
       <c r="O7" s="30" t="str">
-        <f>IF(_tag_month_day!N4="","",_tag_month_day!N4)</f>
+        <f>IF(_tag_month_all!N4="","",_tag_month_all!N4)</f>
         <v/>
       </c>
       <c r="P7" s="30" t="str">
-        <f>IF(_tag_month_day!O4="","",_tag_month_day!O4)</f>
+        <f>IF(_tag_month_all!O4="","",_tag_month_all!O4)</f>
         <v/>
       </c>
       <c r="Q7" s="30" t="str">
-        <f>IF(_tag_month_day!P4="","",_tag_month_day!P4)</f>
+        <f>IF(_tag_month_all!P4="","",_tag_month_all!P4)</f>
         <v/>
       </c>
       <c r="R7" s="35" t="str">
-        <f>IF(_tag_month_day!Q4="","",_tag_month_day!Q4)</f>
+        <f>IF(_tag_month_all!Q4="","",_tag_month_all!Q4)</f>
         <v/>
       </c>
       <c r="S7" s="35" t="str">
-        <f>IF(_tag_month_day!R4="","",_tag_month_day!R4)</f>
+        <f>IF(_tag_month_all!R4="","",_tag_month_all!R4)</f>
         <v/>
       </c>
       <c r="T7" s="35" t="str">
-        <f>IF(_tag_month_day!S4="","",_tag_month_day!S4)</f>
+        <f>IF(_tag_month_all!S4="","",_tag_month_all!S4)</f>
         <v/>
       </c>
       <c r="U7" s="35" t="str">
-        <f>IF(_tag_month_day!T4="","",_tag_month_day!T4)</f>
+        <f>IF(_tag_month_all!T4="","",_tag_month_all!T4)</f>
         <v/>
       </c>
       <c r="V7" s="29" t="str">
-        <f>IF(_tag_month_day!U4="","",_tag_month_day!U4)</f>
+        <f>IF(_tag_month_all!U4="","",_tag_month_all!U4)</f>
         <v/>
       </c>
       <c r="W7" s="30" t="str">
-        <f>IF(_tag_month_day!V4="","",_tag_month_day!V4)</f>
+        <f>IF(_tag_month_all!V4="","",_tag_month_all!V4)</f>
         <v/>
       </c>
       <c r="X7" s="30" t="str">
-        <f>IF(_tag_month_day!W4="","",_tag_month_day!W4)</f>
+        <f>IF(_tag_month_all!W4="","",_tag_month_all!W4)</f>
         <v/>
       </c>
       <c r="Y7" s="30" t="str">
-        <f>IF(_tag_month_day!X4="","",_tag_month_day!X4)</f>
+        <f>IF(_tag_month_all!X4="","",_tag_month_all!X4)</f>
         <v/>
       </c>
       <c r="Z7" s="30" t="str">
-        <f>IF(_tag_month_day!Y4="","",_tag_month_day!Y4)</f>
+        <f>IF(_tag_month_all!Y4="","",_tag_month_all!Y4)</f>
         <v/>
       </c>
       <c r="AA7" s="30" t="str">
-        <f>IF(_tag_month_day!Z4="","",_tag_month_day!Z4)</f>
+        <f>IF(_tag_month_all!Z4="","",_tag_month_all!Z4)</f>
         <v/>
       </c>
       <c r="AB7" s="30" t="str">
-        <f>IF(_tag_month_day!AA4="","",_tag_month_day!AA4)</f>
+        <f>IF(_tag_month_all!AA4="","",_tag_month_all!AA4)</f>
         <v/>
       </c>
       <c r="AC7" s="30" t="str">
-        <f>IF(_tag_month_day!AB4="","",_tag_month_day!AB4)</f>
+        <f>IF(_tag_month_all!AB4="","",_tag_month_all!AB4)</f>
         <v/>
       </c>
       <c r="AD7" s="17" t="str">
-        <f>IF(_tag_month_day!AC4="","",_tag_month_day!AC4)</f>
+        <f>IF(_tag_month_all!AC4="","",_tag_month_all!AC4)</f>
         <v/>
       </c>
       <c r="AE7" s="17" t="str">
-        <f>IF(_tag_month_day!AD4="","",_tag_month_day!AD4)</f>
+        <f>IF(_tag_month_all!AD4="","",_tag_month_all!AD4)</f>
         <v/>
       </c>
       <c r="AF7" s="17" t="str">
-        <f>IF(_tag_month_day!AE4="","",_tag_month_day!AE4)</f>
+        <f>IF(_tag_month_all!AE4="","",_tag_month_all!AE4)</f>
         <v/>
       </c>
       <c r="AG7" s="17" t="str">
-        <f>IF(_tag_month_day!AF4="","",_tag_month_day!AF4)</f>
+        <f>IF(_tag_month_all!AF4="","",_tag_month_all!AF4)</f>
         <v/>
       </c>
       <c r="AH7" s="29" t="str">
-        <f>IF(_tag_month_day!AG4="","",_tag_month_day!AG4)</f>
+        <f>IF(_tag_month_all!AG4="","",_tag_month_all!AG4)</f>
         <v/>
       </c>
       <c r="AI7" s="29" t="str">
-        <f>IF(_tag_month_day!AH4="","",_tag_month_day!AH4)</f>
+        <f>IF(_tag_month_all!AH4="","",_tag_month_all!AH4)</f>
         <v/>
       </c>
       <c r="AJ7" s="38" t="str">
-        <f>IF(_tag_month_day!AI4="","",_tag_month_day!AI4)</f>
+        <f>IF(_tag_month_all!AI4="","",_tag_month_all!AI4)</f>
         <v/>
       </c>
       <c r="AK7" s="8"/>
@@ -2192,143 +2104,143 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="str">
-        <f>IF(_tag_month_day!A5="","",_tag_month_day!A5)</f>
+        <f>IF(_tag_month_all!A5="","",_tag_month_all!A5)</f>
         <v/>
       </c>
       <c r="C8" s="16" t="str">
-        <f>IF(_tag_month_day!B5="","",_tag_month_day!B5)</f>
+        <f>IF(_tag_month_all!B5="","",_tag_month_all!B5)</f>
         <v/>
       </c>
       <c r="D8" s="17" t="str">
-        <f>IF(_tag_month_day!C5="","",_tag_month_day!C5)</f>
+        <f>IF(_tag_month_all!C5="","",_tag_month_all!C5)</f>
         <v/>
       </c>
       <c r="E8" s="18" t="str">
-        <f>IF(_tag_month_day!D5="","",_tag_month_day!D5)</f>
+        <f>IF(_tag_month_all!D5="","",_tag_month_all!D5)</f>
         <v/>
       </c>
       <c r="F8" s="19" t="str">
-        <f>IF(_tag_month_day!E5="","",_tag_month_day!E5)</f>
+        <f>IF(_tag_month_all!E5="","",_tag_month_all!E5)</f>
         <v/>
       </c>
       <c r="G8" s="20" t="str">
-        <f>IF(_tag_month_day!F5="","",_tag_month_day!F5)</f>
+        <f>IF(_tag_month_all!F5="","",_tag_month_all!F5)</f>
         <v/>
       </c>
       <c r="H8" s="21" t="str">
-        <f>IF(_tag_month_day!G5="","",_tag_month_day!G5)</f>
+        <f>IF(_tag_month_all!G5="","",_tag_month_all!G5)</f>
         <v/>
       </c>
       <c r="I8" s="18" t="str">
-        <f>IF(_tag_month_day!H5="","",_tag_month_day!H5)</f>
+        <f>IF(_tag_month_all!H5="","",_tag_month_all!H5)</f>
         <v/>
       </c>
       <c r="J8" s="18" t="str">
-        <f>IF(_tag_month_day!I5="","",_tag_month_day!I5)</f>
+        <f>IF(_tag_month_all!I5="","",_tag_month_all!I5)</f>
         <v/>
       </c>
       <c r="K8" s="27" t="str">
-        <f>IF(_tag_month_day!J5="","",_tag_month_day!J5)</f>
+        <f>IF(_tag_month_all!J5="","",_tag_month_all!J5)</f>
         <v/>
       </c>
       <c r="L8" s="18" t="str">
-        <f>IF(_tag_month_day!K5="","",_tag_month_day!K5)</f>
+        <f>IF(_tag_month_all!K5="","",_tag_month_all!K5)</f>
         <v/>
       </c>
       <c r="M8" s="28" t="str">
-        <f>IF(_tag_month_day!L5="","",_tag_month_day!L5)</f>
+        <f>IF(_tag_month_all!L5="","",_tag_month_all!L5)</f>
         <v/>
       </c>
       <c r="N8" s="29" t="str">
-        <f>IF(_tag_month_day!M5="","",_tag_month_day!M5)</f>
+        <f>IF(_tag_month_all!M5="","",_tag_month_all!M5)</f>
         <v/>
       </c>
       <c r="O8" s="30" t="str">
-        <f>IF(_tag_month_day!N5="","",_tag_month_day!N5)</f>
+        <f>IF(_tag_month_all!N5="","",_tag_month_all!N5)</f>
         <v/>
       </c>
       <c r="P8" s="30" t="str">
-        <f>IF(_tag_month_day!O5="","",_tag_month_day!O5)</f>
+        <f>IF(_tag_month_all!O5="","",_tag_month_all!O5)</f>
         <v/>
       </c>
       <c r="Q8" s="30" t="str">
-        <f>IF(_tag_month_day!P5="","",_tag_month_day!P5)</f>
+        <f>IF(_tag_month_all!P5="","",_tag_month_all!P5)</f>
         <v/>
       </c>
       <c r="R8" s="35" t="str">
-        <f>IF(_tag_month_day!Q5="","",_tag_month_day!Q5)</f>
+        <f>IF(_tag_month_all!Q5="","",_tag_month_all!Q5)</f>
         <v/>
       </c>
       <c r="S8" s="35" t="str">
-        <f>IF(_tag_month_day!R5="","",_tag_month_day!R5)</f>
+        <f>IF(_tag_month_all!R5="","",_tag_month_all!R5)</f>
         <v/>
       </c>
       <c r="T8" s="35" t="str">
-        <f>IF(_tag_month_day!S5="","",_tag_month_day!S5)</f>
+        <f>IF(_tag_month_all!S5="","",_tag_month_all!S5)</f>
         <v/>
       </c>
       <c r="U8" s="35" t="str">
-        <f>IF(_tag_month_day!T5="","",_tag_month_day!T5)</f>
+        <f>IF(_tag_month_all!T5="","",_tag_month_all!T5)</f>
         <v/>
       </c>
       <c r="V8" s="29" t="str">
-        <f>IF(_tag_month_day!U5="","",_tag_month_day!U5)</f>
+        <f>IF(_tag_month_all!U5="","",_tag_month_all!U5)</f>
         <v/>
       </c>
       <c r="W8" s="30" t="str">
-        <f>IF(_tag_month_day!V5="","",_tag_month_day!V5)</f>
+        <f>IF(_tag_month_all!V5="","",_tag_month_all!V5)</f>
         <v/>
       </c>
       <c r="X8" s="30" t="str">
-        <f>IF(_tag_month_day!W5="","",_tag_month_day!W5)</f>
+        <f>IF(_tag_month_all!W5="","",_tag_month_all!W5)</f>
         <v/>
       </c>
       <c r="Y8" s="30" t="str">
-        <f>IF(_tag_month_day!X5="","",_tag_month_day!X5)</f>
+        <f>IF(_tag_month_all!X5="","",_tag_month_all!X5)</f>
         <v/>
       </c>
       <c r="Z8" s="30" t="str">
-        <f>IF(_tag_month_day!Y5="","",_tag_month_day!Y5)</f>
+        <f>IF(_tag_month_all!Y5="","",_tag_month_all!Y5)</f>
         <v/>
       </c>
       <c r="AA8" s="30" t="str">
-        <f>IF(_tag_month_day!Z5="","",_tag_month_day!Z5)</f>
+        <f>IF(_tag_month_all!Z5="","",_tag_month_all!Z5)</f>
         <v/>
       </c>
       <c r="AB8" s="30" t="str">
-        <f>IF(_tag_month_day!AA5="","",_tag_month_day!AA5)</f>
+        <f>IF(_tag_month_all!AA5="","",_tag_month_all!AA5)</f>
         <v/>
       </c>
       <c r="AC8" s="30" t="str">
-        <f>IF(_tag_month_day!AB5="","",_tag_month_day!AB5)</f>
+        <f>IF(_tag_month_all!AB5="","",_tag_month_all!AB5)</f>
         <v/>
       </c>
       <c r="AD8" s="17" t="str">
-        <f>IF(_tag_month_day!AC5="","",_tag_month_day!AC5)</f>
+        <f>IF(_tag_month_all!AC5="","",_tag_month_all!AC5)</f>
         <v/>
       </c>
       <c r="AE8" s="17" t="str">
-        <f>IF(_tag_month_day!AD5="","",_tag_month_day!AD5)</f>
+        <f>IF(_tag_month_all!AD5="","",_tag_month_all!AD5)</f>
         <v/>
       </c>
       <c r="AF8" s="17" t="str">
-        <f>IF(_tag_month_day!AE5="","",_tag_month_day!AE5)</f>
+        <f>IF(_tag_month_all!AE5="","",_tag_month_all!AE5)</f>
         <v/>
       </c>
       <c r="AG8" s="17" t="str">
-        <f>IF(_tag_month_day!AF5="","",_tag_month_day!AF5)</f>
+        <f>IF(_tag_month_all!AF5="","",_tag_month_all!AF5)</f>
         <v/>
       </c>
       <c r="AH8" s="29" t="str">
-        <f>IF(_tag_month_day!AG5="","",_tag_month_day!AG5)</f>
+        <f>IF(_tag_month_all!AG5="","",_tag_month_all!AG5)</f>
         <v/>
       </c>
       <c r="AI8" s="29" t="str">
-        <f>IF(_tag_month_day!AH5="","",_tag_month_day!AH5)</f>
+        <f>IF(_tag_month_all!AH5="","",_tag_month_all!AH5)</f>
         <v/>
       </c>
       <c r="AJ8" s="38" t="str">
-        <f>IF(_tag_month_day!AI5="","",_tag_month_day!AI5)</f>
+        <f>IF(_tag_month_all!AI5="","",_tag_month_all!AI5)</f>
         <v/>
       </c>
       <c r="AK8" s="8"/>
@@ -2368,143 +2280,143 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="str">
-        <f>IF(_tag_month_day!A6="","",_tag_month_day!A6)</f>
+        <f>IF(_tag_month_all!A6="","",_tag_month_all!A6)</f>
         <v/>
       </c>
       <c r="C9" s="16" t="str">
-        <f>IF(_tag_month_day!B6="","",_tag_month_day!B6)</f>
+        <f>IF(_tag_month_all!B6="","",_tag_month_all!B6)</f>
         <v/>
       </c>
       <c r="D9" s="17" t="str">
-        <f>IF(_tag_month_day!C6="","",_tag_month_day!C6)</f>
+        <f>IF(_tag_month_all!C6="","",_tag_month_all!C6)</f>
         <v/>
       </c>
       <c r="E9" s="18" t="str">
-        <f>IF(_tag_month_day!D6="","",_tag_month_day!D6)</f>
+        <f>IF(_tag_month_all!D6="","",_tag_month_all!D6)</f>
         <v/>
       </c>
       <c r="F9" s="19" t="str">
-        <f>IF(_tag_month_day!E6="","",_tag_month_day!E6)</f>
+        <f>IF(_tag_month_all!E6="","",_tag_month_all!E6)</f>
         <v/>
       </c>
       <c r="G9" s="20" t="str">
-        <f>IF(_tag_month_day!F6="","",_tag_month_day!F6)</f>
+        <f>IF(_tag_month_all!F6="","",_tag_month_all!F6)</f>
         <v/>
       </c>
       <c r="H9" s="21" t="str">
-        <f>IF(_tag_month_day!G6="","",_tag_month_day!G6)</f>
+        <f>IF(_tag_month_all!G6="","",_tag_month_all!G6)</f>
         <v/>
       </c>
       <c r="I9" s="18" t="str">
-        <f>IF(_tag_month_day!H6="","",_tag_month_day!H6)</f>
+        <f>IF(_tag_month_all!H6="","",_tag_month_all!H6)</f>
         <v/>
       </c>
       <c r="J9" s="18" t="str">
-        <f>IF(_tag_month_day!I6="","",_tag_month_day!I6)</f>
+        <f>IF(_tag_month_all!I6="","",_tag_month_all!I6)</f>
         <v/>
       </c>
       <c r="K9" s="27" t="str">
-        <f>IF(_tag_month_day!J6="","",_tag_month_day!J6)</f>
+        <f>IF(_tag_month_all!J6="","",_tag_month_all!J6)</f>
         <v/>
       </c>
       <c r="L9" s="18" t="str">
-        <f>IF(_tag_month_day!K6="","",_tag_month_day!K6)</f>
+        <f>IF(_tag_month_all!K6="","",_tag_month_all!K6)</f>
         <v/>
       </c>
       <c r="M9" s="28" t="str">
-        <f>IF(_tag_month_day!L6="","",_tag_month_day!L6)</f>
+        <f>IF(_tag_month_all!L6="","",_tag_month_all!L6)</f>
         <v/>
       </c>
       <c r="N9" s="29" t="str">
-        <f>IF(_tag_month_day!M6="","",_tag_month_day!M6)</f>
+        <f>IF(_tag_month_all!M6="","",_tag_month_all!M6)</f>
         <v/>
       </c>
       <c r="O9" s="30" t="str">
-        <f>IF(_tag_month_day!N6="","",_tag_month_day!N6)</f>
+        <f>IF(_tag_month_all!N6="","",_tag_month_all!N6)</f>
         <v/>
       </c>
       <c r="P9" s="30" t="str">
-        <f>IF(_tag_month_day!O6="","",_tag_month_day!O6)</f>
+        <f>IF(_tag_month_all!O6="","",_tag_month_all!O6)</f>
         <v/>
       </c>
       <c r="Q9" s="30" t="str">
-        <f>IF(_tag_month_day!P6="","",_tag_month_day!P6)</f>
+        <f>IF(_tag_month_all!P6="","",_tag_month_all!P6)</f>
         <v/>
       </c>
       <c r="R9" s="35" t="str">
-        <f>IF(_tag_month_day!Q6="","",_tag_month_day!Q6)</f>
+        <f>IF(_tag_month_all!Q6="","",_tag_month_all!Q6)</f>
         <v/>
       </c>
       <c r="S9" s="35" t="str">
-        <f>IF(_tag_month_day!R6="","",_tag_month_day!R6)</f>
+        <f>IF(_tag_month_all!R6="","",_tag_month_all!R6)</f>
         <v/>
       </c>
       <c r="T9" s="35" t="str">
-        <f>IF(_tag_month_day!S6="","",_tag_month_day!S6)</f>
+        <f>IF(_tag_month_all!S6="","",_tag_month_all!S6)</f>
         <v/>
       </c>
       <c r="U9" s="35" t="str">
-        <f>IF(_tag_month_day!T6="","",_tag_month_day!T6)</f>
+        <f>IF(_tag_month_all!T6="","",_tag_month_all!T6)</f>
         <v/>
       </c>
       <c r="V9" s="29" t="str">
-        <f>IF(_tag_month_day!U6="","",_tag_month_day!U6)</f>
+        <f>IF(_tag_month_all!U6="","",_tag_month_all!U6)</f>
         <v/>
       </c>
       <c r="W9" s="30" t="str">
-        <f>IF(_tag_month_day!V6="","",_tag_month_day!V6)</f>
+        <f>IF(_tag_month_all!V6="","",_tag_month_all!V6)</f>
         <v/>
       </c>
       <c r="X9" s="30" t="str">
-        <f>IF(_tag_month_day!W6="","",_tag_month_day!W6)</f>
+        <f>IF(_tag_month_all!W6="","",_tag_month_all!W6)</f>
         <v/>
       </c>
       <c r="Y9" s="30" t="str">
-        <f>IF(_tag_month_day!X6="","",_tag_month_day!X6)</f>
+        <f>IF(_tag_month_all!X6="","",_tag_month_all!X6)</f>
         <v/>
       </c>
       <c r="Z9" s="30" t="str">
-        <f>IF(_tag_month_day!Y6="","",_tag_month_day!Y6)</f>
+        <f>IF(_tag_month_all!Y6="","",_tag_month_all!Y6)</f>
         <v/>
       </c>
       <c r="AA9" s="30" t="str">
-        <f>IF(_tag_month_day!Z6="","",_tag_month_day!Z6)</f>
+        <f>IF(_tag_month_all!Z6="","",_tag_month_all!Z6)</f>
         <v/>
       </c>
       <c r="AB9" s="30" t="str">
-        <f>IF(_tag_month_day!AA6="","",_tag_month_day!AA6)</f>
+        <f>IF(_tag_month_all!AA6="","",_tag_month_all!AA6)</f>
         <v/>
       </c>
       <c r="AC9" s="30" t="str">
-        <f>IF(_tag_month_day!AB6="","",_tag_month_day!AB6)</f>
+        <f>IF(_tag_month_all!AB6="","",_tag_month_all!AB6)</f>
         <v/>
       </c>
       <c r="AD9" s="17" t="str">
-        <f>IF(_tag_month_day!AC6="","",_tag_month_day!AC6)</f>
+        <f>IF(_tag_month_all!AC6="","",_tag_month_all!AC6)</f>
         <v/>
       </c>
       <c r="AE9" s="17" t="str">
-        <f>IF(_tag_month_day!AD6="","",_tag_month_day!AD6)</f>
+        <f>IF(_tag_month_all!AD6="","",_tag_month_all!AD6)</f>
         <v/>
       </c>
       <c r="AF9" s="17" t="str">
-        <f>IF(_tag_month_day!AE6="","",_tag_month_day!AE6)</f>
+        <f>IF(_tag_month_all!AE6="","",_tag_month_all!AE6)</f>
         <v/>
       </c>
       <c r="AG9" s="17" t="str">
-        <f>IF(_tag_month_day!AF6="","",_tag_month_day!AF6)</f>
+        <f>IF(_tag_month_all!AF6="","",_tag_month_all!AF6)</f>
         <v/>
       </c>
       <c r="AH9" s="29" t="str">
-        <f>IF(_tag_month_day!AG6="","",_tag_month_day!AG6)</f>
+        <f>IF(_tag_month_all!AG6="","",_tag_month_all!AG6)</f>
         <v/>
       </c>
       <c r="AI9" s="29" t="str">
-        <f>IF(_tag_month_day!AH6="","",_tag_month_day!AH6)</f>
+        <f>IF(_tag_month_all!AH6="","",_tag_month_all!AH6)</f>
         <v/>
       </c>
       <c r="AJ9" s="38" t="str">
-        <f>IF(_tag_month_day!AI6="","",_tag_month_day!AI6)</f>
+        <f>IF(_tag_month_all!AI6="","",_tag_month_all!AI6)</f>
         <v/>
       </c>
       <c r="AK9" s="8"/>
@@ -2544,143 +2456,143 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="str">
-        <f>IF(_tag_month_day!A7="","",_tag_month_day!A7)</f>
+        <f>IF(_tag_month_all!A7="","",_tag_month_all!A7)</f>
         <v/>
       </c>
       <c r="C10" s="16" t="str">
-        <f>IF(_tag_month_day!B7="","",_tag_month_day!B7)</f>
+        <f>IF(_tag_month_all!B7="","",_tag_month_all!B7)</f>
         <v/>
       </c>
       <c r="D10" s="17" t="str">
-        <f>IF(_tag_month_day!C7="","",_tag_month_day!C7)</f>
+        <f>IF(_tag_month_all!C7="","",_tag_month_all!C7)</f>
         <v/>
       </c>
       <c r="E10" s="18" t="str">
-        <f>IF(_tag_month_day!D7="","",_tag_month_day!D7)</f>
+        <f>IF(_tag_month_all!D7="","",_tag_month_all!D7)</f>
         <v/>
       </c>
       <c r="F10" s="19" t="str">
-        <f>IF(_tag_month_day!E7="","",_tag_month_day!E7)</f>
+        <f>IF(_tag_month_all!E7="","",_tag_month_all!E7)</f>
         <v/>
       </c>
       <c r="G10" s="20" t="str">
-        <f>IF(_tag_month_day!F7="","",_tag_month_day!F7)</f>
+        <f>IF(_tag_month_all!F7="","",_tag_month_all!F7)</f>
         <v/>
       </c>
       <c r="H10" s="21" t="str">
-        <f>IF(_tag_month_day!G7="","",_tag_month_day!G7)</f>
+        <f>IF(_tag_month_all!G7="","",_tag_month_all!G7)</f>
         <v/>
       </c>
       <c r="I10" s="18" t="str">
-        <f>IF(_tag_month_day!H7="","",_tag_month_day!H7)</f>
+        <f>IF(_tag_month_all!H7="","",_tag_month_all!H7)</f>
         <v/>
       </c>
       <c r="J10" s="18" t="str">
-        <f>IF(_tag_month_day!I7="","",_tag_month_day!I7)</f>
+        <f>IF(_tag_month_all!I7="","",_tag_month_all!I7)</f>
         <v/>
       </c>
       <c r="K10" s="27" t="str">
-        <f>IF(_tag_month_day!J7="","",_tag_month_day!J7)</f>
+        <f>IF(_tag_month_all!J7="","",_tag_month_all!J7)</f>
         <v/>
       </c>
       <c r="L10" s="18" t="str">
-        <f>IF(_tag_month_day!K7="","",_tag_month_day!K7)</f>
+        <f>IF(_tag_month_all!K7="","",_tag_month_all!K7)</f>
         <v/>
       </c>
       <c r="M10" s="28" t="str">
-        <f>IF(_tag_month_day!L7="","",_tag_month_day!L7)</f>
+        <f>IF(_tag_month_all!L7="","",_tag_month_all!L7)</f>
         <v/>
       </c>
       <c r="N10" s="29" t="str">
-        <f>IF(_tag_month_day!M7="","",_tag_month_day!M7)</f>
+        <f>IF(_tag_month_all!M7="","",_tag_month_all!M7)</f>
         <v/>
       </c>
       <c r="O10" s="30" t="str">
-        <f>IF(_tag_month_day!N7="","",_tag_month_day!N7)</f>
+        <f>IF(_tag_month_all!N7="","",_tag_month_all!N7)</f>
         <v/>
       </c>
       <c r="P10" s="30" t="str">
-        <f>IF(_tag_month_day!O7="","",_tag_month_day!O7)</f>
+        <f>IF(_tag_month_all!O7="","",_tag_month_all!O7)</f>
         <v/>
       </c>
       <c r="Q10" s="30" t="str">
-        <f>IF(_tag_month_day!P7="","",_tag_month_day!P7)</f>
+        <f>IF(_tag_month_all!P7="","",_tag_month_all!P7)</f>
         <v/>
       </c>
       <c r="R10" s="35" t="str">
-        <f>IF(_tag_month_day!Q7="","",_tag_month_day!Q7)</f>
+        <f>IF(_tag_month_all!Q7="","",_tag_month_all!Q7)</f>
         <v/>
       </c>
       <c r="S10" s="35" t="str">
-        <f>IF(_tag_month_day!R7="","",_tag_month_day!R7)</f>
+        <f>IF(_tag_month_all!R7="","",_tag_month_all!R7)</f>
         <v/>
       </c>
       <c r="T10" s="35" t="str">
-        <f>IF(_tag_month_day!S7="","",_tag_month_day!S7)</f>
+        <f>IF(_tag_month_all!S7="","",_tag_month_all!S7)</f>
         <v/>
       </c>
       <c r="U10" s="35" t="str">
-        <f>IF(_tag_month_day!T7="","",_tag_month_day!T7)</f>
+        <f>IF(_tag_month_all!T7="","",_tag_month_all!T7)</f>
         <v/>
       </c>
       <c r="V10" s="29" t="str">
-        <f>IF(_tag_month_day!U7="","",_tag_month_day!U7)</f>
+        <f>IF(_tag_month_all!U7="","",_tag_month_all!U7)</f>
         <v/>
       </c>
       <c r="W10" s="30" t="str">
-        <f>IF(_tag_month_day!V7="","",_tag_month_day!V7)</f>
+        <f>IF(_tag_month_all!V7="","",_tag_month_all!V7)</f>
         <v/>
       </c>
       <c r="X10" s="30" t="str">
-        <f>IF(_tag_month_day!W7="","",_tag_month_day!W7)</f>
+        <f>IF(_tag_month_all!W7="","",_tag_month_all!W7)</f>
         <v/>
       </c>
       <c r="Y10" s="30" t="str">
-        <f>IF(_tag_month_day!X7="","",_tag_month_day!X7)</f>
+        <f>IF(_tag_month_all!X7="","",_tag_month_all!X7)</f>
         <v/>
       </c>
       <c r="Z10" s="30" t="str">
-        <f>IF(_tag_month_day!Y7="","",_tag_month_day!Y7)</f>
+        <f>IF(_tag_month_all!Y7="","",_tag_month_all!Y7)</f>
         <v/>
       </c>
       <c r="AA10" s="30" t="str">
-        <f>IF(_tag_month_day!Z7="","",_tag_month_day!Z7)</f>
+        <f>IF(_tag_month_all!Z7="","",_tag_month_all!Z7)</f>
         <v/>
       </c>
       <c r="AB10" s="30" t="str">
-        <f>IF(_tag_month_day!AA7="","",_tag_month_day!AA7)</f>
+        <f>IF(_tag_month_all!AA7="","",_tag_month_all!AA7)</f>
         <v/>
       </c>
       <c r="AC10" s="30" t="str">
-        <f>IF(_tag_month_day!AB7="","",_tag_month_day!AB7)</f>
+        <f>IF(_tag_month_all!AB7="","",_tag_month_all!AB7)</f>
         <v/>
       </c>
       <c r="AD10" s="17" t="str">
-        <f>IF(_tag_month_day!AC7="","",_tag_month_day!AC7)</f>
+        <f>IF(_tag_month_all!AC7="","",_tag_month_all!AC7)</f>
         <v/>
       </c>
       <c r="AE10" s="17" t="str">
-        <f>IF(_tag_month_day!AD7="","",_tag_month_day!AD7)</f>
+        <f>IF(_tag_month_all!AD7="","",_tag_month_all!AD7)</f>
         <v/>
       </c>
       <c r="AF10" s="17" t="str">
-        <f>IF(_tag_month_day!AE7="","",_tag_month_day!AE7)</f>
+        <f>IF(_tag_month_all!AE7="","",_tag_month_all!AE7)</f>
         <v/>
       </c>
       <c r="AG10" s="17" t="str">
-        <f>IF(_tag_month_day!AF7="","",_tag_month_day!AF7)</f>
+        <f>IF(_tag_month_all!AF7="","",_tag_month_all!AF7)</f>
         <v/>
       </c>
       <c r="AH10" s="29" t="str">
-        <f>IF(_tag_month_day!AG7="","",_tag_month_day!AG7)</f>
+        <f>IF(_tag_month_all!AG7="","",_tag_month_all!AG7)</f>
         <v/>
       </c>
       <c r="AI10" s="29" t="str">
-        <f>IF(_tag_month_day!AH7="","",_tag_month_day!AH7)</f>
+        <f>IF(_tag_month_all!AH7="","",_tag_month_all!AH7)</f>
         <v/>
       </c>
       <c r="AJ10" s="38" t="str">
-        <f>IF(_tag_month_day!AI7="","",_tag_month_day!AI7)</f>
+        <f>IF(_tag_month_all!AI7="","",_tag_month_all!AI7)</f>
         <v/>
       </c>
       <c r="AK10" s="8"/>
@@ -2720,143 +2632,143 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="str">
-        <f>IF(_tag_month_day!A8="","",_tag_month_day!A8)</f>
+        <f>IF(_tag_month_all!A8="","",_tag_month_all!A8)</f>
         <v/>
       </c>
       <c r="C11" s="16" t="str">
-        <f>IF(_tag_month_day!B8="","",_tag_month_day!B8)</f>
+        <f>IF(_tag_month_all!B8="","",_tag_month_all!B8)</f>
         <v/>
       </c>
       <c r="D11" s="17" t="str">
-        <f>IF(_tag_month_day!C8="","",_tag_month_day!C8)</f>
+        <f>IF(_tag_month_all!C8="","",_tag_month_all!C8)</f>
         <v/>
       </c>
       <c r="E11" s="18" t="str">
-        <f>IF(_tag_month_day!D8="","",_tag_month_day!D8)</f>
+        <f>IF(_tag_month_all!D8="","",_tag_month_all!D8)</f>
         <v/>
       </c>
       <c r="F11" s="19" t="str">
-        <f>IF(_tag_month_day!E8="","",_tag_month_day!E8)</f>
+        <f>IF(_tag_month_all!E8="","",_tag_month_all!E8)</f>
         <v/>
       </c>
       <c r="G11" s="20" t="str">
-        <f>IF(_tag_month_day!F8="","",_tag_month_day!F8)</f>
+        <f>IF(_tag_month_all!F8="","",_tag_month_all!F8)</f>
         <v/>
       </c>
       <c r="H11" s="21" t="str">
-        <f>IF(_tag_month_day!G8="","",_tag_month_day!G8)</f>
+        <f>IF(_tag_month_all!G8="","",_tag_month_all!G8)</f>
         <v/>
       </c>
       <c r="I11" s="18" t="str">
-        <f>IF(_tag_month_day!H8="","",_tag_month_day!H8)</f>
+        <f>IF(_tag_month_all!H8="","",_tag_month_all!H8)</f>
         <v/>
       </c>
       <c r="J11" s="18" t="str">
-        <f>IF(_tag_month_day!I8="","",_tag_month_day!I8)</f>
+        <f>IF(_tag_month_all!I8="","",_tag_month_all!I8)</f>
         <v/>
       </c>
       <c r="K11" s="27" t="str">
-        <f>IF(_tag_month_day!J8="","",_tag_month_day!J8)</f>
+        <f>IF(_tag_month_all!J8="","",_tag_month_all!J8)</f>
         <v/>
       </c>
       <c r="L11" s="18" t="str">
-        <f>IF(_tag_month_day!K8="","",_tag_month_day!K8)</f>
+        <f>IF(_tag_month_all!K8="","",_tag_month_all!K8)</f>
         <v/>
       </c>
       <c r="M11" s="28" t="str">
-        <f>IF(_tag_month_day!L8="","",_tag_month_day!L8)</f>
+        <f>IF(_tag_month_all!L8="","",_tag_month_all!L8)</f>
         <v/>
       </c>
       <c r="N11" s="29" t="str">
-        <f>IF(_tag_month_day!M8="","",_tag_month_day!M8)</f>
+        <f>IF(_tag_month_all!M8="","",_tag_month_all!M8)</f>
         <v/>
       </c>
       <c r="O11" s="30" t="str">
-        <f>IF(_tag_month_day!N8="","",_tag_month_day!N8)</f>
+        <f>IF(_tag_month_all!N8="","",_tag_month_all!N8)</f>
         <v/>
       </c>
       <c r="P11" s="30" t="str">
-        <f>IF(_tag_month_day!O8="","",_tag_month_day!O8)</f>
+        <f>IF(_tag_month_all!O8="","",_tag_month_all!O8)</f>
         <v/>
       </c>
       <c r="Q11" s="30" t="str">
-        <f>IF(_tag_month_day!P8="","",_tag_month_day!P8)</f>
+        <f>IF(_tag_month_all!P8="","",_tag_month_all!P8)</f>
         <v/>
       </c>
       <c r="R11" s="35" t="str">
-        <f>IF(_tag_month_day!Q8="","",_tag_month_day!Q8)</f>
+        <f>IF(_tag_month_all!Q8="","",_tag_month_all!Q8)</f>
         <v/>
       </c>
       <c r="S11" s="35" t="str">
-        <f>IF(_tag_month_day!R8="","",_tag_month_day!R8)</f>
+        <f>IF(_tag_month_all!R8="","",_tag_month_all!R8)</f>
         <v/>
       </c>
       <c r="T11" s="35" t="str">
-        <f>IF(_tag_month_day!S8="","",_tag_month_day!S8)</f>
+        <f>IF(_tag_month_all!S8="","",_tag_month_all!S8)</f>
         <v/>
       </c>
       <c r="U11" s="35" t="str">
-        <f>IF(_tag_month_day!T8="","",_tag_month_day!T8)</f>
+        <f>IF(_tag_month_all!T8="","",_tag_month_all!T8)</f>
         <v/>
       </c>
       <c r="V11" s="29" t="str">
-        <f>IF(_tag_month_day!U8="","",_tag_month_day!U8)</f>
+        <f>IF(_tag_month_all!U8="","",_tag_month_all!U8)</f>
         <v/>
       </c>
       <c r="W11" s="30" t="str">
-        <f>IF(_tag_month_day!V8="","",_tag_month_day!V8)</f>
+        <f>IF(_tag_month_all!V8="","",_tag_month_all!V8)</f>
         <v/>
       </c>
       <c r="X11" s="30" t="str">
-        <f>IF(_tag_month_day!W8="","",_tag_month_day!W8)</f>
+        <f>IF(_tag_month_all!W8="","",_tag_month_all!W8)</f>
         <v/>
       </c>
       <c r="Y11" s="30" t="str">
-        <f>IF(_tag_month_day!X8="","",_tag_month_day!X8)</f>
+        <f>IF(_tag_month_all!X8="","",_tag_month_all!X8)</f>
         <v/>
       </c>
       <c r="Z11" s="30" t="str">
-        <f>IF(_tag_month_day!Y8="","",_tag_month_day!Y8)</f>
+        <f>IF(_tag_month_all!Y8="","",_tag_month_all!Y8)</f>
         <v/>
       </c>
       <c r="AA11" s="30" t="str">
-        <f>IF(_tag_month_day!Z8="","",_tag_month_day!Z8)</f>
+        <f>IF(_tag_month_all!Z8="","",_tag_month_all!Z8)</f>
         <v/>
       </c>
       <c r="AB11" s="30" t="str">
-        <f>IF(_tag_month_day!AA8="","",_tag_month_day!AA8)</f>
+        <f>IF(_tag_month_all!AA8="","",_tag_month_all!AA8)</f>
         <v/>
       </c>
       <c r="AC11" s="30" t="str">
-        <f>IF(_tag_month_day!AB8="","",_tag_month_day!AB8)</f>
+        <f>IF(_tag_month_all!AB8="","",_tag_month_all!AB8)</f>
         <v/>
       </c>
       <c r="AD11" s="17" t="str">
-        <f>IF(_tag_month_day!AC8="","",_tag_month_day!AC8)</f>
+        <f>IF(_tag_month_all!AC8="","",_tag_month_all!AC8)</f>
         <v/>
       </c>
       <c r="AE11" s="17" t="str">
-        <f>IF(_tag_month_day!AD8="","",_tag_month_day!AD8)</f>
+        <f>IF(_tag_month_all!AD8="","",_tag_month_all!AD8)</f>
         <v/>
       </c>
       <c r="AF11" s="17" t="str">
-        <f>IF(_tag_month_day!AE8="","",_tag_month_day!AE8)</f>
+        <f>IF(_tag_month_all!AE8="","",_tag_month_all!AE8)</f>
         <v/>
       </c>
       <c r="AG11" s="17" t="str">
-        <f>IF(_tag_month_day!AF8="","",_tag_month_day!AF8)</f>
+        <f>IF(_tag_month_all!AF8="","",_tag_month_all!AF8)</f>
         <v/>
       </c>
       <c r="AH11" s="29" t="str">
-        <f>IF(_tag_month_day!AG8="","",_tag_month_day!AG8)</f>
+        <f>IF(_tag_month_all!AG8="","",_tag_month_all!AG8)</f>
         <v/>
       </c>
       <c r="AI11" s="29" t="str">
-        <f>IF(_tag_month_day!AH8="","",_tag_month_day!AH8)</f>
+        <f>IF(_tag_month_all!AH8="","",_tag_month_all!AH8)</f>
         <v/>
       </c>
       <c r="AJ11" s="38" t="str">
-        <f>IF(_tag_month_day!AI8="","",_tag_month_day!AI8)</f>
+        <f>IF(_tag_month_all!AI8="","",_tag_month_all!AI8)</f>
         <v/>
       </c>
       <c r="AK11" s="8"/>
@@ -2896,143 +2808,143 @@
         <v>8</v>
       </c>
       <c r="B12" s="16" t="str">
-        <f>IF(_tag_month_day!A9="","",_tag_month_day!A9)</f>
+        <f>IF(_tag_month_all!A9="","",_tag_month_all!A9)</f>
         <v/>
       </c>
       <c r="C12" s="16" t="str">
-        <f>IF(_tag_month_day!B9="","",_tag_month_day!B9)</f>
+        <f>IF(_tag_month_all!B9="","",_tag_month_all!B9)</f>
         <v/>
       </c>
       <c r="D12" s="17" t="str">
-        <f>IF(_tag_month_day!C9="","",_tag_month_day!C9)</f>
+        <f>IF(_tag_month_all!C9="","",_tag_month_all!C9)</f>
         <v/>
       </c>
       <c r="E12" s="18" t="str">
-        <f>IF(_tag_month_day!D9="","",_tag_month_day!D9)</f>
+        <f>IF(_tag_month_all!D9="","",_tag_month_all!D9)</f>
         <v/>
       </c>
       <c r="F12" s="19" t="str">
-        <f>IF(_tag_month_day!E9="","",_tag_month_day!E9)</f>
+        <f>IF(_tag_month_all!E9="","",_tag_month_all!E9)</f>
         <v/>
       </c>
       <c r="G12" s="20" t="str">
-        <f>IF(_tag_month_day!F9="","",_tag_month_day!F9)</f>
+        <f>IF(_tag_month_all!F9="","",_tag_month_all!F9)</f>
         <v/>
       </c>
       <c r="H12" s="21" t="str">
-        <f>IF(_tag_month_day!G9="","",_tag_month_day!G9)</f>
+        <f>IF(_tag_month_all!G9="","",_tag_month_all!G9)</f>
         <v/>
       </c>
       <c r="I12" s="18" t="str">
-        <f>IF(_tag_month_day!H9="","",_tag_month_day!H9)</f>
+        <f>IF(_tag_month_all!H9="","",_tag_month_all!H9)</f>
         <v/>
       </c>
       <c r="J12" s="18" t="str">
-        <f>IF(_tag_month_day!I9="","",_tag_month_day!I9)</f>
+        <f>IF(_tag_month_all!I9="","",_tag_month_all!I9)</f>
         <v/>
       </c>
       <c r="K12" s="27" t="str">
-        <f>IF(_tag_month_day!J9="","",_tag_month_day!J9)</f>
+        <f>IF(_tag_month_all!J9="","",_tag_month_all!J9)</f>
         <v/>
       </c>
       <c r="L12" s="18" t="str">
-        <f>IF(_tag_month_day!K9="","",_tag_month_day!K9)</f>
+        <f>IF(_tag_month_all!K9="","",_tag_month_all!K9)</f>
         <v/>
       </c>
       <c r="M12" s="28" t="str">
-        <f>IF(_tag_month_day!L9="","",_tag_month_day!L9)</f>
+        <f>IF(_tag_month_all!L9="","",_tag_month_all!L9)</f>
         <v/>
       </c>
       <c r="N12" s="29" t="str">
-        <f>IF(_tag_month_day!M9="","",_tag_month_day!M9)</f>
+        <f>IF(_tag_month_all!M9="","",_tag_month_all!M9)</f>
         <v/>
       </c>
       <c r="O12" s="30" t="str">
-        <f>IF(_tag_month_day!N9="","",_tag_month_day!N9)</f>
+        <f>IF(_tag_month_all!N9="","",_tag_month_all!N9)</f>
         <v/>
       </c>
       <c r="P12" s="30" t="str">
-        <f>IF(_tag_month_day!O9="","",_tag_month_day!O9)</f>
+        <f>IF(_tag_month_all!O9="","",_tag_month_all!O9)</f>
         <v/>
       </c>
       <c r="Q12" s="30" t="str">
-        <f>IF(_tag_month_day!P9="","",_tag_month_day!P9)</f>
+        <f>IF(_tag_month_all!P9="","",_tag_month_all!P9)</f>
         <v/>
       </c>
       <c r="R12" s="35" t="str">
-        <f>IF(_tag_month_day!Q9="","",_tag_month_day!Q9)</f>
+        <f>IF(_tag_month_all!Q9="","",_tag_month_all!Q9)</f>
         <v/>
       </c>
       <c r="S12" s="35" t="str">
-        <f>IF(_tag_month_day!R9="","",_tag_month_day!R9)</f>
+        <f>IF(_tag_month_all!R9="","",_tag_month_all!R9)</f>
         <v/>
       </c>
       <c r="T12" s="35" t="str">
-        <f>IF(_tag_month_day!S9="","",_tag_month_day!S9)</f>
+        <f>IF(_tag_month_all!S9="","",_tag_month_all!S9)</f>
         <v/>
       </c>
       <c r="U12" s="35" t="str">
-        <f>IF(_tag_month_day!T9="","",_tag_month_day!T9)</f>
+        <f>IF(_tag_month_all!T9="","",_tag_month_all!T9)</f>
         <v/>
       </c>
       <c r="V12" s="29" t="str">
-        <f>IF(_tag_month_day!U9="","",_tag_month_day!U9)</f>
+        <f>IF(_tag_month_all!U9="","",_tag_month_all!U9)</f>
         <v/>
       </c>
       <c r="W12" s="30" t="str">
-        <f>IF(_tag_month_day!V9="","",_tag_month_day!V9)</f>
+        <f>IF(_tag_month_all!V9="","",_tag_month_all!V9)</f>
         <v/>
       </c>
       <c r="X12" s="30" t="str">
-        <f>IF(_tag_month_day!W9="","",_tag_month_day!W9)</f>
+        <f>IF(_tag_month_all!W9="","",_tag_month_all!W9)</f>
         <v/>
       </c>
       <c r="Y12" s="30" t="str">
-        <f>IF(_tag_month_day!X9="","",_tag_month_day!X9)</f>
+        <f>IF(_tag_month_all!X9="","",_tag_month_all!X9)</f>
         <v/>
       </c>
       <c r="Z12" s="30" t="str">
-        <f>IF(_tag_month_day!Y9="","",_tag_month_day!Y9)</f>
+        <f>IF(_tag_month_all!Y9="","",_tag_month_all!Y9)</f>
         <v/>
       </c>
       <c r="AA12" s="30" t="str">
-        <f>IF(_tag_month_day!Z9="","",_tag_month_day!Z9)</f>
+        <f>IF(_tag_month_all!Z9="","",_tag_month_all!Z9)</f>
         <v/>
       </c>
       <c r="AB12" s="30" t="str">
-        <f>IF(_tag_month_day!AA9="","",_tag_month_day!AA9)</f>
+        <f>IF(_tag_month_all!AA9="","",_tag_month_all!AA9)</f>
         <v/>
       </c>
       <c r="AC12" s="30" t="str">
-        <f>IF(_tag_month_day!AB9="","",_tag_month_day!AB9)</f>
+        <f>IF(_tag_month_all!AB9="","",_tag_month_all!AB9)</f>
         <v/>
       </c>
       <c r="AD12" s="17" t="str">
-        <f>IF(_tag_month_day!AC9="","",_tag_month_day!AC9)</f>
+        <f>IF(_tag_month_all!AC9="","",_tag_month_all!AC9)</f>
         <v/>
       </c>
       <c r="AE12" s="17" t="str">
-        <f>IF(_tag_month_day!AD9="","",_tag_month_day!AD9)</f>
+        <f>IF(_tag_month_all!AD9="","",_tag_month_all!AD9)</f>
         <v/>
       </c>
       <c r="AF12" s="17" t="str">
-        <f>IF(_tag_month_day!AE9="","",_tag_month_day!AE9)</f>
+        <f>IF(_tag_month_all!AE9="","",_tag_month_all!AE9)</f>
         <v/>
       </c>
       <c r="AG12" s="17" t="str">
-        <f>IF(_tag_month_day!AF9="","",_tag_month_day!AF9)</f>
+        <f>IF(_tag_month_all!AF9="","",_tag_month_all!AF9)</f>
         <v/>
       </c>
       <c r="AH12" s="29" t="str">
-        <f>IF(_tag_month_day!AG9="","",_tag_month_day!AG9)</f>
+        <f>IF(_tag_month_all!AG9="","",_tag_month_all!AG9)</f>
         <v/>
       </c>
       <c r="AI12" s="29" t="str">
-        <f>IF(_tag_month_day!AH9="","",_tag_month_day!AH9)</f>
+        <f>IF(_tag_month_all!AH9="","",_tag_month_all!AH9)</f>
         <v/>
       </c>
       <c r="AJ12" s="38" t="str">
-        <f>IF(_tag_month_day!AI9="","",_tag_month_day!AI9)</f>
+        <f>IF(_tag_month_all!AI9="","",_tag_month_all!AI9)</f>
         <v/>
       </c>
       <c r="AK12" s="8" t="str">
@@ -3162,143 +3074,143 @@
         <v>9</v>
       </c>
       <c r="B13" s="16" t="str">
-        <f>IF(_tag_month_day!A10="","",_tag_month_day!A10)</f>
+        <f>IF(_tag_month_all!A10="","",_tag_month_all!A10)</f>
         <v/>
       </c>
       <c r="C13" s="16" t="str">
-        <f>IF(_tag_month_day!B10="","",_tag_month_day!B10)</f>
+        <f>IF(_tag_month_all!B10="","",_tag_month_all!B10)</f>
         <v/>
       </c>
       <c r="D13" s="17" t="str">
-        <f>IF(_tag_month_day!C10="","",_tag_month_day!C10)</f>
+        <f>IF(_tag_month_all!C10="","",_tag_month_all!C10)</f>
         <v/>
       </c>
       <c r="E13" s="18" t="str">
-        <f>IF(_tag_month_day!D10="","",_tag_month_day!D10)</f>
+        <f>IF(_tag_month_all!D10="","",_tag_month_all!D10)</f>
         <v/>
       </c>
       <c r="F13" s="19" t="str">
-        <f>IF(_tag_month_day!E10="","",_tag_month_day!E10)</f>
+        <f>IF(_tag_month_all!E10="","",_tag_month_all!E10)</f>
         <v/>
       </c>
       <c r="G13" s="20" t="str">
-        <f>IF(_tag_month_day!F10="","",_tag_month_day!F10)</f>
+        <f>IF(_tag_month_all!F10="","",_tag_month_all!F10)</f>
         <v/>
       </c>
       <c r="H13" s="21" t="str">
-        <f>IF(_tag_month_day!G10="","",_tag_month_day!G10)</f>
+        <f>IF(_tag_month_all!G10="","",_tag_month_all!G10)</f>
         <v/>
       </c>
       <c r="I13" s="18" t="str">
-        <f>IF(_tag_month_day!H10="","",_tag_month_day!H10)</f>
+        <f>IF(_tag_month_all!H10="","",_tag_month_all!H10)</f>
         <v/>
       </c>
       <c r="J13" s="18" t="str">
-        <f>IF(_tag_month_day!I10="","",_tag_month_day!I10)</f>
+        <f>IF(_tag_month_all!I10="","",_tag_month_all!I10)</f>
         <v/>
       </c>
       <c r="K13" s="27" t="str">
-        <f>IF(_tag_month_day!J10="","",_tag_month_day!J10)</f>
+        <f>IF(_tag_month_all!J10="","",_tag_month_all!J10)</f>
         <v/>
       </c>
       <c r="L13" s="18" t="str">
-        <f>IF(_tag_month_day!K10="","",_tag_month_day!K10)</f>
+        <f>IF(_tag_month_all!K10="","",_tag_month_all!K10)</f>
         <v/>
       </c>
       <c r="M13" s="28" t="str">
-        <f>IF(_tag_month_day!L10="","",_tag_month_day!L10)</f>
+        <f>IF(_tag_month_all!L10="","",_tag_month_all!L10)</f>
         <v/>
       </c>
       <c r="N13" s="29" t="str">
-        <f>IF(_tag_month_day!M10="","",_tag_month_day!M10)</f>
+        <f>IF(_tag_month_all!M10="","",_tag_month_all!M10)</f>
         <v/>
       </c>
       <c r="O13" s="30" t="str">
-        <f>IF(_tag_month_day!N10="","",_tag_month_day!N10)</f>
+        <f>IF(_tag_month_all!N10="","",_tag_month_all!N10)</f>
         <v/>
       </c>
       <c r="P13" s="30" t="str">
-        <f>IF(_tag_month_day!O10="","",_tag_month_day!O10)</f>
+        <f>IF(_tag_month_all!O10="","",_tag_month_all!O10)</f>
         <v/>
       </c>
       <c r="Q13" s="30" t="str">
-        <f>IF(_tag_month_day!P10="","",_tag_month_day!P10)</f>
+        <f>IF(_tag_month_all!P10="","",_tag_month_all!P10)</f>
         <v/>
       </c>
       <c r="R13" s="35" t="str">
-        <f>IF(_tag_month_day!Q10="","",_tag_month_day!Q10)</f>
+        <f>IF(_tag_month_all!Q10="","",_tag_month_all!Q10)</f>
         <v/>
       </c>
       <c r="S13" s="35" t="str">
-        <f>IF(_tag_month_day!R10="","",_tag_month_day!R10)</f>
+        <f>IF(_tag_month_all!R10="","",_tag_month_all!R10)</f>
         <v/>
       </c>
       <c r="T13" s="35" t="str">
-        <f>IF(_tag_month_day!S10="","",_tag_month_day!S10)</f>
+        <f>IF(_tag_month_all!S10="","",_tag_month_all!S10)</f>
         <v/>
       </c>
       <c r="U13" s="35" t="str">
-        <f>IF(_tag_month_day!T10="","",_tag_month_day!T10)</f>
+        <f>IF(_tag_month_all!T10="","",_tag_month_all!T10)</f>
         <v/>
       </c>
       <c r="V13" s="29" t="str">
-        <f>IF(_tag_month_day!U10="","",_tag_month_day!U10)</f>
+        <f>IF(_tag_month_all!U10="","",_tag_month_all!U10)</f>
         <v/>
       </c>
       <c r="W13" s="30" t="str">
-        <f>IF(_tag_month_day!V10="","",_tag_month_day!V10)</f>
+        <f>IF(_tag_month_all!V10="","",_tag_month_all!V10)</f>
         <v/>
       </c>
       <c r="X13" s="30" t="str">
-        <f>IF(_tag_month_day!W10="","",_tag_month_day!W10)</f>
+        <f>IF(_tag_month_all!W10="","",_tag_month_all!W10)</f>
         <v/>
       </c>
       <c r="Y13" s="30" t="str">
-        <f>IF(_tag_month_day!X10="","",_tag_month_day!X10)</f>
+        <f>IF(_tag_month_all!X10="","",_tag_month_all!X10)</f>
         <v/>
       </c>
       <c r="Z13" s="30" t="str">
-        <f>IF(_tag_month_day!Y10="","",_tag_month_day!Y10)</f>
+        <f>IF(_tag_month_all!Y10="","",_tag_month_all!Y10)</f>
         <v/>
       </c>
       <c r="AA13" s="30" t="str">
-        <f>IF(_tag_month_day!Z10="","",_tag_month_day!Z10)</f>
+        <f>IF(_tag_month_all!Z10="","",_tag_month_all!Z10)</f>
         <v/>
       </c>
       <c r="AB13" s="30" t="str">
-        <f>IF(_tag_month_day!AA10="","",_tag_month_day!AA10)</f>
+        <f>IF(_tag_month_all!AA10="","",_tag_month_all!AA10)</f>
         <v/>
       </c>
       <c r="AC13" s="30" t="str">
-        <f>IF(_tag_month_day!AB10="","",_tag_month_day!AB10)</f>
+        <f>IF(_tag_month_all!AB10="","",_tag_month_all!AB10)</f>
         <v/>
       </c>
       <c r="AD13" s="17" t="str">
-        <f>IF(_tag_month_day!AC10="","",_tag_month_day!AC10)</f>
+        <f>IF(_tag_month_all!AC10="","",_tag_month_all!AC10)</f>
         <v/>
       </c>
       <c r="AE13" s="17" t="str">
-        <f>IF(_tag_month_day!AD10="","",_tag_month_day!AD10)</f>
+        <f>IF(_tag_month_all!AD10="","",_tag_month_all!AD10)</f>
         <v/>
       </c>
       <c r="AF13" s="17" t="str">
-        <f>IF(_tag_month_day!AE10="","",_tag_month_day!AE10)</f>
+        <f>IF(_tag_month_all!AE10="","",_tag_month_all!AE10)</f>
         <v/>
       </c>
       <c r="AG13" s="17" t="str">
-        <f>IF(_tag_month_day!AF10="","",_tag_month_day!AF10)</f>
+        <f>IF(_tag_month_all!AF10="","",_tag_month_all!AF10)</f>
         <v/>
       </c>
       <c r="AH13" s="29" t="str">
-        <f>IF(_tag_month_day!AG10="","",_tag_month_day!AG10)</f>
+        <f>IF(_tag_month_all!AG10="","",_tag_month_all!AG10)</f>
         <v/>
       </c>
       <c r="AI13" s="29" t="str">
-        <f>IF(_tag_month_day!AH10="","",_tag_month_day!AH10)</f>
+        <f>IF(_tag_month_all!AH10="","",_tag_month_all!AH10)</f>
         <v/>
       </c>
       <c r="AJ13" s="38" t="str">
-        <f>IF(_tag_month_day!AI10="","",_tag_month_day!AI10)</f>
+        <f>IF(_tag_month_all!AI10="","",_tag_month_all!AI10)</f>
         <v/>
       </c>
       <c r="AK13" s="8" t="str">
@@ -3428,143 +3340,143 @@
         <v>10</v>
       </c>
       <c r="B14" s="16" t="str">
-        <f>IF(_tag_month_day!A11="","",_tag_month_day!A11)</f>
+        <f>IF(_tag_month_all!A11="","",_tag_month_all!A11)</f>
         <v/>
       </c>
       <c r="C14" s="16" t="str">
-        <f>IF(_tag_month_day!B11="","",_tag_month_day!B11)</f>
+        <f>IF(_tag_month_all!B11="","",_tag_month_all!B11)</f>
         <v/>
       </c>
       <c r="D14" s="17" t="str">
-        <f>IF(_tag_month_day!C11="","",_tag_month_day!C11)</f>
+        <f>IF(_tag_month_all!C11="","",_tag_month_all!C11)</f>
         <v/>
       </c>
       <c r="E14" s="18" t="str">
-        <f>IF(_tag_month_day!D11="","",_tag_month_day!D11)</f>
+        <f>IF(_tag_month_all!D11="","",_tag_month_all!D11)</f>
         <v/>
       </c>
       <c r="F14" s="19" t="str">
-        <f>IF(_tag_month_day!E11="","",_tag_month_day!E11)</f>
+        <f>IF(_tag_month_all!E11="","",_tag_month_all!E11)</f>
         <v/>
       </c>
       <c r="G14" s="20" t="str">
-        <f>IF(_tag_month_day!F11="","",_tag_month_day!F11)</f>
+        <f>IF(_tag_month_all!F11="","",_tag_month_all!F11)</f>
         <v/>
       </c>
       <c r="H14" s="21" t="str">
-        <f>IF(_tag_month_day!G11="","",_tag_month_day!G11)</f>
+        <f>IF(_tag_month_all!G11="","",_tag_month_all!G11)</f>
         <v/>
       </c>
       <c r="I14" s="18" t="str">
-        <f>IF(_tag_month_day!H11="","",_tag_month_day!H11)</f>
+        <f>IF(_tag_month_all!H11="","",_tag_month_all!H11)</f>
         <v/>
       </c>
       <c r="J14" s="18" t="str">
-        <f>IF(_tag_month_day!I11="","",_tag_month_day!I11)</f>
+        <f>IF(_tag_month_all!I11="","",_tag_month_all!I11)</f>
         <v/>
       </c>
       <c r="K14" s="27" t="str">
-        <f>IF(_tag_month_day!J11="","",_tag_month_day!J11)</f>
+        <f>IF(_tag_month_all!J11="","",_tag_month_all!J11)</f>
         <v/>
       </c>
       <c r="L14" s="18" t="str">
-        <f>IF(_tag_month_day!K11="","",_tag_month_day!K11)</f>
+        <f>IF(_tag_month_all!K11="","",_tag_month_all!K11)</f>
         <v/>
       </c>
       <c r="M14" s="28" t="str">
-        <f>IF(_tag_month_day!L11="","",_tag_month_day!L11)</f>
+        <f>IF(_tag_month_all!L11="","",_tag_month_all!L11)</f>
         <v/>
       </c>
       <c r="N14" s="29" t="str">
-        <f>IF(_tag_month_day!M11="","",_tag_month_day!M11)</f>
+        <f>IF(_tag_month_all!M11="","",_tag_month_all!M11)</f>
         <v/>
       </c>
       <c r="O14" s="30" t="str">
-        <f>IF(_tag_month_day!N11="","",_tag_month_day!N11)</f>
+        <f>IF(_tag_month_all!N11="","",_tag_month_all!N11)</f>
         <v/>
       </c>
       <c r="P14" s="30" t="str">
-        <f>IF(_tag_month_day!O11="","",_tag_month_day!O11)</f>
+        <f>IF(_tag_month_all!O11="","",_tag_month_all!O11)</f>
         <v/>
       </c>
       <c r="Q14" s="30" t="str">
-        <f>IF(_tag_month_day!P11="","",_tag_month_day!P11)</f>
+        <f>IF(_tag_month_all!P11="","",_tag_month_all!P11)</f>
         <v/>
       </c>
       <c r="R14" s="35" t="str">
-        <f>IF(_tag_month_day!Q11="","",_tag_month_day!Q11)</f>
+        <f>IF(_tag_month_all!Q11="","",_tag_month_all!Q11)</f>
         <v/>
       </c>
       <c r="S14" s="35" t="str">
-        <f>IF(_tag_month_day!R11="","",_tag_month_day!R11)</f>
+        <f>IF(_tag_month_all!R11="","",_tag_month_all!R11)</f>
         <v/>
       </c>
       <c r="T14" s="35" t="str">
-        <f>IF(_tag_month_day!S11="","",_tag_month_day!S11)</f>
+        <f>IF(_tag_month_all!S11="","",_tag_month_all!S11)</f>
         <v/>
       </c>
       <c r="U14" s="35" t="str">
-        <f>IF(_tag_month_day!T11="","",_tag_month_day!T11)</f>
+        <f>IF(_tag_month_all!T11="","",_tag_month_all!T11)</f>
         <v/>
       </c>
       <c r="V14" s="29" t="str">
-        <f>IF(_tag_month_day!U11="","",_tag_month_day!U11)</f>
+        <f>IF(_tag_month_all!U11="","",_tag_month_all!U11)</f>
         <v/>
       </c>
       <c r="W14" s="30" t="str">
-        <f>IF(_tag_month_day!V11="","",_tag_month_day!V11)</f>
+        <f>IF(_tag_month_all!V11="","",_tag_month_all!V11)</f>
         <v/>
       </c>
       <c r="X14" s="30" t="str">
-        <f>IF(_tag_month_day!W11="","",_tag_month_day!W11)</f>
+        <f>IF(_tag_month_all!W11="","",_tag_month_all!W11)</f>
         <v/>
       </c>
       <c r="Y14" s="30" t="str">
-        <f>IF(_tag_month_day!X11="","",_tag_month_day!X11)</f>
+        <f>IF(_tag_month_all!X11="","",_tag_month_all!X11)</f>
         <v/>
       </c>
       <c r="Z14" s="30" t="str">
-        <f>IF(_tag_month_day!Y11="","",_tag_month_day!Y11)</f>
+        <f>IF(_tag_month_all!Y11="","",_tag_month_all!Y11)</f>
         <v/>
       </c>
       <c r="AA14" s="30" t="str">
-        <f>IF(_tag_month_day!Z11="","",_tag_month_day!Z11)</f>
+        <f>IF(_tag_month_all!Z11="","",_tag_month_all!Z11)</f>
         <v/>
       </c>
       <c r="AB14" s="30" t="str">
-        <f>IF(_tag_month_day!AA11="","",_tag_month_day!AA11)</f>
+        <f>IF(_tag_month_all!AA11="","",_tag_month_all!AA11)</f>
         <v/>
       </c>
       <c r="AC14" s="30" t="str">
-        <f>IF(_tag_month_day!AB11="","",_tag_month_day!AB11)</f>
+        <f>IF(_tag_month_all!AB11="","",_tag_month_all!AB11)</f>
         <v/>
       </c>
       <c r="AD14" s="17" t="str">
-        <f>IF(_tag_month_day!AC11="","",_tag_month_day!AC11)</f>
+        <f>IF(_tag_month_all!AC11="","",_tag_month_all!AC11)</f>
         <v/>
       </c>
       <c r="AE14" s="17" t="str">
-        <f>IF(_tag_month_day!AD11="","",_tag_month_day!AD11)</f>
+        <f>IF(_tag_month_all!AD11="","",_tag_month_all!AD11)</f>
         <v/>
       </c>
       <c r="AF14" s="17" t="str">
-        <f>IF(_tag_month_day!AE11="","",_tag_month_day!AE11)</f>
+        <f>IF(_tag_month_all!AE11="","",_tag_month_all!AE11)</f>
         <v/>
       </c>
       <c r="AG14" s="17" t="str">
-        <f>IF(_tag_month_day!AF11="","",_tag_month_day!AF11)</f>
+        <f>IF(_tag_month_all!AF11="","",_tag_month_all!AF11)</f>
         <v/>
       </c>
       <c r="AH14" s="29" t="str">
-        <f>IF(_tag_month_day!AG11="","",_tag_month_day!AG11)</f>
+        <f>IF(_tag_month_all!AG11="","",_tag_month_all!AG11)</f>
         <v/>
       </c>
       <c r="AI14" s="29" t="str">
-        <f>IF(_tag_month_day!AH11="","",_tag_month_day!AH11)</f>
+        <f>IF(_tag_month_all!AH11="","",_tag_month_all!AH11)</f>
         <v/>
       </c>
       <c r="AJ14" s="38" t="str">
-        <f>IF(_tag_month_day!AI11="","",_tag_month_day!AI11)</f>
+        <f>IF(_tag_month_all!AI11="","",_tag_month_all!AI11)</f>
         <v/>
       </c>
       <c r="AK14" s="8" t="str">
@@ -3694,143 +3606,143 @@
         <v>11</v>
       </c>
       <c r="B15" s="16" t="str">
-        <f>IF(_tag_month_day!A12="","",_tag_month_day!A12)</f>
+        <f>IF(_tag_month_all!A12="","",_tag_month_all!A12)</f>
         <v/>
       </c>
       <c r="C15" s="16" t="str">
-        <f>IF(_tag_month_day!B12="","",_tag_month_day!B12)</f>
+        <f>IF(_tag_month_all!B12="","",_tag_month_all!B12)</f>
         <v/>
       </c>
       <c r="D15" s="17" t="str">
-        <f>IF(_tag_month_day!C12="","",_tag_month_day!C12)</f>
+        <f>IF(_tag_month_all!C12="","",_tag_month_all!C12)</f>
         <v/>
       </c>
       <c r="E15" s="18" t="str">
-        <f>IF(_tag_month_day!D12="","",_tag_month_day!D12)</f>
+        <f>IF(_tag_month_all!D12="","",_tag_month_all!D12)</f>
         <v/>
       </c>
       <c r="F15" s="19" t="str">
-        <f>IF(_tag_month_day!E12="","",_tag_month_day!E12)</f>
+        <f>IF(_tag_month_all!E12="","",_tag_month_all!E12)</f>
         <v/>
       </c>
       <c r="G15" s="20" t="str">
-        <f>IF(_tag_month_day!F12="","",_tag_month_day!F12)</f>
+        <f>IF(_tag_month_all!F12="","",_tag_month_all!F12)</f>
         <v/>
       </c>
       <c r="H15" s="21" t="str">
-        <f>IF(_tag_month_day!G12="","",_tag_month_day!G12)</f>
+        <f>IF(_tag_month_all!G12="","",_tag_month_all!G12)</f>
         <v/>
       </c>
       <c r="I15" s="18" t="str">
-        <f>IF(_tag_month_day!H12="","",_tag_month_day!H12)</f>
+        <f>IF(_tag_month_all!H12="","",_tag_month_all!H12)</f>
         <v/>
       </c>
       <c r="J15" s="18" t="str">
-        <f>IF(_tag_month_day!I12="","",_tag_month_day!I12)</f>
+        <f>IF(_tag_month_all!I12="","",_tag_month_all!I12)</f>
         <v/>
       </c>
       <c r="K15" s="27" t="str">
-        <f>IF(_tag_month_day!J12="","",_tag_month_day!J12)</f>
+        <f>IF(_tag_month_all!J12="","",_tag_month_all!J12)</f>
         <v/>
       </c>
       <c r="L15" s="18" t="str">
-        <f>IF(_tag_month_day!K12="","",_tag_month_day!K12)</f>
+        <f>IF(_tag_month_all!K12="","",_tag_month_all!K12)</f>
         <v/>
       </c>
       <c r="M15" s="28" t="str">
-        <f>IF(_tag_month_day!L12="","",_tag_month_day!L12)</f>
+        <f>IF(_tag_month_all!L12="","",_tag_month_all!L12)</f>
         <v/>
       </c>
       <c r="N15" s="29" t="str">
-        <f>IF(_tag_month_day!M12="","",_tag_month_day!M12)</f>
+        <f>IF(_tag_month_all!M12="","",_tag_month_all!M12)</f>
         <v/>
       </c>
       <c r="O15" s="30" t="str">
-        <f>IF(_tag_month_day!N12="","",_tag_month_day!N12)</f>
+        <f>IF(_tag_month_all!N12="","",_tag_month_all!N12)</f>
         <v/>
       </c>
       <c r="P15" s="30" t="str">
-        <f>IF(_tag_month_day!O12="","",_tag_month_day!O12)</f>
+        <f>IF(_tag_month_all!O12="","",_tag_month_all!O12)</f>
         <v/>
       </c>
       <c r="Q15" s="30" t="str">
-        <f>IF(_tag_month_day!P12="","",_tag_month_day!P12)</f>
+        <f>IF(_tag_month_all!P12="","",_tag_month_all!P12)</f>
         <v/>
       </c>
       <c r="R15" s="35" t="str">
-        <f>IF(_tag_month_day!Q12="","",_tag_month_day!Q12)</f>
+        <f>IF(_tag_month_all!Q12="","",_tag_month_all!Q12)</f>
         <v/>
       </c>
       <c r="S15" s="35" t="str">
-        <f>IF(_tag_month_day!R12="","",_tag_month_day!R12)</f>
+        <f>IF(_tag_month_all!R12="","",_tag_month_all!R12)</f>
         <v/>
       </c>
       <c r="T15" s="35" t="str">
-        <f>IF(_tag_month_day!S12="","",_tag_month_day!S12)</f>
+        <f>IF(_tag_month_all!S12="","",_tag_month_all!S12)</f>
         <v/>
       </c>
       <c r="U15" s="35" t="str">
-        <f>IF(_tag_month_day!T12="","",_tag_month_day!T12)</f>
+        <f>IF(_tag_month_all!T12="","",_tag_month_all!T12)</f>
         <v/>
       </c>
       <c r="V15" s="29" t="str">
-        <f>IF(_tag_month_day!U12="","",_tag_month_day!U12)</f>
+        <f>IF(_tag_month_all!U12="","",_tag_month_all!U12)</f>
         <v/>
       </c>
       <c r="W15" s="30" t="str">
-        <f>IF(_tag_month_day!V12="","",_tag_month_day!V12)</f>
+        <f>IF(_tag_month_all!V12="","",_tag_month_all!V12)</f>
         <v/>
       </c>
       <c r="X15" s="30" t="str">
-        <f>IF(_tag_month_day!W12="","",_tag_month_day!W12)</f>
+        <f>IF(_tag_month_all!W12="","",_tag_month_all!W12)</f>
         <v/>
       </c>
       <c r="Y15" s="30" t="str">
-        <f>IF(_tag_month_day!X12="","",_tag_month_day!X12)</f>
+        <f>IF(_tag_month_all!X12="","",_tag_month_all!X12)</f>
         <v/>
       </c>
       <c r="Z15" s="30" t="str">
-        <f>IF(_tag_month_day!Y12="","",_tag_month_day!Y12)</f>
+        <f>IF(_tag_month_all!Y12="","",_tag_month_all!Y12)</f>
         <v/>
       </c>
       <c r="AA15" s="30" t="str">
-        <f>IF(_tag_month_day!Z12="","",_tag_month_day!Z12)</f>
+        <f>IF(_tag_month_all!Z12="","",_tag_month_all!Z12)</f>
         <v/>
       </c>
       <c r="AB15" s="30" t="str">
-        <f>IF(_tag_month_day!AA12="","",_tag_month_day!AA12)</f>
+        <f>IF(_tag_month_all!AA12="","",_tag_month_all!AA12)</f>
         <v/>
       </c>
       <c r="AC15" s="30" t="str">
-        <f>IF(_tag_month_day!AB12="","",_tag_month_day!AB12)</f>
+        <f>IF(_tag_month_all!AB12="","",_tag_month_all!AB12)</f>
         <v/>
       </c>
       <c r="AD15" s="17" t="str">
-        <f>IF(_tag_month_day!AC12="","",_tag_month_day!AC12)</f>
+        <f>IF(_tag_month_all!AC12="","",_tag_month_all!AC12)</f>
         <v/>
       </c>
       <c r="AE15" s="17" t="str">
-        <f>IF(_tag_month_day!AD12="","",_tag_month_day!AD12)</f>
+        <f>IF(_tag_month_all!AD12="","",_tag_month_all!AD12)</f>
         <v/>
       </c>
       <c r="AF15" s="17" t="str">
-        <f>IF(_tag_month_day!AE12="","",_tag_month_day!AE12)</f>
+        <f>IF(_tag_month_all!AE12="","",_tag_month_all!AE12)</f>
         <v/>
       </c>
       <c r="AG15" s="17" t="str">
-        <f>IF(_tag_month_day!AF12="","",_tag_month_day!AF12)</f>
+        <f>IF(_tag_month_all!AF12="","",_tag_month_all!AF12)</f>
         <v/>
       </c>
       <c r="AH15" s="29" t="str">
-        <f>IF(_tag_month_day!AG12="","",_tag_month_day!AG12)</f>
+        <f>IF(_tag_month_all!AG12="","",_tag_month_all!AG12)</f>
         <v/>
       </c>
       <c r="AI15" s="29" t="str">
-        <f>IF(_tag_month_day!AH12="","",_tag_month_day!AH12)</f>
+        <f>IF(_tag_month_all!AH12="","",_tag_month_all!AH12)</f>
         <v/>
       </c>
       <c r="AJ15" s="38" t="str">
-        <f>IF(_tag_month_day!AI12="","",_tag_month_day!AI12)</f>
+        <f>IF(_tag_month_all!AI12="","",_tag_month_all!AI12)</f>
         <v/>
       </c>
       <c r="AK15" s="8" t="str">
@@ -3960,143 +3872,143 @@
         <v>12</v>
       </c>
       <c r="B16" s="16" t="str">
-        <f>IF(_tag_month_day!A13="","",_tag_month_day!A13)</f>
+        <f>IF(_tag_month_all!A13="","",_tag_month_all!A13)</f>
         <v/>
       </c>
       <c r="C16" s="16" t="str">
-        <f>IF(_tag_month_day!B13="","",_tag_month_day!B13)</f>
+        <f>IF(_tag_month_all!B13="","",_tag_month_all!B13)</f>
         <v/>
       </c>
       <c r="D16" s="17" t="str">
-        <f>IF(_tag_month_day!C13="","",_tag_month_day!C13)</f>
+        <f>IF(_tag_month_all!C13="","",_tag_month_all!C13)</f>
         <v/>
       </c>
       <c r="E16" s="18" t="str">
-        <f>IF(_tag_month_day!D13="","",_tag_month_day!D13)</f>
+        <f>IF(_tag_month_all!D13="","",_tag_month_all!D13)</f>
         <v/>
       </c>
       <c r="F16" s="19" t="str">
-        <f>IF(_tag_month_day!E13="","",_tag_month_day!E13)</f>
+        <f>IF(_tag_month_all!E13="","",_tag_month_all!E13)</f>
         <v/>
       </c>
       <c r="G16" s="20" t="str">
-        <f>IF(_tag_month_day!F13="","",_tag_month_day!F13)</f>
+        <f>IF(_tag_month_all!F13="","",_tag_month_all!F13)</f>
         <v/>
       </c>
       <c r="H16" s="21" t="str">
-        <f>IF(_tag_month_day!G13="","",_tag_month_day!G13)</f>
+        <f>IF(_tag_month_all!G13="","",_tag_month_all!G13)</f>
         <v/>
       </c>
       <c r="I16" s="18" t="str">
-        <f>IF(_tag_month_day!H13="","",_tag_month_day!H13)</f>
+        <f>IF(_tag_month_all!H13="","",_tag_month_all!H13)</f>
         <v/>
       </c>
       <c r="J16" s="18" t="str">
-        <f>IF(_tag_month_day!I13="","",_tag_month_day!I13)</f>
+        <f>IF(_tag_month_all!I13="","",_tag_month_all!I13)</f>
         <v/>
       </c>
       <c r="K16" s="27" t="str">
-        <f>IF(_tag_month_day!J13="","",_tag_month_day!J13)</f>
+        <f>IF(_tag_month_all!J13="","",_tag_month_all!J13)</f>
         <v/>
       </c>
       <c r="L16" s="18" t="str">
-        <f>IF(_tag_month_day!K13="","",_tag_month_day!K13)</f>
+        <f>IF(_tag_month_all!K13="","",_tag_month_all!K13)</f>
         <v/>
       </c>
       <c r="M16" s="28" t="str">
-        <f>IF(_tag_month_day!L13="","",_tag_month_day!L13)</f>
+        <f>IF(_tag_month_all!L13="","",_tag_month_all!L13)</f>
         <v/>
       </c>
       <c r="N16" s="29" t="str">
-        <f>IF(_tag_month_day!M13="","",_tag_month_day!M13)</f>
+        <f>IF(_tag_month_all!M13="","",_tag_month_all!M13)</f>
         <v/>
       </c>
       <c r="O16" s="30" t="str">
-        <f>IF(_tag_month_day!N13="","",_tag_month_day!N13)</f>
+        <f>IF(_tag_month_all!N13="","",_tag_month_all!N13)</f>
         <v/>
       </c>
       <c r="P16" s="30" t="str">
-        <f>IF(_tag_month_day!O13="","",_tag_month_day!O13)</f>
+        <f>IF(_tag_month_all!O13="","",_tag_month_all!O13)</f>
         <v/>
       </c>
       <c r="Q16" s="30" t="str">
-        <f>IF(_tag_month_day!P13="","",_tag_month_day!P13)</f>
+        <f>IF(_tag_month_all!P13="","",_tag_month_all!P13)</f>
         <v/>
       </c>
       <c r="R16" s="35" t="str">
-        <f>IF(_tag_month_day!Q13="","",_tag_month_day!Q13)</f>
+        <f>IF(_tag_month_all!Q13="","",_tag_month_all!Q13)</f>
         <v/>
       </c>
       <c r="S16" s="35" t="str">
-        <f>IF(_tag_month_day!R13="","",_tag_month_day!R13)</f>
+        <f>IF(_tag_month_all!R13="","",_tag_month_all!R13)</f>
         <v/>
       </c>
       <c r="T16" s="35" t="str">
-        <f>IF(_tag_month_day!S13="","",_tag_month_day!S13)</f>
+        <f>IF(_tag_month_all!S13="","",_tag_month_all!S13)</f>
         <v/>
       </c>
       <c r="U16" s="35" t="str">
-        <f>IF(_tag_month_day!T13="","",_tag_month_day!T13)</f>
+        <f>IF(_tag_month_all!T13="","",_tag_month_all!T13)</f>
         <v/>
       </c>
       <c r="V16" s="29" t="str">
-        <f>IF(_tag_month_day!U13="","",_tag_month_day!U13)</f>
+        <f>IF(_tag_month_all!U13="","",_tag_month_all!U13)</f>
         <v/>
       </c>
       <c r="W16" s="30" t="str">
-        <f>IF(_tag_month_day!V13="","",_tag_month_day!V13)</f>
+        <f>IF(_tag_month_all!V13="","",_tag_month_all!V13)</f>
         <v/>
       </c>
       <c r="X16" s="30" t="str">
-        <f>IF(_tag_month_day!W13="","",_tag_month_day!W13)</f>
+        <f>IF(_tag_month_all!W13="","",_tag_month_all!W13)</f>
         <v/>
       </c>
       <c r="Y16" s="30" t="str">
-        <f>IF(_tag_month_day!X13="","",_tag_month_day!X13)</f>
+        <f>IF(_tag_month_all!X13="","",_tag_month_all!X13)</f>
         <v/>
       </c>
       <c r="Z16" s="30" t="str">
-        <f>IF(_tag_month_day!Y13="","",_tag_month_day!Y13)</f>
+        <f>IF(_tag_month_all!Y13="","",_tag_month_all!Y13)</f>
         <v/>
       </c>
       <c r="AA16" s="30" t="str">
-        <f>IF(_tag_month_day!Z13="","",_tag_month_day!Z13)</f>
+        <f>IF(_tag_month_all!Z13="","",_tag_month_all!Z13)</f>
         <v/>
       </c>
       <c r="AB16" s="30" t="str">
-        <f>IF(_tag_month_day!AA13="","",_tag_month_day!AA13)</f>
+        <f>IF(_tag_month_all!AA13="","",_tag_month_all!AA13)</f>
         <v/>
       </c>
       <c r="AC16" s="30" t="str">
-        <f>IF(_tag_month_day!AB13="","",_tag_month_day!AB13)</f>
+        <f>IF(_tag_month_all!AB13="","",_tag_month_all!AB13)</f>
         <v/>
       </c>
       <c r="AD16" s="17" t="str">
-        <f>IF(_tag_month_day!AC13="","",_tag_month_day!AC13)</f>
+        <f>IF(_tag_month_all!AC13="","",_tag_month_all!AC13)</f>
         <v/>
       </c>
       <c r="AE16" s="17" t="str">
-        <f>IF(_tag_month_day!AD13="","",_tag_month_day!AD13)</f>
+        <f>IF(_tag_month_all!AD13="","",_tag_month_all!AD13)</f>
         <v/>
       </c>
       <c r="AF16" s="17" t="str">
-        <f>IF(_tag_month_day!AE13="","",_tag_month_day!AE13)</f>
+        <f>IF(_tag_month_all!AE13="","",_tag_month_all!AE13)</f>
         <v/>
       </c>
       <c r="AG16" s="17" t="str">
-        <f>IF(_tag_month_day!AF13="","",_tag_month_day!AF13)</f>
+        <f>IF(_tag_month_all!AF13="","",_tag_month_all!AF13)</f>
         <v/>
       </c>
       <c r="AH16" s="29" t="str">
-        <f>IF(_tag_month_day!AG13="","",_tag_month_day!AG13)</f>
+        <f>IF(_tag_month_all!AG13="","",_tag_month_all!AG13)</f>
         <v/>
       </c>
       <c r="AI16" s="29" t="str">
-        <f>IF(_tag_month_day!AH13="","",_tag_month_day!AH13)</f>
+        <f>IF(_tag_month_all!AH13="","",_tag_month_all!AH13)</f>
         <v/>
       </c>
       <c r="AJ16" s="38" t="str">
-        <f>IF(_tag_month_day!AI13="","",_tag_month_day!AI13)</f>
+        <f>IF(_tag_month_all!AI13="","",_tag_month_all!AI13)</f>
         <v/>
       </c>
       <c r="AK16" s="8" t="str">
@@ -4226,143 +4138,143 @@
         <v>13</v>
       </c>
       <c r="B17" s="16" t="str">
-        <f>IF(_tag_month_day!A14="","",_tag_month_day!A14)</f>
+        <f>IF(_tag_month_all!A14="","",_tag_month_all!A14)</f>
         <v/>
       </c>
       <c r="C17" s="16" t="str">
-        <f>IF(_tag_month_day!B14="","",_tag_month_day!B14)</f>
+        <f>IF(_tag_month_all!B14="","",_tag_month_all!B14)</f>
         <v/>
       </c>
       <c r="D17" s="17" t="str">
-        <f>IF(_tag_month_day!C14="","",_tag_month_day!C14)</f>
+        <f>IF(_tag_month_all!C14="","",_tag_month_all!C14)</f>
         <v/>
       </c>
       <c r="E17" s="18" t="str">
-        <f>IF(_tag_month_day!D14="","",_tag_month_day!D14)</f>
+        <f>IF(_tag_month_all!D14="","",_tag_month_all!D14)</f>
         <v/>
       </c>
       <c r="F17" s="19" t="str">
-        <f>IF(_tag_month_day!E14="","",_tag_month_day!E14)</f>
+        <f>IF(_tag_month_all!E14="","",_tag_month_all!E14)</f>
         <v/>
       </c>
       <c r="G17" s="20" t="str">
-        <f>IF(_tag_month_day!F14="","",_tag_month_day!F14)</f>
+        <f>IF(_tag_month_all!F14="","",_tag_month_all!F14)</f>
         <v/>
       </c>
       <c r="H17" s="21" t="str">
-        <f>IF(_tag_month_day!G14="","",_tag_month_day!G14)</f>
+        <f>IF(_tag_month_all!G14="","",_tag_month_all!G14)</f>
         <v/>
       </c>
       <c r="I17" s="18" t="str">
-        <f>IF(_tag_month_day!H14="","",_tag_month_day!H14)</f>
+        <f>IF(_tag_month_all!H14="","",_tag_month_all!H14)</f>
         <v/>
       </c>
       <c r="J17" s="18" t="str">
-        <f>IF(_tag_month_day!I14="","",_tag_month_day!I14)</f>
+        <f>IF(_tag_month_all!I14="","",_tag_month_all!I14)</f>
         <v/>
       </c>
       <c r="K17" s="27" t="str">
-        <f>IF(_tag_month_day!J14="","",_tag_month_day!J14)</f>
+        <f>IF(_tag_month_all!J14="","",_tag_month_all!J14)</f>
         <v/>
       </c>
       <c r="L17" s="18" t="str">
-        <f>IF(_tag_month_day!K14="","",_tag_month_day!K14)</f>
+        <f>IF(_tag_month_all!K14="","",_tag_month_all!K14)</f>
         <v/>
       </c>
       <c r="M17" s="28" t="str">
-        <f>IF(_tag_month_day!L14="","",_tag_month_day!L14)</f>
+        <f>IF(_tag_month_all!L14="","",_tag_month_all!L14)</f>
         <v/>
       </c>
       <c r="N17" s="29" t="str">
-        <f>IF(_tag_month_day!M14="","",_tag_month_day!M14)</f>
+        <f>IF(_tag_month_all!M14="","",_tag_month_all!M14)</f>
         <v/>
       </c>
       <c r="O17" s="30" t="str">
-        <f>IF(_tag_month_day!N14="","",_tag_month_day!N14)</f>
+        <f>IF(_tag_month_all!N14="","",_tag_month_all!N14)</f>
         <v/>
       </c>
       <c r="P17" s="30" t="str">
-        <f>IF(_tag_month_day!O14="","",_tag_month_day!O14)</f>
+        <f>IF(_tag_month_all!O14="","",_tag_month_all!O14)</f>
         <v/>
       </c>
       <c r="Q17" s="30" t="str">
-        <f>IF(_tag_month_day!P14="","",_tag_month_day!P14)</f>
+        <f>IF(_tag_month_all!P14="","",_tag_month_all!P14)</f>
         <v/>
       </c>
       <c r="R17" s="35" t="str">
-        <f>IF(_tag_month_day!Q14="","",_tag_month_day!Q14)</f>
+        <f>IF(_tag_month_all!Q14="","",_tag_month_all!Q14)</f>
         <v/>
       </c>
       <c r="S17" s="35" t="str">
-        <f>IF(_tag_month_day!R14="","",_tag_month_day!R14)</f>
+        <f>IF(_tag_month_all!R14="","",_tag_month_all!R14)</f>
         <v/>
       </c>
       <c r="T17" s="35" t="str">
-        <f>IF(_tag_month_day!S14="","",_tag_month_day!S14)</f>
+        <f>IF(_tag_month_all!S14="","",_tag_month_all!S14)</f>
         <v/>
       </c>
       <c r="U17" s="35" t="str">
-        <f>IF(_tag_month_day!T14="","",_tag_month_day!T14)</f>
+        <f>IF(_tag_month_all!T14="","",_tag_month_all!T14)</f>
         <v/>
       </c>
       <c r="V17" s="29" t="str">
-        <f>IF(_tag_month_day!U14="","",_tag_month_day!U14)</f>
+        <f>IF(_tag_month_all!U14="","",_tag_month_all!U14)</f>
         <v/>
       </c>
       <c r="W17" s="30" t="str">
-        <f>IF(_tag_month_day!V14="","",_tag_month_day!V14)</f>
+        <f>IF(_tag_month_all!V14="","",_tag_month_all!V14)</f>
         <v/>
       </c>
       <c r="X17" s="30" t="str">
-        <f>IF(_tag_month_day!W14="","",_tag_month_day!W14)</f>
+        <f>IF(_tag_month_all!W14="","",_tag_month_all!W14)</f>
         <v/>
       </c>
       <c r="Y17" s="30" t="str">
-        <f>IF(_tag_month_day!X14="","",_tag_month_day!X14)</f>
+        <f>IF(_tag_month_all!X14="","",_tag_month_all!X14)</f>
         <v/>
       </c>
       <c r="Z17" s="30" t="str">
-        <f>IF(_tag_month_day!Y14="","",_tag_month_day!Y14)</f>
+        <f>IF(_tag_month_all!Y14="","",_tag_month_all!Y14)</f>
         <v/>
       </c>
       <c r="AA17" s="30" t="str">
-        <f>IF(_tag_month_day!Z14="","",_tag_month_day!Z14)</f>
+        <f>IF(_tag_month_all!Z14="","",_tag_month_all!Z14)</f>
         <v/>
       </c>
       <c r="AB17" s="30" t="str">
-        <f>IF(_tag_month_day!AA14="","",_tag_month_day!AA14)</f>
+        <f>IF(_tag_month_all!AA14="","",_tag_month_all!AA14)</f>
         <v/>
       </c>
       <c r="AC17" s="30" t="str">
-        <f>IF(_tag_month_day!AB14="","",_tag_month_day!AB14)</f>
+        <f>IF(_tag_month_all!AB14="","",_tag_month_all!AB14)</f>
         <v/>
       </c>
       <c r="AD17" s="17" t="str">
-        <f>IF(_tag_month_day!AC14="","",_tag_month_day!AC14)</f>
+        <f>IF(_tag_month_all!AC14="","",_tag_month_all!AC14)</f>
         <v/>
       </c>
       <c r="AE17" s="17" t="str">
-        <f>IF(_tag_month_day!AD14="","",_tag_month_day!AD14)</f>
+        <f>IF(_tag_month_all!AD14="","",_tag_month_all!AD14)</f>
         <v/>
       </c>
       <c r="AF17" s="17" t="str">
-        <f>IF(_tag_month_day!AE14="","",_tag_month_day!AE14)</f>
+        <f>IF(_tag_month_all!AE14="","",_tag_month_all!AE14)</f>
         <v/>
       </c>
       <c r="AG17" s="17" t="str">
-        <f>IF(_tag_month_day!AF14="","",_tag_month_day!AF14)</f>
+        <f>IF(_tag_month_all!AF14="","",_tag_month_all!AF14)</f>
         <v/>
       </c>
       <c r="AH17" s="29" t="str">
-        <f>IF(_tag_month_day!AG14="","",_tag_month_day!AG14)</f>
+        <f>IF(_tag_month_all!AG14="","",_tag_month_all!AG14)</f>
         <v/>
       </c>
       <c r="AI17" s="29" t="str">
-        <f>IF(_tag_month_day!AH14="","",_tag_month_day!AH14)</f>
+        <f>IF(_tag_month_all!AH14="","",_tag_month_all!AH14)</f>
         <v/>
       </c>
       <c r="AJ17" s="38" t="str">
-        <f>IF(_tag_month_day!AI14="","",_tag_month_day!AI14)</f>
+        <f>IF(_tag_month_all!AI14="","",_tag_month_all!AI14)</f>
         <v/>
       </c>
       <c r="AK17" s="8" t="str">
@@ -4492,143 +4404,143 @@
         <v>14</v>
       </c>
       <c r="B18" s="16" t="str">
-        <f>IF(_tag_month_day!A15="","",_tag_month_day!A15)</f>
+        <f>IF(_tag_month_all!A15="","",_tag_month_all!A15)</f>
         <v/>
       </c>
       <c r="C18" s="16" t="str">
-        <f>IF(_tag_month_day!B15="","",_tag_month_day!B15)</f>
+        <f>IF(_tag_month_all!B15="","",_tag_month_all!B15)</f>
         <v/>
       </c>
       <c r="D18" s="17" t="str">
-        <f>IF(_tag_month_day!C15="","",_tag_month_day!C15)</f>
+        <f>IF(_tag_month_all!C15="","",_tag_month_all!C15)</f>
         <v/>
       </c>
       <c r="E18" s="18" t="str">
-        <f>IF(_tag_month_day!D15="","",_tag_month_day!D15)</f>
+        <f>IF(_tag_month_all!D15="","",_tag_month_all!D15)</f>
         <v/>
       </c>
       <c r="F18" s="19" t="str">
-        <f>IF(_tag_month_day!E15="","",_tag_month_day!E15)</f>
+        <f>IF(_tag_month_all!E15="","",_tag_month_all!E15)</f>
         <v/>
       </c>
       <c r="G18" s="20" t="str">
-        <f>IF(_tag_month_day!F15="","",_tag_month_day!F15)</f>
+        <f>IF(_tag_month_all!F15="","",_tag_month_all!F15)</f>
         <v/>
       </c>
       <c r="H18" s="21" t="str">
-        <f>IF(_tag_month_day!G15="","",_tag_month_day!G15)</f>
+        <f>IF(_tag_month_all!G15="","",_tag_month_all!G15)</f>
         <v/>
       </c>
       <c r="I18" s="18" t="str">
-        <f>IF(_tag_month_day!H15="","",_tag_month_day!H15)</f>
+        <f>IF(_tag_month_all!H15="","",_tag_month_all!H15)</f>
         <v/>
       </c>
       <c r="J18" s="18" t="str">
-        <f>IF(_tag_month_day!I15="","",_tag_month_day!I15)</f>
+        <f>IF(_tag_month_all!I15="","",_tag_month_all!I15)</f>
         <v/>
       </c>
       <c r="K18" s="27" t="str">
-        <f>IF(_tag_month_day!J15="","",_tag_month_day!J15)</f>
+        <f>IF(_tag_month_all!J15="","",_tag_month_all!J15)</f>
         <v/>
       </c>
       <c r="L18" s="18" t="str">
-        <f>IF(_tag_month_day!K15="","",_tag_month_day!K15)</f>
+        <f>IF(_tag_month_all!K15="","",_tag_month_all!K15)</f>
         <v/>
       </c>
       <c r="M18" s="28" t="str">
-        <f>IF(_tag_month_day!L15="","",_tag_month_day!L15)</f>
+        <f>IF(_tag_month_all!L15="","",_tag_month_all!L15)</f>
         <v/>
       </c>
       <c r="N18" s="29" t="str">
-        <f>IF(_tag_month_day!M15="","",_tag_month_day!M15)</f>
+        <f>IF(_tag_month_all!M15="","",_tag_month_all!M15)</f>
         <v/>
       </c>
       <c r="O18" s="30" t="str">
-        <f>IF(_tag_month_day!N15="","",_tag_month_day!N15)</f>
+        <f>IF(_tag_month_all!N15="","",_tag_month_all!N15)</f>
         <v/>
       </c>
       <c r="P18" s="30" t="str">
-        <f>IF(_tag_month_day!O15="","",_tag_month_day!O15)</f>
+        <f>IF(_tag_month_all!O15="","",_tag_month_all!O15)</f>
         <v/>
       </c>
       <c r="Q18" s="30" t="str">
-        <f>IF(_tag_month_day!P15="","",_tag_month_day!P15)</f>
+        <f>IF(_tag_month_all!P15="","",_tag_month_all!P15)</f>
         <v/>
       </c>
       <c r="R18" s="35" t="str">
-        <f>IF(_tag_month_day!Q15="","",_tag_month_day!Q15)</f>
+        <f>IF(_tag_month_all!Q15="","",_tag_month_all!Q15)</f>
         <v/>
       </c>
       <c r="S18" s="35" t="str">
-        <f>IF(_tag_month_day!R15="","",_tag_month_day!R15)</f>
+        <f>IF(_tag_month_all!R15="","",_tag_month_all!R15)</f>
         <v/>
       </c>
       <c r="T18" s="35" t="str">
-        <f>IF(_tag_month_day!S15="","",_tag_month_day!S15)</f>
+        <f>IF(_tag_month_all!S15="","",_tag_month_all!S15)</f>
         <v/>
       </c>
       <c r="U18" s="35" t="str">
-        <f>IF(_tag_month_day!T15="","",_tag_month_day!T15)</f>
+        <f>IF(_tag_month_all!T15="","",_tag_month_all!T15)</f>
         <v/>
       </c>
       <c r="V18" s="29" t="str">
-        <f>IF(_tag_month_day!U15="","",_tag_month_day!U15)</f>
+        <f>IF(_tag_month_all!U15="","",_tag_month_all!U15)</f>
         <v/>
       </c>
       <c r="W18" s="30" t="str">
-        <f>IF(_tag_month_day!V15="","",_tag_month_day!V15)</f>
+        <f>IF(_tag_month_all!V15="","",_tag_month_all!V15)</f>
         <v/>
       </c>
       <c r="X18" s="30" t="str">
-        <f>IF(_tag_month_day!W15="","",_tag_month_day!W15)</f>
+        <f>IF(_tag_month_all!W15="","",_tag_month_all!W15)</f>
         <v/>
       </c>
       <c r="Y18" s="30" t="str">
-        <f>IF(_tag_month_day!X15="","",_tag_month_day!X15)</f>
+        <f>IF(_tag_month_all!X15="","",_tag_month_all!X15)</f>
         <v/>
       </c>
       <c r="Z18" s="30" t="str">
-        <f>IF(_tag_month_day!Y15="","",_tag_month_day!Y15)</f>
+        <f>IF(_tag_month_all!Y15="","",_tag_month_all!Y15)</f>
         <v/>
       </c>
       <c r="AA18" s="30" t="str">
-        <f>IF(_tag_month_day!Z15="","",_tag_month_day!Z15)</f>
+        <f>IF(_tag_month_all!Z15="","",_tag_month_all!Z15)</f>
         <v/>
       </c>
       <c r="AB18" s="30" t="str">
-        <f>IF(_tag_month_day!AA15="","",_tag_month_day!AA15)</f>
+        <f>IF(_tag_month_all!AA15="","",_tag_month_all!AA15)</f>
         <v/>
       </c>
       <c r="AC18" s="30" t="str">
-        <f>IF(_tag_month_day!AB15="","",_tag_month_day!AB15)</f>
+        <f>IF(_tag_month_all!AB15="","",_tag_month_all!AB15)</f>
         <v/>
       </c>
       <c r="AD18" s="17" t="str">
-        <f>IF(_tag_month_day!AC15="","",_tag_month_day!AC15)</f>
+        <f>IF(_tag_month_all!AC15="","",_tag_month_all!AC15)</f>
         <v/>
       </c>
       <c r="AE18" s="17" t="str">
-        <f>IF(_tag_month_day!AD15="","",_tag_month_day!AD15)</f>
+        <f>IF(_tag_month_all!AD15="","",_tag_month_all!AD15)</f>
         <v/>
       </c>
       <c r="AF18" s="17" t="str">
-        <f>IF(_tag_month_day!AE15="","",_tag_month_day!AE15)</f>
+        <f>IF(_tag_month_all!AE15="","",_tag_month_all!AE15)</f>
         <v/>
       </c>
       <c r="AG18" s="17" t="str">
-        <f>IF(_tag_month_day!AF15="","",_tag_month_day!AF15)</f>
+        <f>IF(_tag_month_all!AF15="","",_tag_month_all!AF15)</f>
         <v/>
       </c>
       <c r="AH18" s="29" t="str">
-        <f>IF(_tag_month_day!AG15="","",_tag_month_day!AG15)</f>
+        <f>IF(_tag_month_all!AG15="","",_tag_month_all!AG15)</f>
         <v/>
       </c>
       <c r="AI18" s="29" t="str">
-        <f>IF(_tag_month_day!AH15="","",_tag_month_day!AH15)</f>
+        <f>IF(_tag_month_all!AH15="","",_tag_month_all!AH15)</f>
         <v/>
       </c>
       <c r="AJ18" s="38" t="str">
-        <f>IF(_tag_month_day!AI15="","",_tag_month_day!AI15)</f>
+        <f>IF(_tag_month_all!AI15="","",_tag_month_all!AI15)</f>
         <v/>
       </c>
       <c r="AK18" s="8" t="str">
@@ -4758,143 +4670,143 @@
         <v>15</v>
       </c>
       <c r="B19" s="16" t="str">
-        <f>IF(_tag_month_day!A16="","",_tag_month_day!A16)</f>
+        <f>IF(_tag_month_all!A16="","",_tag_month_all!A16)</f>
         <v/>
       </c>
       <c r="C19" s="16" t="str">
-        <f>IF(_tag_month_day!B16="","",_tag_month_day!B16)</f>
+        <f>IF(_tag_month_all!B16="","",_tag_month_all!B16)</f>
         <v/>
       </c>
       <c r="D19" s="17" t="str">
-        <f>IF(_tag_month_day!C16="","",_tag_month_day!C16)</f>
+        <f>IF(_tag_month_all!C16="","",_tag_month_all!C16)</f>
         <v/>
       </c>
       <c r="E19" s="18" t="str">
-        <f>IF(_tag_month_day!D16="","",_tag_month_day!D16)</f>
+        <f>IF(_tag_month_all!D16="","",_tag_month_all!D16)</f>
         <v/>
       </c>
       <c r="F19" s="19" t="str">
-        <f>IF(_tag_month_day!E16="","",_tag_month_day!E16)</f>
+        <f>IF(_tag_month_all!E16="","",_tag_month_all!E16)</f>
         <v/>
       </c>
       <c r="G19" s="20" t="str">
-        <f>IF(_tag_month_day!F16="","",_tag_month_day!F16)</f>
+        <f>IF(_tag_month_all!F16="","",_tag_month_all!F16)</f>
         <v/>
       </c>
       <c r="H19" s="21" t="str">
-        <f>IF(_tag_month_day!G16="","",_tag_month_day!G16)</f>
+        <f>IF(_tag_month_all!G16="","",_tag_month_all!G16)</f>
         <v/>
       </c>
       <c r="I19" s="18" t="str">
-        <f>IF(_tag_month_day!H16="","",_tag_month_day!H16)</f>
+        <f>IF(_tag_month_all!H16="","",_tag_month_all!H16)</f>
         <v/>
       </c>
       <c r="J19" s="18" t="str">
-        <f>IF(_tag_month_day!I16="","",_tag_month_day!I16)</f>
+        <f>IF(_tag_month_all!I16="","",_tag_month_all!I16)</f>
         <v/>
       </c>
       <c r="K19" s="27" t="str">
-        <f>IF(_tag_month_day!J16="","",_tag_month_day!J16)</f>
+        <f>IF(_tag_month_all!J16="","",_tag_month_all!J16)</f>
         <v/>
       </c>
       <c r="L19" s="18" t="str">
-        <f>IF(_tag_month_day!K16="","",_tag_month_day!K16)</f>
+        <f>IF(_tag_month_all!K16="","",_tag_month_all!K16)</f>
         <v/>
       </c>
       <c r="M19" s="28" t="str">
-        <f>IF(_tag_month_day!L16="","",_tag_month_day!L16)</f>
+        <f>IF(_tag_month_all!L16="","",_tag_month_all!L16)</f>
         <v/>
       </c>
       <c r="N19" s="29" t="str">
-        <f>IF(_tag_month_day!M16="","",_tag_month_day!M16)</f>
+        <f>IF(_tag_month_all!M16="","",_tag_month_all!M16)</f>
         <v/>
       </c>
       <c r="O19" s="30" t="str">
-        <f>IF(_tag_month_day!N16="","",_tag_month_day!N16)</f>
+        <f>IF(_tag_month_all!N16="","",_tag_month_all!N16)</f>
         <v/>
       </c>
       <c r="P19" s="30" t="str">
-        <f>IF(_tag_month_day!O16="","",_tag_month_day!O16)</f>
+        <f>IF(_tag_month_all!O16="","",_tag_month_all!O16)</f>
         <v/>
       </c>
       <c r="Q19" s="30" t="str">
-        <f>IF(_tag_month_day!P16="","",_tag_month_day!P16)</f>
+        <f>IF(_tag_month_all!P16="","",_tag_month_all!P16)</f>
         <v/>
       </c>
       <c r="R19" s="35" t="str">
-        <f>IF(_tag_month_day!Q16="","",_tag_month_day!Q16)</f>
+        <f>IF(_tag_month_all!Q16="","",_tag_month_all!Q16)</f>
         <v/>
       </c>
       <c r="S19" s="35" t="str">
-        <f>IF(_tag_month_day!R16="","",_tag_month_day!R16)</f>
+        <f>IF(_tag_month_all!R16="","",_tag_month_all!R16)</f>
         <v/>
       </c>
       <c r="T19" s="35" t="str">
-        <f>IF(_tag_month_day!S16="","",_tag_month_day!S16)</f>
+        <f>IF(_tag_month_all!S16="","",_tag_month_all!S16)</f>
         <v/>
       </c>
       <c r="U19" s="35" t="str">
-        <f>IF(_tag_month_day!T16="","",_tag_month_day!T16)</f>
+        <f>IF(_tag_month_all!T16="","",_tag_month_all!T16)</f>
         <v/>
       </c>
       <c r="V19" s="29" t="str">
-        <f>IF(_tag_month_day!U16="","",_tag_month_day!U16)</f>
+        <f>IF(_tag_month_all!U16="","",_tag_month_all!U16)</f>
         <v/>
       </c>
       <c r="W19" s="30" t="str">
-        <f>IF(_tag_month_day!V16="","",_tag_month_day!V16)</f>
+        <f>IF(_tag_month_all!V16="","",_tag_month_all!V16)</f>
         <v/>
       </c>
       <c r="X19" s="30" t="str">
-        <f>IF(_tag_month_day!W16="","",_tag_month_day!W16)</f>
+        <f>IF(_tag_month_all!W16="","",_tag_month_all!W16)</f>
         <v/>
       </c>
       <c r="Y19" s="30" t="str">
-        <f>IF(_tag_month_day!X16="","",_tag_month_day!X16)</f>
+        <f>IF(_tag_month_all!X16="","",_tag_month_all!X16)</f>
         <v/>
       </c>
       <c r="Z19" s="30" t="str">
-        <f>IF(_tag_month_day!Y16="","",_tag_month_day!Y16)</f>
+        <f>IF(_tag_month_all!Y16="","",_tag_month_all!Y16)</f>
         <v/>
       </c>
       <c r="AA19" s="30" t="str">
-        <f>IF(_tag_month_day!Z16="","",_tag_month_day!Z16)</f>
+        <f>IF(_tag_month_all!Z16="","",_tag_month_all!Z16)</f>
         <v/>
       </c>
       <c r="AB19" s="30" t="str">
-        <f>IF(_tag_month_day!AA16="","",_tag_month_day!AA16)</f>
+        <f>IF(_tag_month_all!AA16="","",_tag_month_all!AA16)</f>
         <v/>
       </c>
       <c r="AC19" s="30" t="str">
-        <f>IF(_tag_month_day!AB16="","",_tag_month_day!AB16)</f>
+        <f>IF(_tag_month_all!AB16="","",_tag_month_all!AB16)</f>
         <v/>
       </c>
       <c r="AD19" s="17" t="str">
-        <f>IF(_tag_month_day!AC16="","",_tag_month_day!AC16)</f>
+        <f>IF(_tag_month_all!AC16="","",_tag_month_all!AC16)</f>
         <v/>
       </c>
       <c r="AE19" s="17" t="str">
-        <f>IF(_tag_month_day!AD16="","",_tag_month_day!AD16)</f>
+        <f>IF(_tag_month_all!AD16="","",_tag_month_all!AD16)</f>
         <v/>
       </c>
       <c r="AF19" s="17" t="str">
-        <f>IF(_tag_month_day!AE16="","",_tag_month_day!AE16)</f>
+        <f>IF(_tag_month_all!AE16="","",_tag_month_all!AE16)</f>
         <v/>
       </c>
       <c r="AG19" s="17" t="str">
-        <f>IF(_tag_month_day!AF16="","",_tag_month_day!AF16)</f>
+        <f>IF(_tag_month_all!AF16="","",_tag_month_all!AF16)</f>
         <v/>
       </c>
       <c r="AH19" s="29" t="str">
-        <f>IF(_tag_month_day!AG16="","",_tag_month_day!AG16)</f>
+        <f>IF(_tag_month_all!AG16="","",_tag_month_all!AG16)</f>
         <v/>
       </c>
       <c r="AI19" s="29" t="str">
-        <f>IF(_tag_month_day!AH16="","",_tag_month_day!AH16)</f>
+        <f>IF(_tag_month_all!AH16="","",_tag_month_all!AH16)</f>
         <v/>
       </c>
       <c r="AJ19" s="38" t="str">
-        <f>IF(_tag_month_day!AI16="","",_tag_month_day!AI16)</f>
+        <f>IF(_tag_month_all!AI16="","",_tag_month_all!AI16)</f>
         <v/>
       </c>
       <c r="AK19" s="8" t="str">
@@ -5024,143 +4936,143 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="str">
-        <f>IF(_tag_month_day!A17="","",_tag_month_day!A17)</f>
+        <f>IF(_tag_month_all!A17="","",_tag_month_all!A17)</f>
         <v/>
       </c>
       <c r="C20" s="16" t="str">
-        <f>IF(_tag_month_day!B17="","",_tag_month_day!B17)</f>
+        <f>IF(_tag_month_all!B17="","",_tag_month_all!B17)</f>
         <v/>
       </c>
       <c r="D20" s="17" t="str">
-        <f>IF(_tag_month_day!C17="","",_tag_month_day!C17)</f>
+        <f>IF(_tag_month_all!C17="","",_tag_month_all!C17)</f>
         <v/>
       </c>
       <c r="E20" s="18" t="str">
-        <f>IF(_tag_month_day!D17="","",_tag_month_day!D17)</f>
+        <f>IF(_tag_month_all!D17="","",_tag_month_all!D17)</f>
         <v/>
       </c>
       <c r="F20" s="19" t="str">
-        <f>IF(_tag_month_day!E17="","",_tag_month_day!E17)</f>
+        <f>IF(_tag_month_all!E17="","",_tag_month_all!E17)</f>
         <v/>
       </c>
       <c r="G20" s="20" t="str">
-        <f>IF(_tag_month_day!F17="","",_tag_month_day!F17)</f>
+        <f>IF(_tag_month_all!F17="","",_tag_month_all!F17)</f>
         <v/>
       </c>
       <c r="H20" s="21" t="str">
-        <f>IF(_tag_month_day!G17="","",_tag_month_day!G17)</f>
+        <f>IF(_tag_month_all!G17="","",_tag_month_all!G17)</f>
         <v/>
       </c>
       <c r="I20" s="18" t="str">
-        <f>IF(_tag_month_day!H17="","",_tag_month_day!H17)</f>
+        <f>IF(_tag_month_all!H17="","",_tag_month_all!H17)</f>
         <v/>
       </c>
       <c r="J20" s="18" t="str">
-        <f>IF(_tag_month_day!I17="","",_tag_month_day!I17)</f>
+        <f>IF(_tag_month_all!I17="","",_tag_month_all!I17)</f>
         <v/>
       </c>
       <c r="K20" s="27" t="str">
-        <f>IF(_tag_month_day!J17="","",_tag_month_day!J17)</f>
+        <f>IF(_tag_month_all!J17="","",_tag_month_all!J17)</f>
         <v/>
       </c>
       <c r="L20" s="18" t="str">
-        <f>IF(_tag_month_day!K17="","",_tag_month_day!K17)</f>
+        <f>IF(_tag_month_all!K17="","",_tag_month_all!K17)</f>
         <v/>
       </c>
       <c r="M20" s="28" t="str">
-        <f>IF(_tag_month_day!L17="","",_tag_month_day!L17)</f>
+        <f>IF(_tag_month_all!L17="","",_tag_month_all!L17)</f>
         <v/>
       </c>
       <c r="N20" s="29" t="str">
-        <f>IF(_tag_month_day!M17="","",_tag_month_day!M17)</f>
+        <f>IF(_tag_month_all!M17="","",_tag_month_all!M17)</f>
         <v/>
       </c>
       <c r="O20" s="30" t="str">
-        <f>IF(_tag_month_day!N17="","",_tag_month_day!N17)</f>
+        <f>IF(_tag_month_all!N17="","",_tag_month_all!N17)</f>
         <v/>
       </c>
       <c r="P20" s="30" t="str">
-        <f>IF(_tag_month_day!O17="","",_tag_month_day!O17)</f>
+        <f>IF(_tag_month_all!O17="","",_tag_month_all!O17)</f>
         <v/>
       </c>
       <c r="Q20" s="30" t="str">
-        <f>IF(_tag_month_day!P17="","",_tag_month_day!P17)</f>
+        <f>IF(_tag_month_all!P17="","",_tag_month_all!P17)</f>
         <v/>
       </c>
       <c r="R20" s="35" t="str">
-        <f>IF(_tag_month_day!Q17="","",_tag_month_day!Q17)</f>
+        <f>IF(_tag_month_all!Q17="","",_tag_month_all!Q17)</f>
         <v/>
       </c>
       <c r="S20" s="35" t="str">
-        <f>IF(_tag_month_day!R17="","",_tag_month_day!R17)</f>
+        <f>IF(_tag_month_all!R17="","",_tag_month_all!R17)</f>
         <v/>
       </c>
       <c r="T20" s="35" t="str">
-        <f>IF(_tag_month_day!S17="","",_tag_month_day!S17)</f>
+        <f>IF(_tag_month_all!S17="","",_tag_month_all!S17)</f>
         <v/>
       </c>
       <c r="U20" s="35" t="str">
-        <f>IF(_tag_month_day!T17="","",_tag_month_day!T17)</f>
+        <f>IF(_tag_month_all!T17="","",_tag_month_all!T17)</f>
         <v/>
       </c>
       <c r="V20" s="29" t="str">
-        <f>IF(_tag_month_day!U17="","",_tag_month_day!U17)</f>
+        <f>IF(_tag_month_all!U17="","",_tag_month_all!U17)</f>
         <v/>
       </c>
       <c r="W20" s="30" t="str">
-        <f>IF(_tag_month_day!V17="","",_tag_month_day!V17)</f>
+        <f>IF(_tag_month_all!V17="","",_tag_month_all!V17)</f>
         <v/>
       </c>
       <c r="X20" s="30" t="str">
-        <f>IF(_tag_month_day!W17="","",_tag_month_day!W17)</f>
+        <f>IF(_tag_month_all!W17="","",_tag_month_all!W17)</f>
         <v/>
       </c>
       <c r="Y20" s="30" t="str">
-        <f>IF(_tag_month_day!X17="","",_tag_month_day!X17)</f>
+        <f>IF(_tag_month_all!X17="","",_tag_month_all!X17)</f>
         <v/>
       </c>
       <c r="Z20" s="30" t="str">
-        <f>IF(_tag_month_day!Y17="","",_tag_month_day!Y17)</f>
+        <f>IF(_tag_month_all!Y17="","",_tag_month_all!Y17)</f>
         <v/>
       </c>
       <c r="AA20" s="30" t="str">
-        <f>IF(_tag_month_day!Z17="","",_tag_month_day!Z17)</f>
+        <f>IF(_tag_month_all!Z17="","",_tag_month_all!Z17)</f>
         <v/>
       </c>
       <c r="AB20" s="30" t="str">
-        <f>IF(_tag_month_day!AA17="","",_tag_month_day!AA17)</f>
+        <f>IF(_tag_month_all!AA17="","",_tag_month_all!AA17)</f>
         <v/>
       </c>
       <c r="AC20" s="30" t="str">
-        <f>IF(_tag_month_day!AB17="","",_tag_month_day!AB17)</f>
+        <f>IF(_tag_month_all!AB17="","",_tag_month_all!AB17)</f>
         <v/>
       </c>
       <c r="AD20" s="17" t="str">
-        <f>IF(_tag_month_day!AC17="","",_tag_month_day!AC17)</f>
+        <f>IF(_tag_month_all!AC17="","",_tag_month_all!AC17)</f>
         <v/>
       </c>
       <c r="AE20" s="17" t="str">
-        <f>IF(_tag_month_day!AD17="","",_tag_month_day!AD17)</f>
+        <f>IF(_tag_month_all!AD17="","",_tag_month_all!AD17)</f>
         <v/>
       </c>
       <c r="AF20" s="17" t="str">
-        <f>IF(_tag_month_day!AE17="","",_tag_month_day!AE17)</f>
+        <f>IF(_tag_month_all!AE17="","",_tag_month_all!AE17)</f>
         <v/>
       </c>
       <c r="AG20" s="17" t="str">
-        <f>IF(_tag_month_day!AF17="","",_tag_month_day!AF17)</f>
+        <f>IF(_tag_month_all!AF17="","",_tag_month_all!AF17)</f>
         <v/>
       </c>
       <c r="AH20" s="29" t="str">
-        <f>IF(_tag_month_day!AG17="","",_tag_month_day!AG17)</f>
+        <f>IF(_tag_month_all!AG17="","",_tag_month_all!AG17)</f>
         <v/>
       </c>
       <c r="AI20" s="29" t="str">
-        <f>IF(_tag_month_day!AH17="","",_tag_month_day!AH17)</f>
+        <f>IF(_tag_month_all!AH17="","",_tag_month_all!AH17)</f>
         <v/>
       </c>
       <c r="AJ20" s="38" t="str">
-        <f>IF(_tag_month_day!AI17="","",_tag_month_day!AI17)</f>
+        <f>IF(_tag_month_all!AI17="","",_tag_month_all!AI17)</f>
         <v/>
       </c>
       <c r="AK20" s="8" t="str">
@@ -5290,143 +5202,143 @@
         <v>17</v>
       </c>
       <c r="B21" s="16" t="str">
-        <f>IF(_tag_month_day!A18="","",_tag_month_day!A18)</f>
+        <f>IF(_tag_month_all!A18="","",_tag_month_all!A18)</f>
         <v/>
       </c>
       <c r="C21" s="16" t="str">
-        <f>IF(_tag_month_day!B18="","",_tag_month_day!B18)</f>
+        <f>IF(_tag_month_all!B18="","",_tag_month_all!B18)</f>
         <v/>
       </c>
       <c r="D21" s="17" t="str">
-        <f>IF(_tag_month_day!C18="","",_tag_month_day!C18)</f>
+        <f>IF(_tag_month_all!C18="","",_tag_month_all!C18)</f>
         <v/>
       </c>
       <c r="E21" s="18" t="str">
-        <f>IF(_tag_month_day!D18="","",_tag_month_day!D18)</f>
+        <f>IF(_tag_month_all!D18="","",_tag_month_all!D18)</f>
         <v/>
       </c>
       <c r="F21" s="19" t="str">
-        <f>IF(_tag_month_day!E18="","",_tag_month_day!E18)</f>
+        <f>IF(_tag_month_all!E18="","",_tag_month_all!E18)</f>
         <v/>
       </c>
       <c r="G21" s="20" t="str">
-        <f>IF(_tag_month_day!F18="","",_tag_month_day!F18)</f>
+        <f>IF(_tag_month_all!F18="","",_tag_month_all!F18)</f>
         <v/>
       </c>
       <c r="H21" s="21" t="str">
-        <f>IF(_tag_month_day!G18="","",_tag_month_day!G18)</f>
+        <f>IF(_tag_month_all!G18="","",_tag_month_all!G18)</f>
         <v/>
       </c>
       <c r="I21" s="18" t="str">
-        <f>IF(_tag_month_day!H18="","",_tag_month_day!H18)</f>
+        <f>IF(_tag_month_all!H18="","",_tag_month_all!H18)</f>
         <v/>
       </c>
       <c r="J21" s="18" t="str">
-        <f>IF(_tag_month_day!I18="","",_tag_month_day!I18)</f>
+        <f>IF(_tag_month_all!I18="","",_tag_month_all!I18)</f>
         <v/>
       </c>
       <c r="K21" s="27" t="str">
-        <f>IF(_tag_month_day!J18="","",_tag_month_day!J18)</f>
+        <f>IF(_tag_month_all!J18="","",_tag_month_all!J18)</f>
         <v/>
       </c>
       <c r="L21" s="18" t="str">
-        <f>IF(_tag_month_day!K18="","",_tag_month_day!K18)</f>
+        <f>IF(_tag_month_all!K18="","",_tag_month_all!K18)</f>
         <v/>
       </c>
       <c r="M21" s="28" t="str">
-        <f>IF(_tag_month_day!L18="","",_tag_month_day!L18)</f>
+        <f>IF(_tag_month_all!L18="","",_tag_month_all!L18)</f>
         <v/>
       </c>
       <c r="N21" s="29" t="str">
-        <f>IF(_tag_month_day!M18="","",_tag_month_day!M18)</f>
+        <f>IF(_tag_month_all!M18="","",_tag_month_all!M18)</f>
         <v/>
       </c>
       <c r="O21" s="30" t="str">
-        <f>IF(_tag_month_day!N18="","",_tag_month_day!N18)</f>
+        <f>IF(_tag_month_all!N18="","",_tag_month_all!N18)</f>
         <v/>
       </c>
       <c r="P21" s="30" t="str">
-        <f>IF(_tag_month_day!O18="","",_tag_month_day!O18)</f>
+        <f>IF(_tag_month_all!O18="","",_tag_month_all!O18)</f>
         <v/>
       </c>
       <c r="Q21" s="30" t="str">
-        <f>IF(_tag_month_day!P18="","",_tag_month_day!P18)</f>
+        <f>IF(_tag_month_all!P18="","",_tag_month_all!P18)</f>
         <v/>
       </c>
       <c r="R21" s="35" t="str">
-        <f>IF(_tag_month_day!Q18="","",_tag_month_day!Q18)</f>
+        <f>IF(_tag_month_all!Q18="","",_tag_month_all!Q18)</f>
         <v/>
       </c>
       <c r="S21" s="35" t="str">
-        <f>IF(_tag_month_day!R18="","",_tag_month_day!R18)</f>
+        <f>IF(_tag_month_all!R18="","",_tag_month_all!R18)</f>
         <v/>
       </c>
       <c r="T21" s="35" t="str">
-        <f>IF(_tag_month_day!S18="","",_tag_month_day!S18)</f>
+        <f>IF(_tag_month_all!S18="","",_tag_month_all!S18)</f>
         <v/>
       </c>
       <c r="U21" s="35" t="str">
-        <f>IF(_tag_month_day!T18="","",_tag_month_day!T18)</f>
+        <f>IF(_tag_month_all!T18="","",_tag_month_all!T18)</f>
         <v/>
       </c>
       <c r="V21" s="29" t="str">
-        <f>IF(_tag_month_day!U18="","",_tag_month_day!U18)</f>
+        <f>IF(_tag_month_all!U18="","",_tag_month_all!U18)</f>
         <v/>
       </c>
       <c r="W21" s="30" t="str">
-        <f>IF(_tag_month_day!V18="","",_tag_month_day!V18)</f>
+        <f>IF(_tag_month_all!V18="","",_tag_month_all!V18)</f>
         <v/>
       </c>
       <c r="X21" s="30" t="str">
-        <f>IF(_tag_month_day!W18="","",_tag_month_day!W18)</f>
+        <f>IF(_tag_month_all!W18="","",_tag_month_all!W18)</f>
         <v/>
       </c>
       <c r="Y21" s="30" t="str">
-        <f>IF(_tag_month_day!X18="","",_tag_month_day!X18)</f>
+        <f>IF(_tag_month_all!X18="","",_tag_month_all!X18)</f>
         <v/>
       </c>
       <c r="Z21" s="30" t="str">
-        <f>IF(_tag_month_day!Y18="","",_tag_month_day!Y18)</f>
+        <f>IF(_tag_month_all!Y18="","",_tag_month_all!Y18)</f>
         <v/>
       </c>
       <c r="AA21" s="30" t="str">
-        <f>IF(_tag_month_day!Z18="","",_tag_month_day!Z18)</f>
+        <f>IF(_tag_month_all!Z18="","",_tag_month_all!Z18)</f>
         <v/>
       </c>
       <c r="AB21" s="30" t="str">
-        <f>IF(_tag_month_day!AA18="","",_tag_month_day!AA18)</f>
+        <f>IF(_tag_month_all!AA18="","",_tag_month_all!AA18)</f>
         <v/>
       </c>
       <c r="AC21" s="30" t="str">
-        <f>IF(_tag_month_day!AB18="","",_tag_month_day!AB18)</f>
+        <f>IF(_tag_month_all!AB18="","",_tag_month_all!AB18)</f>
         <v/>
       </c>
       <c r="AD21" s="17" t="str">
-        <f>IF(_tag_month_day!AC18="","",_tag_month_day!AC18)</f>
+        <f>IF(_tag_month_all!AC18="","",_tag_month_all!AC18)</f>
         <v/>
       </c>
       <c r="AE21" s="17" t="str">
-        <f>IF(_tag_month_day!AD18="","",_tag_month_day!AD18)</f>
+        <f>IF(_tag_month_all!AD18="","",_tag_month_all!AD18)</f>
         <v/>
       </c>
       <c r="AF21" s="17" t="str">
-        <f>IF(_tag_month_day!AE18="","",_tag_month_day!AE18)</f>
+        <f>IF(_tag_month_all!AE18="","",_tag_month_all!AE18)</f>
         <v/>
       </c>
       <c r="AG21" s="17" t="str">
-        <f>IF(_tag_month_day!AF18="","",_tag_month_day!AF18)</f>
+        <f>IF(_tag_month_all!AF18="","",_tag_month_all!AF18)</f>
         <v/>
       </c>
       <c r="AH21" s="29" t="str">
-        <f>IF(_tag_month_day!AG18="","",_tag_month_day!AG18)</f>
+        <f>IF(_tag_month_all!AG18="","",_tag_month_all!AG18)</f>
         <v/>
       </c>
       <c r="AI21" s="29" t="str">
-        <f>IF(_tag_month_day!AH18="","",_tag_month_day!AH18)</f>
+        <f>IF(_tag_month_all!AH18="","",_tag_month_all!AH18)</f>
         <v/>
       </c>
       <c r="AJ21" s="38" t="str">
-        <f>IF(_tag_month_day!AI18="","",_tag_month_day!AI18)</f>
+        <f>IF(_tag_month_all!AI18="","",_tag_month_all!AI18)</f>
         <v/>
       </c>
       <c r="AK21" s="8" t="str">
@@ -5556,143 +5468,143 @@
         <v>18</v>
       </c>
       <c r="B22" s="16" t="str">
-        <f>IF(_tag_month_day!A19="","",_tag_month_day!A19)</f>
+        <f>IF(_tag_month_all!A19="","",_tag_month_all!A19)</f>
         <v/>
       </c>
       <c r="C22" s="16" t="str">
-        <f>IF(_tag_month_day!B19="","",_tag_month_day!B19)</f>
+        <f>IF(_tag_month_all!B19="","",_tag_month_all!B19)</f>
         <v/>
       </c>
       <c r="D22" s="17" t="str">
-        <f>IF(_tag_month_day!C19="","",_tag_month_day!C19)</f>
+        <f>IF(_tag_month_all!C19="","",_tag_month_all!C19)</f>
         <v/>
       </c>
       <c r="E22" s="18" t="str">
-        <f>IF(_tag_month_day!D19="","",_tag_month_day!D19)</f>
+        <f>IF(_tag_month_all!D19="","",_tag_month_all!D19)</f>
         <v/>
       </c>
       <c r="F22" s="19" t="str">
-        <f>IF(_tag_month_day!E19="","",_tag_month_day!E19)</f>
+        <f>IF(_tag_month_all!E19="","",_tag_month_all!E19)</f>
         <v/>
       </c>
       <c r="G22" s="20" t="str">
-        <f>IF(_tag_month_day!F19="","",_tag_month_day!F19)</f>
+        <f>IF(_tag_month_all!F19="","",_tag_month_all!F19)</f>
         <v/>
       </c>
       <c r="H22" s="21" t="str">
-        <f>IF(_tag_month_day!G19="","",_tag_month_day!G19)</f>
+        <f>IF(_tag_month_all!G19="","",_tag_month_all!G19)</f>
         <v/>
       </c>
       <c r="I22" s="18" t="str">
-        <f>IF(_tag_month_day!H19="","",_tag_month_day!H19)</f>
+        <f>IF(_tag_month_all!H19="","",_tag_month_all!H19)</f>
         <v/>
       </c>
       <c r="J22" s="18" t="str">
-        <f>IF(_tag_month_day!I19="","",_tag_month_day!I19)</f>
+        <f>IF(_tag_month_all!I19="","",_tag_month_all!I19)</f>
         <v/>
       </c>
       <c r="K22" s="27" t="str">
-        <f>IF(_tag_month_day!J19="","",_tag_month_day!J19)</f>
+        <f>IF(_tag_month_all!J19="","",_tag_month_all!J19)</f>
         <v/>
       </c>
       <c r="L22" s="18" t="str">
-        <f>IF(_tag_month_day!K19="","",_tag_month_day!K19)</f>
+        <f>IF(_tag_month_all!K19="","",_tag_month_all!K19)</f>
         <v/>
       </c>
       <c r="M22" s="28" t="str">
-        <f>IF(_tag_month_day!L19="","",_tag_month_day!L19)</f>
+        <f>IF(_tag_month_all!L19="","",_tag_month_all!L19)</f>
         <v/>
       </c>
       <c r="N22" s="29" t="str">
-        <f>IF(_tag_month_day!M19="","",_tag_month_day!M19)</f>
+        <f>IF(_tag_month_all!M19="","",_tag_month_all!M19)</f>
         <v/>
       </c>
       <c r="O22" s="30" t="str">
-        <f>IF(_tag_month_day!N19="","",_tag_month_day!N19)</f>
+        <f>IF(_tag_month_all!N19="","",_tag_month_all!N19)</f>
         <v/>
       </c>
       <c r="P22" s="30" t="str">
-        <f>IF(_tag_month_day!O19="","",_tag_month_day!O19)</f>
+        <f>IF(_tag_month_all!O19="","",_tag_month_all!O19)</f>
         <v/>
       </c>
       <c r="Q22" s="30" t="str">
-        <f>IF(_tag_month_day!P19="","",_tag_month_day!P19)</f>
+        <f>IF(_tag_month_all!P19="","",_tag_month_all!P19)</f>
         <v/>
       </c>
       <c r="R22" s="35" t="str">
-        <f>IF(_tag_month_day!Q19="","",_tag_month_day!Q19)</f>
+        <f>IF(_tag_month_all!Q19="","",_tag_month_all!Q19)</f>
         <v/>
       </c>
       <c r="S22" s="35" t="str">
-        <f>IF(_tag_month_day!R19="","",_tag_month_day!R19)</f>
+        <f>IF(_tag_month_all!R19="","",_tag_month_all!R19)</f>
         <v/>
       </c>
       <c r="T22" s="35" t="str">
-        <f>IF(_tag_month_day!S19="","",_tag_month_day!S19)</f>
+        <f>IF(_tag_month_all!S19="","",_tag_month_all!S19)</f>
         <v/>
       </c>
       <c r="U22" s="35" t="str">
-        <f>IF(_tag_month_day!T19="","",_tag_month_day!T19)</f>
+        <f>IF(_tag_month_all!T19="","",_tag_month_all!T19)</f>
         <v/>
       </c>
       <c r="V22" s="29" t="str">
-        <f>IF(_tag_month_day!U19="","",_tag_month_day!U19)</f>
+        <f>IF(_tag_month_all!U19="","",_tag_month_all!U19)</f>
         <v/>
       </c>
       <c r="W22" s="30" t="str">
-        <f>IF(_tag_month_day!V19="","",_tag_month_day!V19)</f>
+        <f>IF(_tag_month_all!V19="","",_tag_month_all!V19)</f>
         <v/>
       </c>
       <c r="X22" s="30" t="str">
-        <f>IF(_tag_month_day!W19="","",_tag_month_day!W19)</f>
+        <f>IF(_tag_month_all!W19="","",_tag_month_all!W19)</f>
         <v/>
       </c>
       <c r="Y22" s="30" t="str">
-        <f>IF(_tag_month_day!X19="","",_tag_month_day!X19)</f>
+        <f>IF(_tag_month_all!X19="","",_tag_month_all!X19)</f>
         <v/>
       </c>
       <c r="Z22" s="30" t="str">
-        <f>IF(_tag_month_day!Y19="","",_tag_month_day!Y19)</f>
+        <f>IF(_tag_month_all!Y19="","",_tag_month_all!Y19)</f>
         <v/>
       </c>
       <c r="AA22" s="30" t="str">
-        <f>IF(_tag_month_day!Z19="","",_tag_month_day!Z19)</f>
+        <f>IF(_tag_month_all!Z19="","",_tag_month_all!Z19)</f>
         <v/>
       </c>
       <c r="AB22" s="30" t="str">
-        <f>IF(_tag_month_day!AA19="","",_tag_month_day!AA19)</f>
+        <f>IF(_tag_month_all!AA19="","",_tag_month_all!AA19)</f>
         <v/>
       </c>
       <c r="AC22" s="30" t="str">
-        <f>IF(_tag_month_day!AB19="","",_tag_month_day!AB19)</f>
+        <f>IF(_tag_month_all!AB19="","",_tag_month_all!AB19)</f>
         <v/>
       </c>
       <c r="AD22" s="17" t="str">
-        <f>IF(_tag_month_day!AC19="","",_tag_month_day!AC19)</f>
+        <f>IF(_tag_month_all!AC19="","",_tag_month_all!AC19)</f>
         <v/>
       </c>
       <c r="AE22" s="17" t="str">
-        <f>IF(_tag_month_day!AD19="","",_tag_month_day!AD19)</f>
+        <f>IF(_tag_month_all!AD19="","",_tag_month_all!AD19)</f>
         <v/>
       </c>
       <c r="AF22" s="17" t="str">
-        <f>IF(_tag_month_day!AE19="","",_tag_month_day!AE19)</f>
+        <f>IF(_tag_month_all!AE19="","",_tag_month_all!AE19)</f>
         <v/>
       </c>
       <c r="AG22" s="17" t="str">
-        <f>IF(_tag_month_day!AF19="","",_tag_month_day!AF19)</f>
+        <f>IF(_tag_month_all!AF19="","",_tag_month_all!AF19)</f>
         <v/>
       </c>
       <c r="AH22" s="29" t="str">
-        <f>IF(_tag_month_day!AG19="","",_tag_month_day!AG19)</f>
+        <f>IF(_tag_month_all!AG19="","",_tag_month_all!AG19)</f>
         <v/>
       </c>
       <c r="AI22" s="29" t="str">
-        <f>IF(_tag_month_day!AH19="","",_tag_month_day!AH19)</f>
+        <f>IF(_tag_month_all!AH19="","",_tag_month_all!AH19)</f>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f>IF(_tag_month_day!AI19="","",_tag_month_day!AI19)</f>
+        <f>IF(_tag_month_all!AI19="","",_tag_month_all!AI19)</f>
         <v/>
       </c>
       <c r="AK22" s="8" t="str">
@@ -5822,143 +5734,143 @@
         <v>19</v>
       </c>
       <c r="B23" s="16" t="str">
-        <f>IF(_tag_month_day!A20="","",_tag_month_day!A20)</f>
+        <f>IF(_tag_month_all!A20="","",_tag_month_all!A20)</f>
         <v/>
       </c>
       <c r="C23" s="16" t="str">
-        <f>IF(_tag_month_day!B20="","",_tag_month_day!B20)</f>
+        <f>IF(_tag_month_all!B20="","",_tag_month_all!B20)</f>
         <v/>
       </c>
       <c r="D23" s="17" t="str">
-        <f>IF(_tag_month_day!C20="","",_tag_month_day!C20)</f>
+        <f>IF(_tag_month_all!C20="","",_tag_month_all!C20)</f>
         <v/>
       </c>
       <c r="E23" s="18" t="str">
-        <f>IF(_tag_month_day!D20="","",_tag_month_day!D20)</f>
+        <f>IF(_tag_month_all!D20="","",_tag_month_all!D20)</f>
         <v/>
       </c>
       <c r="F23" s="19" t="str">
-        <f>IF(_tag_month_day!E20="","",_tag_month_day!E20)</f>
+        <f>IF(_tag_month_all!E20="","",_tag_month_all!E20)</f>
         <v/>
       </c>
       <c r="G23" s="20" t="str">
-        <f>IF(_tag_month_day!F20="","",_tag_month_day!F20)</f>
+        <f>IF(_tag_month_all!F20="","",_tag_month_all!F20)</f>
         <v/>
       </c>
       <c r="H23" s="21" t="str">
-        <f>IF(_tag_month_day!G20="","",_tag_month_day!G20)</f>
+        <f>IF(_tag_month_all!G20="","",_tag_month_all!G20)</f>
         <v/>
       </c>
       <c r="I23" s="18" t="str">
-        <f>IF(_tag_month_day!H20="","",_tag_month_day!H20)</f>
+        <f>IF(_tag_month_all!H20="","",_tag_month_all!H20)</f>
         <v/>
       </c>
       <c r="J23" s="18" t="str">
-        <f>IF(_tag_month_day!I20="","",_tag_month_day!I20)</f>
+        <f>IF(_tag_month_all!I20="","",_tag_month_all!I20)</f>
         <v/>
       </c>
       <c r="K23" s="27" t="str">
-        <f>IF(_tag_month_day!J20="","",_tag_month_day!J20)</f>
+        <f>IF(_tag_month_all!J20="","",_tag_month_all!J20)</f>
         <v/>
       </c>
       <c r="L23" s="18" t="str">
-        <f>IF(_tag_month_day!K20="","",_tag_month_day!K20)</f>
+        <f>IF(_tag_month_all!K20="","",_tag_month_all!K20)</f>
         <v/>
       </c>
       <c r="M23" s="28" t="str">
-        <f>IF(_tag_month_day!L20="","",_tag_month_day!L20)</f>
+        <f>IF(_tag_month_all!L20="","",_tag_month_all!L20)</f>
         <v/>
       </c>
       <c r="N23" s="29" t="str">
-        <f>IF(_tag_month_day!M20="","",_tag_month_day!M20)</f>
+        <f>IF(_tag_month_all!M20="","",_tag_month_all!M20)</f>
         <v/>
       </c>
       <c r="O23" s="30" t="str">
-        <f>IF(_tag_month_day!N20="","",_tag_month_day!N20)</f>
+        <f>IF(_tag_month_all!N20="","",_tag_month_all!N20)</f>
         <v/>
       </c>
       <c r="P23" s="30" t="str">
-        <f>IF(_tag_month_day!O20="","",_tag_month_day!O20)</f>
+        <f>IF(_tag_month_all!O20="","",_tag_month_all!O20)</f>
         <v/>
       </c>
       <c r="Q23" s="30" t="str">
-        <f>IF(_tag_month_day!P20="","",_tag_month_day!P20)</f>
+        <f>IF(_tag_month_all!P20="","",_tag_month_all!P20)</f>
         <v/>
       </c>
       <c r="R23" s="35" t="str">
-        <f>IF(_tag_month_day!Q20="","",_tag_month_day!Q20)</f>
+        <f>IF(_tag_month_all!Q20="","",_tag_month_all!Q20)</f>
         <v/>
       </c>
       <c r="S23" s="35" t="str">
-        <f>IF(_tag_month_day!R20="","",_tag_month_day!R20)</f>
+        <f>IF(_tag_month_all!R20="","",_tag_month_all!R20)</f>
         <v/>
       </c>
       <c r="T23" s="35" t="str">
-        <f>IF(_tag_month_day!S20="","",_tag_month_day!S20)</f>
+        <f>IF(_tag_month_all!S20="","",_tag_month_all!S20)</f>
         <v/>
       </c>
       <c r="U23" s="35" t="str">
-        <f>IF(_tag_month_day!T20="","",_tag_month_day!T20)</f>
+        <f>IF(_tag_month_all!T20="","",_tag_month_all!T20)</f>
         <v/>
       </c>
       <c r="V23" s="29" t="str">
-        <f>IF(_tag_month_day!U20="","",_tag_month_day!U20)</f>
+        <f>IF(_tag_month_all!U20="","",_tag_month_all!U20)</f>
         <v/>
       </c>
       <c r="W23" s="30" t="str">
-        <f>IF(_tag_month_day!V20="","",_tag_month_day!V20)</f>
+        <f>IF(_tag_month_all!V20="","",_tag_month_all!V20)</f>
         <v/>
       </c>
       <c r="X23" s="30" t="str">
-        <f>IF(_tag_month_day!W20="","",_tag_month_day!W20)</f>
+        <f>IF(_tag_month_all!W20="","",_tag_month_all!W20)</f>
         <v/>
       </c>
       <c r="Y23" s="30" t="str">
-        <f>IF(_tag_month_day!X20="","",_tag_month_day!X20)</f>
+        <f>IF(_tag_month_all!X20="","",_tag_month_all!X20)</f>
         <v/>
       </c>
       <c r="Z23" s="30" t="str">
-        <f>IF(_tag_month_day!Y20="","",_tag_month_day!Y20)</f>
+        <f>IF(_tag_month_all!Y20="","",_tag_month_all!Y20)</f>
         <v/>
       </c>
       <c r="AA23" s="30" t="str">
-        <f>IF(_tag_month_day!Z20="","",_tag_month_day!Z20)</f>
+        <f>IF(_tag_month_all!Z20="","",_tag_month_all!Z20)</f>
         <v/>
       </c>
       <c r="AB23" s="30" t="str">
-        <f>IF(_tag_month_day!AA20="","",_tag_month_day!AA20)</f>
+        <f>IF(_tag_month_all!AA20="","",_tag_month_all!AA20)</f>
         <v/>
       </c>
       <c r="AC23" s="30" t="str">
-        <f>IF(_tag_month_day!AB20="","",_tag_month_day!AB20)</f>
+        <f>IF(_tag_month_all!AB20="","",_tag_month_all!AB20)</f>
         <v/>
       </c>
       <c r="AD23" s="17" t="str">
-        <f>IF(_tag_month_day!AC20="","",_tag_month_day!AC20)</f>
+        <f>IF(_tag_month_all!AC20="","",_tag_month_all!AC20)</f>
         <v/>
       </c>
       <c r="AE23" s="17" t="str">
-        <f>IF(_tag_month_day!AD20="","",_tag_month_day!AD20)</f>
+        <f>IF(_tag_month_all!AD20="","",_tag_month_all!AD20)</f>
         <v/>
       </c>
       <c r="AF23" s="17" t="str">
-        <f>IF(_tag_month_day!AE20="","",_tag_month_day!AE20)</f>
+        <f>IF(_tag_month_all!AE20="","",_tag_month_all!AE20)</f>
         <v/>
       </c>
       <c r="AG23" s="17" t="str">
-        <f>IF(_tag_month_day!AF20="","",_tag_month_day!AF20)</f>
+        <f>IF(_tag_month_all!AF20="","",_tag_month_all!AF20)</f>
         <v/>
       </c>
       <c r="AH23" s="29" t="str">
-        <f>IF(_tag_month_day!AG20="","",_tag_month_day!AG20)</f>
+        <f>IF(_tag_month_all!AG20="","",_tag_month_all!AG20)</f>
         <v/>
       </c>
       <c r="AI23" s="29" t="str">
-        <f>IF(_tag_month_day!AH20="","",_tag_month_day!AH20)</f>
+        <f>IF(_tag_month_all!AH20="","",_tag_month_all!AH20)</f>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f>IF(_tag_month_day!AI20="","",_tag_month_day!AI20)</f>
+        <f>IF(_tag_month_all!AI20="","",_tag_month_all!AI20)</f>
         <v/>
       </c>
       <c r="AK23" s="8" t="str">
@@ -6088,143 +6000,143 @@
         <v>20</v>
       </c>
       <c r="B24" s="16" t="str">
-        <f>IF(_tag_month_day!A21="","",_tag_month_day!A21)</f>
+        <f>IF(_tag_month_all!A21="","",_tag_month_all!A21)</f>
         <v/>
       </c>
       <c r="C24" s="16" t="str">
-        <f>IF(_tag_month_day!B21="","",_tag_month_day!B21)</f>
+        <f>IF(_tag_month_all!B21="","",_tag_month_all!B21)</f>
         <v/>
       </c>
       <c r="D24" s="17" t="str">
-        <f>IF(_tag_month_day!C21="","",_tag_month_day!C21)</f>
+        <f>IF(_tag_month_all!C21="","",_tag_month_all!C21)</f>
         <v/>
       </c>
       <c r="E24" s="18" t="str">
-        <f>IF(_tag_month_day!D21="","",_tag_month_day!D21)</f>
+        <f>IF(_tag_month_all!D21="","",_tag_month_all!D21)</f>
         <v/>
       </c>
       <c r="F24" s="19" t="str">
-        <f>IF(_tag_month_day!E21="","",_tag_month_day!E21)</f>
+        <f>IF(_tag_month_all!E21="","",_tag_month_all!E21)</f>
         <v/>
       </c>
       <c r="G24" s="20" t="str">
-        <f>IF(_tag_month_day!F21="","",_tag_month_day!F21)</f>
+        <f>IF(_tag_month_all!F21="","",_tag_month_all!F21)</f>
         <v/>
       </c>
       <c r="H24" s="21" t="str">
-        <f>IF(_tag_month_day!G21="","",_tag_month_day!G21)</f>
+        <f>IF(_tag_month_all!G21="","",_tag_month_all!G21)</f>
         <v/>
       </c>
       <c r="I24" s="18" t="str">
-        <f>IF(_tag_month_day!H21="","",_tag_month_day!H21)</f>
+        <f>IF(_tag_month_all!H21="","",_tag_month_all!H21)</f>
         <v/>
       </c>
       <c r="J24" s="18" t="str">
-        <f>IF(_tag_month_day!I21="","",_tag_month_day!I21)</f>
+        <f>IF(_tag_month_all!I21="","",_tag_month_all!I21)</f>
         <v/>
       </c>
       <c r="K24" s="27" t="str">
-        <f>IF(_tag_month_day!J21="","",_tag_month_day!J21)</f>
+        <f>IF(_tag_month_all!J21="","",_tag_month_all!J21)</f>
         <v/>
       </c>
       <c r="L24" s="18" t="str">
-        <f>IF(_tag_month_day!K21="","",_tag_month_day!K21)</f>
+        <f>IF(_tag_month_all!K21="","",_tag_month_all!K21)</f>
         <v/>
       </c>
       <c r="M24" s="28" t="str">
-        <f>IF(_tag_month_day!L21="","",_tag_month_day!L21)</f>
+        <f>IF(_tag_month_all!L21="","",_tag_month_all!L21)</f>
         <v/>
       </c>
       <c r="N24" s="29" t="str">
-        <f>IF(_tag_month_day!M21="","",_tag_month_day!M21)</f>
+        <f>IF(_tag_month_all!M21="","",_tag_month_all!M21)</f>
         <v/>
       </c>
       <c r="O24" s="30" t="str">
-        <f>IF(_tag_month_day!N21="","",_tag_month_day!N21)</f>
+        <f>IF(_tag_month_all!N21="","",_tag_month_all!N21)</f>
         <v/>
       </c>
       <c r="P24" s="30" t="str">
-        <f>IF(_tag_month_day!O21="","",_tag_month_day!O21)</f>
+        <f>IF(_tag_month_all!O21="","",_tag_month_all!O21)</f>
         <v/>
       </c>
       <c r="Q24" s="30" t="str">
-        <f>IF(_tag_month_day!P21="","",_tag_month_day!P21)</f>
+        <f>IF(_tag_month_all!P21="","",_tag_month_all!P21)</f>
         <v/>
       </c>
       <c r="R24" s="35" t="str">
-        <f>IF(_tag_month_day!Q21="","",_tag_month_day!Q21)</f>
+        <f>IF(_tag_month_all!Q21="","",_tag_month_all!Q21)</f>
         <v/>
       </c>
       <c r="S24" s="35" t="str">
-        <f>IF(_tag_month_day!R21="","",_tag_month_day!R21)</f>
+        <f>IF(_tag_month_all!R21="","",_tag_month_all!R21)</f>
         <v/>
       </c>
       <c r="T24" s="35" t="str">
-        <f>IF(_tag_month_day!S21="","",_tag_month_day!S21)</f>
+        <f>IF(_tag_month_all!S21="","",_tag_month_all!S21)</f>
         <v/>
       </c>
       <c r="U24" s="35" t="str">
-        <f>IF(_tag_month_day!T21="","",_tag_month_day!T21)</f>
+        <f>IF(_tag_month_all!T21="","",_tag_month_all!T21)</f>
         <v/>
       </c>
       <c r="V24" s="29" t="str">
-        <f>IF(_tag_month_day!U21="","",_tag_month_day!U21)</f>
+        <f>IF(_tag_month_all!U21="","",_tag_month_all!U21)</f>
         <v/>
       </c>
       <c r="W24" s="30" t="str">
-        <f>IF(_tag_month_day!V21="","",_tag_month_day!V21)</f>
+        <f>IF(_tag_month_all!V21="","",_tag_month_all!V21)</f>
         <v/>
       </c>
       <c r="X24" s="30" t="str">
-        <f>IF(_tag_month_day!W21="","",_tag_month_day!W21)</f>
+        <f>IF(_tag_month_all!W21="","",_tag_month_all!W21)</f>
         <v/>
       </c>
       <c r="Y24" s="30" t="str">
-        <f>IF(_tag_month_day!X21="","",_tag_month_day!X21)</f>
+        <f>IF(_tag_month_all!X21="","",_tag_month_all!X21)</f>
         <v/>
       </c>
       <c r="Z24" s="30" t="str">
-        <f>IF(_tag_month_day!Y21="","",_tag_month_day!Y21)</f>
+        <f>IF(_tag_month_all!Y21="","",_tag_month_all!Y21)</f>
         <v/>
       </c>
       <c r="AA24" s="30" t="str">
-        <f>IF(_tag_month_day!Z21="","",_tag_month_day!Z21)</f>
+        <f>IF(_tag_month_all!Z21="","",_tag_month_all!Z21)</f>
         <v/>
       </c>
       <c r="AB24" s="30" t="str">
-        <f>IF(_tag_month_day!AA21="","",_tag_month_day!AA21)</f>
+        <f>IF(_tag_month_all!AA21="","",_tag_month_all!AA21)</f>
         <v/>
       </c>
       <c r="AC24" s="30" t="str">
-        <f>IF(_tag_month_day!AB21="","",_tag_month_day!AB21)</f>
+        <f>IF(_tag_month_all!AB21="","",_tag_month_all!AB21)</f>
         <v/>
       </c>
       <c r="AD24" s="17" t="str">
-        <f>IF(_tag_month_day!AC21="","",_tag_month_day!AC21)</f>
+        <f>IF(_tag_month_all!AC21="","",_tag_month_all!AC21)</f>
         <v/>
       </c>
       <c r="AE24" s="17" t="str">
-        <f>IF(_tag_month_day!AD21="","",_tag_month_day!AD21)</f>
+        <f>IF(_tag_month_all!AD21="","",_tag_month_all!AD21)</f>
         <v/>
       </c>
       <c r="AF24" s="17" t="str">
-        <f>IF(_tag_month_day!AE21="","",_tag_month_day!AE21)</f>
+        <f>IF(_tag_month_all!AE21="","",_tag_month_all!AE21)</f>
         <v/>
       </c>
       <c r="AG24" s="17" t="str">
-        <f>IF(_tag_month_day!AF21="","",_tag_month_day!AF21)</f>
+        <f>IF(_tag_month_all!AF21="","",_tag_month_all!AF21)</f>
         <v/>
       </c>
       <c r="AH24" s="29" t="str">
-        <f>IF(_tag_month_day!AG21="","",_tag_month_day!AG21)</f>
+        <f>IF(_tag_month_all!AG21="","",_tag_month_all!AG21)</f>
         <v/>
       </c>
       <c r="AI24" s="29" t="str">
-        <f>IF(_tag_month_day!AH21="","",_tag_month_day!AH21)</f>
+        <f>IF(_tag_month_all!AH21="","",_tag_month_all!AH21)</f>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f>IF(_tag_month_day!AI21="","",_tag_month_day!AI21)</f>
+        <f>IF(_tag_month_all!AI21="","",_tag_month_all!AI21)</f>
         <v/>
       </c>
       <c r="AK24" s="8" t="str">
@@ -6354,143 +6266,143 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="str">
-        <f>IF(_tag_month_day!A22="","",_tag_month_day!A22)</f>
+        <f>IF(_tag_month_all!A22="","",_tag_month_all!A22)</f>
         <v/>
       </c>
       <c r="C25" s="16" t="str">
-        <f>IF(_tag_month_day!B22="","",_tag_month_day!B22)</f>
+        <f>IF(_tag_month_all!B22="","",_tag_month_all!B22)</f>
         <v/>
       </c>
       <c r="D25" s="17" t="str">
-        <f>IF(_tag_month_day!C22="","",_tag_month_day!C22)</f>
+        <f>IF(_tag_month_all!C22="","",_tag_month_all!C22)</f>
         <v/>
       </c>
       <c r="E25" s="18" t="str">
-        <f>IF(_tag_month_day!D22="","",_tag_month_day!D22)</f>
+        <f>IF(_tag_month_all!D22="","",_tag_month_all!D22)</f>
         <v/>
       </c>
       <c r="F25" s="19" t="str">
-        <f>IF(_tag_month_day!E22="","",_tag_month_day!E22)</f>
+        <f>IF(_tag_month_all!E22="","",_tag_month_all!E22)</f>
         <v/>
       </c>
       <c r="G25" s="20" t="str">
-        <f>IF(_tag_month_day!F22="","",_tag_month_day!F22)</f>
+        <f>IF(_tag_month_all!F22="","",_tag_month_all!F22)</f>
         <v/>
       </c>
       <c r="H25" s="21" t="str">
-        <f>IF(_tag_month_day!G22="","",_tag_month_day!G22)</f>
+        <f>IF(_tag_month_all!G22="","",_tag_month_all!G22)</f>
         <v/>
       </c>
       <c r="I25" s="18" t="str">
-        <f>IF(_tag_month_day!H22="","",_tag_month_day!H22)</f>
+        <f>IF(_tag_month_all!H22="","",_tag_month_all!H22)</f>
         <v/>
       </c>
       <c r="J25" s="18" t="str">
-        <f>IF(_tag_month_day!I22="","",_tag_month_day!I22)</f>
+        <f>IF(_tag_month_all!I22="","",_tag_month_all!I22)</f>
         <v/>
       </c>
       <c r="K25" s="27" t="str">
-        <f>IF(_tag_month_day!J22="","",_tag_month_day!J22)</f>
+        <f>IF(_tag_month_all!J22="","",_tag_month_all!J22)</f>
         <v/>
       </c>
       <c r="L25" s="18" t="str">
-        <f>IF(_tag_month_day!K22="","",_tag_month_day!K22)</f>
+        <f>IF(_tag_month_all!K22="","",_tag_month_all!K22)</f>
         <v/>
       </c>
       <c r="M25" s="28" t="str">
-        <f>IF(_tag_month_day!L22="","",_tag_month_day!L22)</f>
+        <f>IF(_tag_month_all!L22="","",_tag_month_all!L22)</f>
         <v/>
       </c>
       <c r="N25" s="29" t="str">
-        <f>IF(_tag_month_day!M22="","",_tag_month_day!M22)</f>
+        <f>IF(_tag_month_all!M22="","",_tag_month_all!M22)</f>
         <v/>
       </c>
       <c r="O25" s="30" t="str">
-        <f>IF(_tag_month_day!N22="","",_tag_month_day!N22)</f>
+        <f>IF(_tag_month_all!N22="","",_tag_month_all!N22)</f>
         <v/>
       </c>
       <c r="P25" s="30" t="str">
-        <f>IF(_tag_month_day!O22="","",_tag_month_day!O22)</f>
+        <f>IF(_tag_month_all!O22="","",_tag_month_all!O22)</f>
         <v/>
       </c>
       <c r="Q25" s="30" t="str">
-        <f>IF(_tag_month_day!P22="","",_tag_month_day!P22)</f>
+        <f>IF(_tag_month_all!P22="","",_tag_month_all!P22)</f>
         <v/>
       </c>
       <c r="R25" s="35" t="str">
-        <f>IF(_tag_month_day!Q22="","",_tag_month_day!Q22)</f>
+        <f>IF(_tag_month_all!Q22="","",_tag_month_all!Q22)</f>
         <v/>
       </c>
       <c r="S25" s="35" t="str">
-        <f>IF(_tag_month_day!R22="","",_tag_month_day!R22)</f>
+        <f>IF(_tag_month_all!R22="","",_tag_month_all!R22)</f>
         <v/>
       </c>
       <c r="T25" s="35" t="str">
-        <f>IF(_tag_month_day!S22="","",_tag_month_day!S22)</f>
+        <f>IF(_tag_month_all!S22="","",_tag_month_all!S22)</f>
         <v/>
       </c>
       <c r="U25" s="35" t="str">
-        <f>IF(_tag_month_day!T22="","",_tag_month_day!T22)</f>
+        <f>IF(_tag_month_all!T22="","",_tag_month_all!T22)</f>
         <v/>
       </c>
       <c r="V25" s="29" t="str">
-        <f>IF(_tag_month_day!U22="","",_tag_month_day!U22)</f>
+        <f>IF(_tag_month_all!U22="","",_tag_month_all!U22)</f>
         <v/>
       </c>
       <c r="W25" s="30" t="str">
-        <f>IF(_tag_month_day!V22="","",_tag_month_day!V22)</f>
+        <f>IF(_tag_month_all!V22="","",_tag_month_all!V22)</f>
         <v/>
       </c>
       <c r="X25" s="30" t="str">
-        <f>IF(_tag_month_day!W22="","",_tag_month_day!W22)</f>
+        <f>IF(_tag_month_all!W22="","",_tag_month_all!W22)</f>
         <v/>
       </c>
       <c r="Y25" s="30" t="str">
-        <f>IF(_tag_month_day!X22="","",_tag_month_day!X22)</f>
+        <f>IF(_tag_month_all!X22="","",_tag_month_all!X22)</f>
         <v/>
       </c>
       <c r="Z25" s="30" t="str">
-        <f>IF(_tag_month_day!Y22="","",_tag_month_day!Y22)</f>
+        <f>IF(_tag_month_all!Y22="","",_tag_month_all!Y22)</f>
         <v/>
       </c>
       <c r="AA25" s="30" t="str">
-        <f>IF(_tag_month_day!Z22="","",_tag_month_day!Z22)</f>
+        <f>IF(_tag_month_all!Z22="","",_tag_month_all!Z22)</f>
         <v/>
       </c>
       <c r="AB25" s="30" t="str">
-        <f>IF(_tag_month_day!AA22="","",_tag_month_day!AA22)</f>
+        <f>IF(_tag_month_all!AA22="","",_tag_month_all!AA22)</f>
         <v/>
       </c>
       <c r="AC25" s="30" t="str">
-        <f>IF(_tag_month_day!AB22="","",_tag_month_day!AB22)</f>
+        <f>IF(_tag_month_all!AB22="","",_tag_month_all!AB22)</f>
         <v/>
       </c>
       <c r="AD25" s="17" t="str">
-        <f>IF(_tag_month_day!AC22="","",_tag_month_day!AC22)</f>
+        <f>IF(_tag_month_all!AC22="","",_tag_month_all!AC22)</f>
         <v/>
       </c>
       <c r="AE25" s="17" t="str">
-        <f>IF(_tag_month_day!AD22="","",_tag_month_day!AD22)</f>
+        <f>IF(_tag_month_all!AD22="","",_tag_month_all!AD22)</f>
         <v/>
       </c>
       <c r="AF25" s="17" t="str">
-        <f>IF(_tag_month_day!AE22="","",_tag_month_day!AE22)</f>
+        <f>IF(_tag_month_all!AE22="","",_tag_month_all!AE22)</f>
         <v/>
       </c>
       <c r="AG25" s="17" t="str">
-        <f>IF(_tag_month_day!AF22="","",_tag_month_day!AF22)</f>
+        <f>IF(_tag_month_all!AF22="","",_tag_month_all!AF22)</f>
         <v/>
       </c>
       <c r="AH25" s="29" t="str">
-        <f>IF(_tag_month_day!AG22="","",_tag_month_day!AG22)</f>
+        <f>IF(_tag_month_all!AG22="","",_tag_month_all!AG22)</f>
         <v/>
       </c>
       <c r="AI25" s="29" t="str">
-        <f>IF(_tag_month_day!AH22="","",_tag_month_day!AH22)</f>
+        <f>IF(_tag_month_all!AH22="","",_tag_month_all!AH22)</f>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f>IF(_tag_month_day!AI22="","",_tag_month_day!AI22)</f>
+        <f>IF(_tag_month_all!AI22="","",_tag_month_all!AI22)</f>
         <v/>
       </c>
       <c r="AK25" s="8" t="str">
@@ -6620,143 +6532,143 @@
         <v>22</v>
       </c>
       <c r="B26" s="16" t="str">
-        <f>IF(_tag_month_day!A23="","",_tag_month_day!A23)</f>
+        <f>IF(_tag_month_all!A23="","",_tag_month_all!A23)</f>
         <v/>
       </c>
       <c r="C26" s="16" t="str">
-        <f>IF(_tag_month_day!B23="","",_tag_month_day!B23)</f>
+        <f>IF(_tag_month_all!B23="","",_tag_month_all!B23)</f>
         <v/>
       </c>
       <c r="D26" s="17" t="str">
-        <f>IF(_tag_month_day!C23="","",_tag_month_day!C23)</f>
+        <f>IF(_tag_month_all!C23="","",_tag_month_all!C23)</f>
         <v/>
       </c>
       <c r="E26" s="18" t="str">
-        <f>IF(_tag_month_day!D23="","",_tag_month_day!D23)</f>
+        <f>IF(_tag_month_all!D23="","",_tag_month_all!D23)</f>
         <v/>
       </c>
       <c r="F26" s="19" t="str">
-        <f>IF(_tag_month_day!E23="","",_tag_month_day!E23)</f>
+        <f>IF(_tag_month_all!E23="","",_tag_month_all!E23)</f>
         <v/>
       </c>
       <c r="G26" s="20" t="str">
-        <f>IF(_tag_month_day!F23="","",_tag_month_day!F23)</f>
+        <f>IF(_tag_month_all!F23="","",_tag_month_all!F23)</f>
         <v/>
       </c>
       <c r="H26" s="21" t="str">
-        <f>IF(_tag_month_day!G23="","",_tag_month_day!G23)</f>
+        <f>IF(_tag_month_all!G23="","",_tag_month_all!G23)</f>
         <v/>
       </c>
       <c r="I26" s="18" t="str">
-        <f>IF(_tag_month_day!H23="","",_tag_month_day!H23)</f>
+        <f>IF(_tag_month_all!H23="","",_tag_month_all!H23)</f>
         <v/>
       </c>
       <c r="J26" s="18" t="str">
-        <f>IF(_tag_month_day!I23="","",_tag_month_day!I23)</f>
+        <f>IF(_tag_month_all!I23="","",_tag_month_all!I23)</f>
         <v/>
       </c>
       <c r="K26" s="27" t="str">
-        <f>IF(_tag_month_day!J23="","",_tag_month_day!J23)</f>
+        <f>IF(_tag_month_all!J23="","",_tag_month_all!J23)</f>
         <v/>
       </c>
       <c r="L26" s="18" t="str">
-        <f>IF(_tag_month_day!K23="","",_tag_month_day!K23)</f>
+        <f>IF(_tag_month_all!K23="","",_tag_month_all!K23)</f>
         <v/>
       </c>
       <c r="M26" s="28" t="str">
-        <f>IF(_tag_month_day!L23="","",_tag_month_day!L23)</f>
+        <f>IF(_tag_month_all!L23="","",_tag_month_all!L23)</f>
         <v/>
       </c>
       <c r="N26" s="29" t="str">
-        <f>IF(_tag_month_day!M23="","",_tag_month_day!M23)</f>
+        <f>IF(_tag_month_all!M23="","",_tag_month_all!M23)</f>
         <v/>
       </c>
       <c r="O26" s="30" t="str">
-        <f>IF(_tag_month_day!N23="","",_tag_month_day!N23)</f>
+        <f>IF(_tag_month_all!N23="","",_tag_month_all!N23)</f>
         <v/>
       </c>
       <c r="P26" s="30" t="str">
-        <f>IF(_tag_month_day!O23="","",_tag_month_day!O23)</f>
+        <f>IF(_tag_month_all!O23="","",_tag_month_all!O23)</f>
         <v/>
       </c>
       <c r="Q26" s="30" t="str">
-        <f>IF(_tag_month_day!P23="","",_tag_month_day!P23)</f>
+        <f>IF(_tag_month_all!P23="","",_tag_month_all!P23)</f>
         <v/>
       </c>
       <c r="R26" s="35" t="str">
-        <f>IF(_tag_month_day!Q23="","",_tag_month_day!Q23)</f>
+        <f>IF(_tag_month_all!Q23="","",_tag_month_all!Q23)</f>
         <v/>
       </c>
       <c r="S26" s="35" t="str">
-        <f>IF(_tag_month_day!R23="","",_tag_month_day!R23)</f>
+        <f>IF(_tag_month_all!R23="","",_tag_month_all!R23)</f>
         <v/>
       </c>
       <c r="T26" s="35" t="str">
-        <f>IF(_tag_month_day!S23="","",_tag_month_day!S23)</f>
+        <f>IF(_tag_month_all!S23="","",_tag_month_all!S23)</f>
         <v/>
       </c>
       <c r="U26" s="35" t="str">
-        <f>IF(_tag_month_day!T23="","",_tag_month_day!T23)</f>
+        <f>IF(_tag_month_all!T23="","",_tag_month_all!T23)</f>
         <v/>
       </c>
       <c r="V26" s="29" t="str">
-        <f>IF(_tag_month_day!U23="","",_tag_month_day!U23)</f>
+        <f>IF(_tag_month_all!U23="","",_tag_month_all!U23)</f>
         <v/>
       </c>
       <c r="W26" s="30" t="str">
-        <f>IF(_tag_month_day!V23="","",_tag_month_day!V23)</f>
+        <f>IF(_tag_month_all!V23="","",_tag_month_all!V23)</f>
         <v/>
       </c>
       <c r="X26" s="30" t="str">
-        <f>IF(_tag_month_day!W23="","",_tag_month_day!W23)</f>
+        <f>IF(_tag_month_all!W23="","",_tag_month_all!W23)</f>
         <v/>
       </c>
       <c r="Y26" s="30" t="str">
-        <f>IF(_tag_month_day!X23="","",_tag_month_day!X23)</f>
+        <f>IF(_tag_month_all!X23="","",_tag_month_all!X23)</f>
         <v/>
       </c>
       <c r="Z26" s="30" t="str">
-        <f>IF(_tag_month_day!Y23="","",_tag_month_day!Y23)</f>
+        <f>IF(_tag_month_all!Y23="","",_tag_month_all!Y23)</f>
         <v/>
       </c>
       <c r="AA26" s="30" t="str">
-        <f>IF(_tag_month_day!Z23="","",_tag_month_day!Z23)</f>
+        <f>IF(_tag_month_all!Z23="","",_tag_month_all!Z23)</f>
         <v/>
       </c>
       <c r="AB26" s="30" t="str">
-        <f>IF(_tag_month_day!AA23="","",_tag_month_day!AA23)</f>
+        <f>IF(_tag_month_all!AA23="","",_tag_month_all!AA23)</f>
         <v/>
       </c>
       <c r="AC26" s="30" t="str">
-        <f>IF(_tag_month_day!AB23="","",_tag_month_day!AB23)</f>
+        <f>IF(_tag_month_all!AB23="","",_tag_month_all!AB23)</f>
         <v/>
       </c>
       <c r="AD26" s="17" t="str">
-        <f>IF(_tag_month_day!AC23="","",_tag_month_day!AC23)</f>
+        <f>IF(_tag_month_all!AC23="","",_tag_month_all!AC23)</f>
         <v/>
       </c>
       <c r="AE26" s="17" t="str">
-        <f>IF(_tag_month_day!AD23="","",_tag_month_day!AD23)</f>
+        <f>IF(_tag_month_all!AD23="","",_tag_month_all!AD23)</f>
         <v/>
       </c>
       <c r="AF26" s="17" t="str">
-        <f>IF(_tag_month_day!AE23="","",_tag_month_day!AE23)</f>
+        <f>IF(_tag_month_all!AE23="","",_tag_month_all!AE23)</f>
         <v/>
       </c>
       <c r="AG26" s="17" t="str">
-        <f>IF(_tag_month_day!AF23="","",_tag_month_day!AF23)</f>
+        <f>IF(_tag_month_all!AF23="","",_tag_month_all!AF23)</f>
         <v/>
       </c>
       <c r="AH26" s="29" t="str">
-        <f>IF(_tag_month_day!AG23="","",_tag_month_day!AG23)</f>
+        <f>IF(_tag_month_all!AG23="","",_tag_month_all!AG23)</f>
         <v/>
       </c>
       <c r="AI26" s="29" t="str">
-        <f>IF(_tag_month_day!AH23="","",_tag_month_day!AH23)</f>
+        <f>IF(_tag_month_all!AH23="","",_tag_month_all!AH23)</f>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f>IF(_tag_month_day!AI23="","",_tag_month_day!AI23)</f>
+        <f>IF(_tag_month_all!AI23="","",_tag_month_all!AI23)</f>
         <v/>
       </c>
       <c r="AK26" s="8" t="str">
@@ -6886,143 +6798,143 @@
         <v>23</v>
       </c>
       <c r="B27" s="16" t="str">
-        <f>IF(_tag_month_day!A24="","",_tag_month_day!A24)</f>
+        <f>IF(_tag_month_all!A24="","",_tag_month_all!A24)</f>
         <v/>
       </c>
       <c r="C27" s="16" t="str">
-        <f>IF(_tag_month_day!B24="","",_tag_month_day!B24)</f>
+        <f>IF(_tag_month_all!B24="","",_tag_month_all!B24)</f>
         <v/>
       </c>
       <c r="D27" s="17" t="str">
-        <f>IF(_tag_month_day!C24="","",_tag_month_day!C24)</f>
+        <f>IF(_tag_month_all!C24="","",_tag_month_all!C24)</f>
         <v/>
       </c>
       <c r="E27" s="18" t="str">
-        <f>IF(_tag_month_day!D24="","",_tag_month_day!D24)</f>
+        <f>IF(_tag_month_all!D24="","",_tag_month_all!D24)</f>
         <v/>
       </c>
       <c r="F27" s="19" t="str">
-        <f>IF(_tag_month_day!E24="","",_tag_month_day!E24)</f>
+        <f>IF(_tag_month_all!E24="","",_tag_month_all!E24)</f>
         <v/>
       </c>
       <c r="G27" s="20" t="str">
-        <f>IF(_tag_month_day!F24="","",_tag_month_day!F24)</f>
+        <f>IF(_tag_month_all!F24="","",_tag_month_all!F24)</f>
         <v/>
       </c>
       <c r="H27" s="21" t="str">
-        <f>IF(_tag_month_day!G24="","",_tag_month_day!G24)</f>
+        <f>IF(_tag_month_all!G24="","",_tag_month_all!G24)</f>
         <v/>
       </c>
       <c r="I27" s="18" t="str">
-        <f>IF(_tag_month_day!H24="","",_tag_month_day!H24)</f>
+        <f>IF(_tag_month_all!H24="","",_tag_month_all!H24)</f>
         <v/>
       </c>
       <c r="J27" s="18" t="str">
-        <f>IF(_tag_month_day!I24="","",_tag_month_day!I24)</f>
+        <f>IF(_tag_month_all!I24="","",_tag_month_all!I24)</f>
         <v/>
       </c>
       <c r="K27" s="27" t="str">
-        <f>IF(_tag_month_day!J24="","",_tag_month_day!J24)</f>
+        <f>IF(_tag_month_all!J24="","",_tag_month_all!J24)</f>
         <v/>
       </c>
       <c r="L27" s="18" t="str">
-        <f>IF(_tag_month_day!K24="","",_tag_month_day!K24)</f>
+        <f>IF(_tag_month_all!K24="","",_tag_month_all!K24)</f>
         <v/>
       </c>
       <c r="M27" s="28" t="str">
-        <f>IF(_tag_month_day!L24="","",_tag_month_day!L24)</f>
+        <f>IF(_tag_month_all!L24="","",_tag_month_all!L24)</f>
         <v/>
       </c>
       <c r="N27" s="29" t="str">
-        <f>IF(_tag_month_day!M24="","",_tag_month_day!M24)</f>
+        <f>IF(_tag_month_all!M24="","",_tag_month_all!M24)</f>
         <v/>
       </c>
       <c r="O27" s="30" t="str">
-        <f>IF(_tag_month_day!N24="","",_tag_month_day!N24)</f>
+        <f>IF(_tag_month_all!N24="","",_tag_month_all!N24)</f>
         <v/>
       </c>
       <c r="P27" s="30" t="str">
-        <f>IF(_tag_month_day!O24="","",_tag_month_day!O24)</f>
+        <f>IF(_tag_month_all!O24="","",_tag_month_all!O24)</f>
         <v/>
       </c>
       <c r="Q27" s="30" t="str">
-        <f>IF(_tag_month_day!P24="","",_tag_month_day!P24)</f>
+        <f>IF(_tag_month_all!P24="","",_tag_month_all!P24)</f>
         <v/>
       </c>
       <c r="R27" s="35" t="str">
-        <f>IF(_tag_month_day!Q24="","",_tag_month_day!Q24)</f>
+        <f>IF(_tag_month_all!Q24="","",_tag_month_all!Q24)</f>
         <v/>
       </c>
       <c r="S27" s="35" t="str">
-        <f>IF(_tag_month_day!R24="","",_tag_month_day!R24)</f>
+        <f>IF(_tag_month_all!R24="","",_tag_month_all!R24)</f>
         <v/>
       </c>
       <c r="T27" s="35" t="str">
-        <f>IF(_tag_month_day!S24="","",_tag_month_day!S24)</f>
+        <f>IF(_tag_month_all!S24="","",_tag_month_all!S24)</f>
         <v/>
       </c>
       <c r="U27" s="35" t="str">
-        <f>IF(_tag_month_day!T24="","",_tag_month_day!T24)</f>
+        <f>IF(_tag_month_all!T24="","",_tag_month_all!T24)</f>
         <v/>
       </c>
       <c r="V27" s="29" t="str">
-        <f>IF(_tag_month_day!U24="","",_tag_month_day!U24)</f>
+        <f>IF(_tag_month_all!U24="","",_tag_month_all!U24)</f>
         <v/>
       </c>
       <c r="W27" s="30" t="str">
-        <f>IF(_tag_month_day!V24="","",_tag_month_day!V24)</f>
+        <f>IF(_tag_month_all!V24="","",_tag_month_all!V24)</f>
         <v/>
       </c>
       <c r="X27" s="30" t="str">
-        <f>IF(_tag_month_day!W24="","",_tag_month_day!W24)</f>
+        <f>IF(_tag_month_all!W24="","",_tag_month_all!W24)</f>
         <v/>
       </c>
       <c r="Y27" s="30" t="str">
-        <f>IF(_tag_month_day!X24="","",_tag_month_day!X24)</f>
+        <f>IF(_tag_month_all!X24="","",_tag_month_all!X24)</f>
         <v/>
       </c>
       <c r="Z27" s="30" t="str">
-        <f>IF(_tag_month_day!Y24="","",_tag_month_day!Y24)</f>
+        <f>IF(_tag_month_all!Y24="","",_tag_month_all!Y24)</f>
         <v/>
       </c>
       <c r="AA27" s="30" t="str">
-        <f>IF(_tag_month_day!Z24="","",_tag_month_day!Z24)</f>
+        <f>IF(_tag_month_all!Z24="","",_tag_month_all!Z24)</f>
         <v/>
       </c>
       <c r="AB27" s="30" t="str">
-        <f>IF(_tag_month_day!AA24="","",_tag_month_day!AA24)</f>
+        <f>IF(_tag_month_all!AA24="","",_tag_month_all!AA24)</f>
         <v/>
       </c>
       <c r="AC27" s="30" t="str">
-        <f>IF(_tag_month_day!AB24="","",_tag_month_day!AB24)</f>
+        <f>IF(_tag_month_all!AB24="","",_tag_month_all!AB24)</f>
         <v/>
       </c>
       <c r="AD27" s="17" t="str">
-        <f>IF(_tag_month_day!AC24="","",_tag_month_day!AC24)</f>
+        <f>IF(_tag_month_all!AC24="","",_tag_month_all!AC24)</f>
         <v/>
       </c>
       <c r="AE27" s="17" t="str">
-        <f>IF(_tag_month_day!AD24="","",_tag_month_day!AD24)</f>
+        <f>IF(_tag_month_all!AD24="","",_tag_month_all!AD24)</f>
         <v/>
       </c>
       <c r="AF27" s="17" t="str">
-        <f>IF(_tag_month_day!AE24="","",_tag_month_day!AE24)</f>
+        <f>IF(_tag_month_all!AE24="","",_tag_month_all!AE24)</f>
         <v/>
       </c>
       <c r="AG27" s="17" t="str">
-        <f>IF(_tag_month_day!AF24="","",_tag_month_day!AF24)</f>
+        <f>IF(_tag_month_all!AF24="","",_tag_month_all!AF24)</f>
         <v/>
       </c>
       <c r="AH27" s="29" t="str">
-        <f>IF(_tag_month_day!AG24="","",_tag_month_day!AG24)</f>
+        <f>IF(_tag_month_all!AG24="","",_tag_month_all!AG24)</f>
         <v/>
       </c>
       <c r="AI27" s="29" t="str">
-        <f>IF(_tag_month_day!AH24="","",_tag_month_day!AH24)</f>
+        <f>IF(_tag_month_all!AH24="","",_tag_month_all!AH24)</f>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f>IF(_tag_month_day!AI24="","",_tag_month_day!AI24)</f>
+        <f>IF(_tag_month_all!AI24="","",_tag_month_all!AI24)</f>
         <v/>
       </c>
       <c r="AK27" s="8" t="str">
@@ -7152,143 +7064,143 @@
         <v>24</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f>IF(_tag_month_day!A25="","",_tag_month_day!A25)</f>
+        <f>IF(_tag_month_all!A25="","",_tag_month_all!A25)</f>
         <v/>
       </c>
       <c r="C28" s="16" t="str">
-        <f>IF(_tag_month_day!B25="","",_tag_month_day!B25)</f>
+        <f>IF(_tag_month_all!B25="","",_tag_month_all!B25)</f>
         <v/>
       </c>
       <c r="D28" s="17" t="str">
-        <f>IF(_tag_month_day!C25="","",_tag_month_day!C25)</f>
+        <f>IF(_tag_month_all!C25="","",_tag_month_all!C25)</f>
         <v/>
       </c>
       <c r="E28" s="18" t="str">
-        <f>IF(_tag_month_day!D25="","",_tag_month_day!D25)</f>
+        <f>IF(_tag_month_all!D25="","",_tag_month_all!D25)</f>
         <v/>
       </c>
       <c r="F28" s="19" t="str">
-        <f>IF(_tag_month_day!E25="","",_tag_month_day!E25)</f>
+        <f>IF(_tag_month_all!E25="","",_tag_month_all!E25)</f>
         <v/>
       </c>
       <c r="G28" s="20" t="str">
-        <f>IF(_tag_month_day!F25="","",_tag_month_day!F25)</f>
+        <f>IF(_tag_month_all!F25="","",_tag_month_all!F25)</f>
         <v/>
       </c>
       <c r="H28" s="21" t="str">
-        <f>IF(_tag_month_day!G25="","",_tag_month_day!G25)</f>
+        <f>IF(_tag_month_all!G25="","",_tag_month_all!G25)</f>
         <v/>
       </c>
       <c r="I28" s="18" t="str">
-        <f>IF(_tag_month_day!H25="","",_tag_month_day!H25)</f>
+        <f>IF(_tag_month_all!H25="","",_tag_month_all!H25)</f>
         <v/>
       </c>
       <c r="J28" s="18" t="str">
-        <f>IF(_tag_month_day!I25="","",_tag_month_day!I25)</f>
+        <f>IF(_tag_month_all!I25="","",_tag_month_all!I25)</f>
         <v/>
       </c>
       <c r="K28" s="27" t="str">
-        <f>IF(_tag_month_day!J25="","",_tag_month_day!J25)</f>
+        <f>IF(_tag_month_all!J25="","",_tag_month_all!J25)</f>
         <v/>
       </c>
       <c r="L28" s="18" t="str">
-        <f>IF(_tag_month_day!K25="","",_tag_month_day!K25)</f>
+        <f>IF(_tag_month_all!K25="","",_tag_month_all!K25)</f>
         <v/>
       </c>
       <c r="M28" s="28" t="str">
-        <f>IF(_tag_month_day!L25="","",_tag_month_day!L25)</f>
+        <f>IF(_tag_month_all!L25="","",_tag_month_all!L25)</f>
         <v/>
       </c>
       <c r="N28" s="29" t="str">
-        <f>IF(_tag_month_day!M25="","",_tag_month_day!M25)</f>
+        <f>IF(_tag_month_all!M25="","",_tag_month_all!M25)</f>
         <v/>
       </c>
       <c r="O28" s="30" t="str">
-        <f>IF(_tag_month_day!N25="","",_tag_month_day!N25)</f>
+        <f>IF(_tag_month_all!N25="","",_tag_month_all!N25)</f>
         <v/>
       </c>
       <c r="P28" s="30" t="str">
-        <f>IF(_tag_month_day!O25="","",_tag_month_day!O25)</f>
+        <f>IF(_tag_month_all!O25="","",_tag_month_all!O25)</f>
         <v/>
       </c>
       <c r="Q28" s="30" t="str">
-        <f>IF(_tag_month_day!P25="","",_tag_month_day!P25)</f>
+        <f>IF(_tag_month_all!P25="","",_tag_month_all!P25)</f>
         <v/>
       </c>
       <c r="R28" s="35" t="str">
-        <f>IF(_tag_month_day!Q25="","",_tag_month_day!Q25)</f>
+        <f>IF(_tag_month_all!Q25="","",_tag_month_all!Q25)</f>
         <v/>
       </c>
       <c r="S28" s="35" t="str">
-        <f>IF(_tag_month_day!R25="","",_tag_month_day!R25)</f>
+        <f>IF(_tag_month_all!R25="","",_tag_month_all!R25)</f>
         <v/>
       </c>
       <c r="T28" s="35" t="str">
-        <f>IF(_tag_month_day!S25="","",_tag_month_day!S25)</f>
+        <f>IF(_tag_month_all!S25="","",_tag_month_all!S25)</f>
         <v/>
       </c>
       <c r="U28" s="35" t="str">
-        <f>IF(_tag_month_day!T25="","",_tag_month_day!T25)</f>
+        <f>IF(_tag_month_all!T25="","",_tag_month_all!T25)</f>
         <v/>
       </c>
       <c r="V28" s="29" t="str">
-        <f>IF(_tag_month_day!U25="","",_tag_month_day!U25)</f>
+        <f>IF(_tag_month_all!U25="","",_tag_month_all!U25)</f>
         <v/>
       </c>
       <c r="W28" s="30" t="str">
-        <f>IF(_tag_month_day!V25="","",_tag_month_day!V25)</f>
+        <f>IF(_tag_month_all!V25="","",_tag_month_all!V25)</f>
         <v/>
       </c>
       <c r="X28" s="30" t="str">
-        <f>IF(_tag_month_day!W25="","",_tag_month_day!W25)</f>
+        <f>IF(_tag_month_all!W25="","",_tag_month_all!W25)</f>
         <v/>
       </c>
       <c r="Y28" s="30" t="str">
-        <f>IF(_tag_month_day!X25="","",_tag_month_day!X25)</f>
+        <f>IF(_tag_month_all!X25="","",_tag_month_all!X25)</f>
         <v/>
       </c>
       <c r="Z28" s="30" t="str">
-        <f>IF(_tag_month_day!Y25="","",_tag_month_day!Y25)</f>
+        <f>IF(_tag_month_all!Y25="","",_tag_month_all!Y25)</f>
         <v/>
       </c>
       <c r="AA28" s="30" t="str">
-        <f>IF(_tag_month_day!Z25="","",_tag_month_day!Z25)</f>
+        <f>IF(_tag_month_all!Z25="","",_tag_month_all!Z25)</f>
         <v/>
       </c>
       <c r="AB28" s="30" t="str">
-        <f>IF(_tag_month_day!AA25="","",_tag_month_day!AA25)</f>
+        <f>IF(_tag_month_all!AA25="","",_tag_month_all!AA25)</f>
         <v/>
       </c>
       <c r="AC28" s="30" t="str">
-        <f>IF(_tag_month_day!AB25="","",_tag_month_day!AB25)</f>
+        <f>IF(_tag_month_all!AB25="","",_tag_month_all!AB25)</f>
         <v/>
       </c>
       <c r="AD28" s="17" t="str">
-        <f>IF(_tag_month_day!AC25="","",_tag_month_day!AC25)</f>
+        <f>IF(_tag_month_all!AC25="","",_tag_month_all!AC25)</f>
         <v/>
       </c>
       <c r="AE28" s="17" t="str">
-        <f>IF(_tag_month_day!AD25="","",_tag_month_day!AD25)</f>
+        <f>IF(_tag_month_all!AD25="","",_tag_month_all!AD25)</f>
         <v/>
       </c>
       <c r="AF28" s="17" t="str">
-        <f>IF(_tag_month_day!AE25="","",_tag_month_day!AE25)</f>
+        <f>IF(_tag_month_all!AE25="","",_tag_month_all!AE25)</f>
         <v/>
       </c>
       <c r="AG28" s="17" t="str">
-        <f>IF(_tag_month_day!AF25="","",_tag_month_day!AF25)</f>
+        <f>IF(_tag_month_all!AF25="","",_tag_month_all!AF25)</f>
         <v/>
       </c>
       <c r="AH28" s="29" t="str">
-        <f>IF(_tag_month_day!AG25="","",_tag_month_day!AG25)</f>
+        <f>IF(_tag_month_all!AG25="","",_tag_month_all!AG25)</f>
         <v/>
       </c>
       <c r="AI28" s="29" t="str">
-        <f>IF(_tag_month_day!AH25="","",_tag_month_day!AH25)</f>
+        <f>IF(_tag_month_all!AH25="","",_tag_month_all!AH25)</f>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f>IF(_tag_month_day!AI25="","",_tag_month_day!AI25)</f>
+        <f>IF(_tag_month_all!AI25="","",_tag_month_all!AI25)</f>
         <v/>
       </c>
       <c r="AK28" s="8" t="str">
@@ -7418,143 +7330,143 @@
         <v>25</v>
       </c>
       <c r="B29" s="16" t="str">
-        <f>IF(_tag_month_day!A26="","",_tag_month_day!A26)</f>
+        <f>IF(_tag_month_all!A26="","",_tag_month_all!A26)</f>
         <v/>
       </c>
       <c r="C29" s="16" t="str">
-        <f>IF(_tag_month_day!B26="","",_tag_month_day!B26)</f>
+        <f>IF(_tag_month_all!B26="","",_tag_month_all!B26)</f>
         <v/>
       </c>
       <c r="D29" s="17" t="str">
-        <f>IF(_tag_month_day!C26="","",_tag_month_day!C26)</f>
+        <f>IF(_tag_month_all!C26="","",_tag_month_all!C26)</f>
         <v/>
       </c>
       <c r="E29" s="18" t="str">
-        <f>IF(_tag_month_day!D26="","",_tag_month_day!D26)</f>
+        <f>IF(_tag_month_all!D26="","",_tag_month_all!D26)</f>
         <v/>
       </c>
       <c r="F29" s="19" t="str">
-        <f>IF(_tag_month_day!E26="","",_tag_month_day!E26)</f>
+        <f>IF(_tag_month_all!E26="","",_tag_month_all!E26)</f>
         <v/>
       </c>
       <c r="G29" s="20" t="str">
-        <f>IF(_tag_month_day!F26="","",_tag_month_day!F26)</f>
+        <f>IF(_tag_month_all!F26="","",_tag_month_all!F26)</f>
         <v/>
       </c>
       <c r="H29" s="21" t="str">
-        <f>IF(_tag_month_day!G26="","",_tag_month_day!G26)</f>
+        <f>IF(_tag_month_all!G26="","",_tag_month_all!G26)</f>
         <v/>
       </c>
       <c r="I29" s="18" t="str">
-        <f>IF(_tag_month_day!H26="","",_tag_month_day!H26)</f>
+        <f>IF(_tag_month_all!H26="","",_tag_month_all!H26)</f>
         <v/>
       </c>
       <c r="J29" s="18" t="str">
-        <f>IF(_tag_month_day!I26="","",_tag_month_day!I26)</f>
+        <f>IF(_tag_month_all!I26="","",_tag_month_all!I26)</f>
         <v/>
       </c>
       <c r="K29" s="27" t="str">
-        <f>IF(_tag_month_day!J26="","",_tag_month_day!J26)</f>
+        <f>IF(_tag_month_all!J26="","",_tag_month_all!J26)</f>
         <v/>
       </c>
       <c r="L29" s="18" t="str">
-        <f>IF(_tag_month_day!K26="","",_tag_month_day!K26)</f>
+        <f>IF(_tag_month_all!K26="","",_tag_month_all!K26)</f>
         <v/>
       </c>
       <c r="M29" s="28" t="str">
-        <f>IF(_tag_month_day!L26="","",_tag_month_day!L26)</f>
+        <f>IF(_tag_month_all!L26="","",_tag_month_all!L26)</f>
         <v/>
       </c>
       <c r="N29" s="29" t="str">
-        <f>IF(_tag_month_day!M26="","",_tag_month_day!M26)</f>
+        <f>IF(_tag_month_all!M26="","",_tag_month_all!M26)</f>
         <v/>
       </c>
       <c r="O29" s="30" t="str">
-        <f>IF(_tag_month_day!N26="","",_tag_month_day!N26)</f>
+        <f>IF(_tag_month_all!N26="","",_tag_month_all!N26)</f>
         <v/>
       </c>
       <c r="P29" s="30" t="str">
-        <f>IF(_tag_month_day!O26="","",_tag_month_day!O26)</f>
+        <f>IF(_tag_month_all!O26="","",_tag_month_all!O26)</f>
         <v/>
       </c>
       <c r="Q29" s="30" t="str">
-        <f>IF(_tag_month_day!P26="","",_tag_month_day!P26)</f>
+        <f>IF(_tag_month_all!P26="","",_tag_month_all!P26)</f>
         <v/>
       </c>
       <c r="R29" s="35" t="str">
-        <f>IF(_tag_month_day!Q26="","",_tag_month_day!Q26)</f>
+        <f>IF(_tag_month_all!Q26="","",_tag_month_all!Q26)</f>
         <v/>
       </c>
       <c r="S29" s="35" t="str">
-        <f>IF(_tag_month_day!R26="","",_tag_month_day!R26)</f>
+        <f>IF(_tag_month_all!R26="","",_tag_month_all!R26)</f>
         <v/>
       </c>
       <c r="T29" s="35" t="str">
-        <f>IF(_tag_month_day!S26="","",_tag_month_day!S26)</f>
+        <f>IF(_tag_month_all!S26="","",_tag_month_all!S26)</f>
         <v/>
       </c>
       <c r="U29" s="35" t="str">
-        <f>IF(_tag_month_day!T26="","",_tag_month_day!T26)</f>
+        <f>IF(_tag_month_all!T26="","",_tag_month_all!T26)</f>
         <v/>
       </c>
       <c r="V29" s="29" t="str">
-        <f>IF(_tag_month_day!U26="","",_tag_month_day!U26)</f>
+        <f>IF(_tag_month_all!U26="","",_tag_month_all!U26)</f>
         <v/>
       </c>
       <c r="W29" s="30" t="str">
-        <f>IF(_tag_month_day!V26="","",_tag_month_day!V26)</f>
+        <f>IF(_tag_month_all!V26="","",_tag_month_all!V26)</f>
         <v/>
       </c>
       <c r="X29" s="30" t="str">
-        <f>IF(_tag_month_day!W26="","",_tag_month_day!W26)</f>
+        <f>IF(_tag_month_all!W26="","",_tag_month_all!W26)</f>
         <v/>
       </c>
       <c r="Y29" s="30" t="str">
-        <f>IF(_tag_month_day!X26="","",_tag_month_day!X26)</f>
+        <f>IF(_tag_month_all!X26="","",_tag_month_all!X26)</f>
         <v/>
       </c>
       <c r="Z29" s="30" t="str">
-        <f>IF(_tag_month_day!Y26="","",_tag_month_day!Y26)</f>
+        <f>IF(_tag_month_all!Y26="","",_tag_month_all!Y26)</f>
         <v/>
       </c>
       <c r="AA29" s="30" t="str">
-        <f>IF(_tag_month_day!Z26="","",_tag_month_day!Z26)</f>
+        <f>IF(_tag_month_all!Z26="","",_tag_month_all!Z26)</f>
         <v/>
       </c>
       <c r="AB29" s="30" t="str">
-        <f>IF(_tag_month_day!AA26="","",_tag_month_day!AA26)</f>
+        <f>IF(_tag_month_all!AA26="","",_tag_month_all!AA26)</f>
         <v/>
       </c>
       <c r="AC29" s="30" t="str">
-        <f>IF(_tag_month_day!AB26="","",_tag_month_day!AB26)</f>
+        <f>IF(_tag_month_all!AB26="","",_tag_month_all!AB26)</f>
         <v/>
       </c>
       <c r="AD29" s="17" t="str">
-        <f>IF(_tag_month_day!AC26="","",_tag_month_day!AC26)</f>
+        <f>IF(_tag_month_all!AC26="","",_tag_month_all!AC26)</f>
         <v/>
       </c>
       <c r="AE29" s="17" t="str">
-        <f>IF(_tag_month_day!AD26="","",_tag_month_day!AD26)</f>
+        <f>IF(_tag_month_all!AD26="","",_tag_month_all!AD26)</f>
         <v/>
       </c>
       <c r="AF29" s="17" t="str">
-        <f>IF(_tag_month_day!AE26="","",_tag_month_day!AE26)</f>
+        <f>IF(_tag_month_all!AE26="","",_tag_month_all!AE26)</f>
         <v/>
       </c>
       <c r="AG29" s="17" t="str">
-        <f>IF(_tag_month_day!AF26="","",_tag_month_day!AF26)</f>
+        <f>IF(_tag_month_all!AF26="","",_tag_month_all!AF26)</f>
         <v/>
       </c>
       <c r="AH29" s="29" t="str">
-        <f>IF(_tag_month_day!AG26="","",_tag_month_day!AG26)</f>
+        <f>IF(_tag_month_all!AG26="","",_tag_month_all!AG26)</f>
         <v/>
       </c>
       <c r="AI29" s="29" t="str">
-        <f>IF(_tag_month_day!AH26="","",_tag_month_day!AH26)</f>
+        <f>IF(_tag_month_all!AH26="","",_tag_month_all!AH26)</f>
         <v/>
       </c>
       <c r="AJ29" s="38" t="str">
-        <f>IF(_tag_month_day!AI26="","",_tag_month_day!AI26)</f>
+        <f>IF(_tag_month_all!AI26="","",_tag_month_all!AI26)</f>
         <v/>
       </c>
       <c r="AK29" s="8" t="str">
@@ -7684,143 +7596,143 @@
         <v>26</v>
       </c>
       <c r="B30" s="16" t="str">
-        <f>IF(_tag_month_day!A27="","",_tag_month_day!A27)</f>
+        <f>IF(_tag_month_all!A27="","",_tag_month_all!A27)</f>
         <v/>
       </c>
       <c r="C30" s="16" t="str">
-        <f>IF(_tag_month_day!B27="","",_tag_month_day!B27)</f>
+        <f>IF(_tag_month_all!B27="","",_tag_month_all!B27)</f>
         <v/>
       </c>
       <c r="D30" s="17" t="str">
-        <f>IF(_tag_month_day!C27="","",_tag_month_day!C27)</f>
+        <f>IF(_tag_month_all!C27="","",_tag_month_all!C27)</f>
         <v/>
       </c>
       <c r="E30" s="18" t="str">
-        <f>IF(_tag_month_day!D27="","",_tag_month_day!D27)</f>
+        <f>IF(_tag_month_all!D27="","",_tag_month_all!D27)</f>
         <v/>
       </c>
       <c r="F30" s="19" t="str">
-        <f>IF(_tag_month_day!E27="","",_tag_month_day!E27)</f>
+        <f>IF(_tag_month_all!E27="","",_tag_month_all!E27)</f>
         <v/>
       </c>
       <c r="G30" s="20" t="str">
-        <f>IF(_tag_month_day!F27="","",_tag_month_day!F27)</f>
+        <f>IF(_tag_month_all!F27="","",_tag_month_all!F27)</f>
         <v/>
       </c>
       <c r="H30" s="21" t="str">
-        <f>IF(_tag_month_day!G27="","",_tag_month_day!G27)</f>
+        <f>IF(_tag_month_all!G27="","",_tag_month_all!G27)</f>
         <v/>
       </c>
       <c r="I30" s="18" t="str">
-        <f>IF(_tag_month_day!H27="","",_tag_month_day!H27)</f>
+        <f>IF(_tag_month_all!H27="","",_tag_month_all!H27)</f>
         <v/>
       </c>
       <c r="J30" s="18" t="str">
-        <f>IF(_tag_month_day!I27="","",_tag_month_day!I27)</f>
+        <f>IF(_tag_month_all!I27="","",_tag_month_all!I27)</f>
         <v/>
       </c>
       <c r="K30" s="27" t="str">
-        <f>IF(_tag_month_day!J27="","",_tag_month_day!J27)</f>
+        <f>IF(_tag_month_all!J27="","",_tag_month_all!J27)</f>
         <v/>
       </c>
       <c r="L30" s="18" t="str">
-        <f>IF(_tag_month_day!K27="","",_tag_month_day!K27)</f>
+        <f>IF(_tag_month_all!K27="","",_tag_month_all!K27)</f>
         <v/>
       </c>
       <c r="M30" s="28" t="str">
-        <f>IF(_tag_month_day!L27="","",_tag_month_day!L27)</f>
+        <f>IF(_tag_month_all!L27="","",_tag_month_all!L27)</f>
         <v/>
       </c>
       <c r="N30" s="29" t="str">
-        <f>IF(_tag_month_day!M27="","",_tag_month_day!M27)</f>
+        <f>IF(_tag_month_all!M27="","",_tag_month_all!M27)</f>
         <v/>
       </c>
       <c r="O30" s="30" t="str">
-        <f>IF(_tag_month_day!N27="","",_tag_month_day!N27)</f>
+        <f>IF(_tag_month_all!N27="","",_tag_month_all!N27)</f>
         <v/>
       </c>
       <c r="P30" s="30" t="str">
-        <f>IF(_tag_month_day!O27="","",_tag_month_day!O27)</f>
+        <f>IF(_tag_month_all!O27="","",_tag_month_all!O27)</f>
         <v/>
       </c>
       <c r="Q30" s="30" t="str">
-        <f>IF(_tag_month_day!P27="","",_tag_month_day!P27)</f>
+        <f>IF(_tag_month_all!P27="","",_tag_month_all!P27)</f>
         <v/>
       </c>
       <c r="R30" s="35" t="str">
-        <f>IF(_tag_month_day!Q27="","",_tag_month_day!Q27)</f>
+        <f>IF(_tag_month_all!Q27="","",_tag_month_all!Q27)</f>
         <v/>
       </c>
       <c r="S30" s="35" t="str">
-        <f>IF(_tag_month_day!R27="","",_tag_month_day!R27)</f>
+        <f>IF(_tag_month_all!R27="","",_tag_month_all!R27)</f>
         <v/>
       </c>
       <c r="T30" s="35" t="str">
-        <f>IF(_tag_month_day!S27="","",_tag_month_day!S27)</f>
+        <f>IF(_tag_month_all!S27="","",_tag_month_all!S27)</f>
         <v/>
       </c>
       <c r="U30" s="35" t="str">
-        <f>IF(_tag_month_day!T27="","",_tag_month_day!T27)</f>
+        <f>IF(_tag_month_all!T27="","",_tag_month_all!T27)</f>
         <v/>
       </c>
       <c r="V30" s="29" t="str">
-        <f>IF(_tag_month_day!U27="","",_tag_month_day!U27)</f>
+        <f>IF(_tag_month_all!U27="","",_tag_month_all!U27)</f>
         <v/>
       </c>
       <c r="W30" s="30" t="str">
-        <f>IF(_tag_month_day!V27="","",_tag_month_day!V27)</f>
+        <f>IF(_tag_month_all!V27="","",_tag_month_all!V27)</f>
         <v/>
       </c>
       <c r="X30" s="30" t="str">
-        <f>IF(_tag_month_day!W27="","",_tag_month_day!W27)</f>
+        <f>IF(_tag_month_all!W27="","",_tag_month_all!W27)</f>
         <v/>
       </c>
       <c r="Y30" s="30" t="str">
-        <f>IF(_tag_month_day!X27="","",_tag_month_day!X27)</f>
+        <f>IF(_tag_month_all!X27="","",_tag_month_all!X27)</f>
         <v/>
       </c>
       <c r="Z30" s="30" t="str">
-        <f>IF(_tag_month_day!Y27="","",_tag_month_day!Y27)</f>
+        <f>IF(_tag_month_all!Y27="","",_tag_month_all!Y27)</f>
         <v/>
       </c>
       <c r="AA30" s="30" t="str">
-        <f>IF(_tag_month_day!Z27="","",_tag_month_day!Z27)</f>
+        <f>IF(_tag_month_all!Z27="","",_tag_month_all!Z27)</f>
         <v/>
       </c>
       <c r="AB30" s="30" t="str">
-        <f>IF(_tag_month_day!AA27="","",_tag_month_day!AA27)</f>
+        <f>IF(_tag_month_all!AA27="","",_tag_month_all!AA27)</f>
         <v/>
       </c>
       <c r="AC30" s="30" t="str">
-        <f>IF(_tag_month_day!AB27="","",_tag_month_day!AB27)</f>
+        <f>IF(_tag_month_all!AB27="","",_tag_month_all!AB27)</f>
         <v/>
       </c>
       <c r="AD30" s="17" t="str">
-        <f>IF(_tag_month_day!AC27="","",_tag_month_day!AC27)</f>
+        <f>IF(_tag_month_all!AC27="","",_tag_month_all!AC27)</f>
         <v/>
       </c>
       <c r="AE30" s="17" t="str">
-        <f>IF(_tag_month_day!AD27="","",_tag_month_day!AD27)</f>
+        <f>IF(_tag_month_all!AD27="","",_tag_month_all!AD27)</f>
         <v/>
       </c>
       <c r="AF30" s="17" t="str">
-        <f>IF(_tag_month_day!AE27="","",_tag_month_day!AE27)</f>
+        <f>IF(_tag_month_all!AE27="","",_tag_month_all!AE27)</f>
         <v/>
       </c>
       <c r="AG30" s="17" t="str">
-        <f>IF(_tag_month_day!AF27="","",_tag_month_day!AF27)</f>
+        <f>IF(_tag_month_all!AF27="","",_tag_month_all!AF27)</f>
         <v/>
       </c>
       <c r="AH30" s="29" t="str">
-        <f>IF(_tag_month_day!AG27="","",_tag_month_day!AG27)</f>
+        <f>IF(_tag_month_all!AG27="","",_tag_month_all!AG27)</f>
         <v/>
       </c>
       <c r="AI30" s="29" t="str">
-        <f>IF(_tag_month_day!AH27="","",_tag_month_day!AH27)</f>
+        <f>IF(_tag_month_all!AH27="","",_tag_month_all!AH27)</f>
         <v/>
       </c>
       <c r="AJ30" s="38" t="str">
-        <f>IF(_tag_month_day!AI27="","",_tag_month_day!AI27)</f>
+        <f>IF(_tag_month_all!AI27="","",_tag_month_all!AI27)</f>
         <v/>
       </c>
       <c r="AK30" s="8" t="str">
@@ -7950,143 +7862,143 @@
         <v>27</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>IF(_tag_month_day!A28="","",_tag_month_day!A28)</f>
+        <f>IF(_tag_month_all!A28="","",_tag_month_all!A28)</f>
         <v/>
       </c>
       <c r="C31" s="16" t="str">
-        <f>IF(_tag_month_day!B28="","",_tag_month_day!B28)</f>
+        <f>IF(_tag_month_all!B28="","",_tag_month_all!B28)</f>
         <v/>
       </c>
       <c r="D31" s="17" t="str">
-        <f>IF(_tag_month_day!C28="","",_tag_month_day!C28)</f>
+        <f>IF(_tag_month_all!C28="","",_tag_month_all!C28)</f>
         <v/>
       </c>
       <c r="E31" s="18" t="str">
-        <f>IF(_tag_month_day!D28="","",_tag_month_day!D28)</f>
+        <f>IF(_tag_month_all!D28="","",_tag_month_all!D28)</f>
         <v/>
       </c>
       <c r="F31" s="19" t="str">
-        <f>IF(_tag_month_day!E28="","",_tag_month_day!E28)</f>
+        <f>IF(_tag_month_all!E28="","",_tag_month_all!E28)</f>
         <v/>
       </c>
       <c r="G31" s="20" t="str">
-        <f>IF(_tag_month_day!F28="","",_tag_month_day!F28)</f>
+        <f>IF(_tag_month_all!F28="","",_tag_month_all!F28)</f>
         <v/>
       </c>
       <c r="H31" s="21" t="str">
-        <f>IF(_tag_month_day!G28="","",_tag_month_day!G28)</f>
+        <f>IF(_tag_month_all!G28="","",_tag_month_all!G28)</f>
         <v/>
       </c>
       <c r="I31" s="18" t="str">
-        <f>IF(_tag_month_day!H28="","",_tag_month_day!H28)</f>
+        <f>IF(_tag_month_all!H28="","",_tag_month_all!H28)</f>
         <v/>
       </c>
       <c r="J31" s="18" t="str">
-        <f>IF(_tag_month_day!I28="","",_tag_month_day!I28)</f>
+        <f>IF(_tag_month_all!I28="","",_tag_month_all!I28)</f>
         <v/>
       </c>
       <c r="K31" s="27" t="str">
-        <f>IF(_tag_month_day!J28="","",_tag_month_day!J28)</f>
+        <f>IF(_tag_month_all!J28="","",_tag_month_all!J28)</f>
         <v/>
       </c>
       <c r="L31" s="18" t="str">
-        <f>IF(_tag_month_day!K28="","",_tag_month_day!K28)</f>
+        <f>IF(_tag_month_all!K28="","",_tag_month_all!K28)</f>
         <v/>
       </c>
       <c r="M31" s="28" t="str">
-        <f>IF(_tag_month_day!L28="","",_tag_month_day!L28)</f>
+        <f>IF(_tag_month_all!L28="","",_tag_month_all!L28)</f>
         <v/>
       </c>
       <c r="N31" s="29" t="str">
-        <f>IF(_tag_month_day!M28="","",_tag_month_day!M28)</f>
+        <f>IF(_tag_month_all!M28="","",_tag_month_all!M28)</f>
         <v/>
       </c>
       <c r="O31" s="30" t="str">
-        <f>IF(_tag_month_day!N28="","",_tag_month_day!N28)</f>
+        <f>IF(_tag_month_all!N28="","",_tag_month_all!N28)</f>
         <v/>
       </c>
       <c r="P31" s="30" t="str">
-        <f>IF(_tag_month_day!O28="","",_tag_month_day!O28)</f>
+        <f>IF(_tag_month_all!O28="","",_tag_month_all!O28)</f>
         <v/>
       </c>
       <c r="Q31" s="30" t="str">
-        <f>IF(_tag_month_day!P28="","",_tag_month_day!P28)</f>
+        <f>IF(_tag_month_all!P28="","",_tag_month_all!P28)</f>
         <v/>
       </c>
       <c r="R31" s="35" t="str">
-        <f>IF(_tag_month_day!Q28="","",_tag_month_day!Q28)</f>
+        <f>IF(_tag_month_all!Q28="","",_tag_month_all!Q28)</f>
         <v/>
       </c>
       <c r="S31" s="35" t="str">
-        <f>IF(_tag_month_day!R28="","",_tag_month_day!R28)</f>
+        <f>IF(_tag_month_all!R28="","",_tag_month_all!R28)</f>
         <v/>
       </c>
       <c r="T31" s="35" t="str">
-        <f>IF(_tag_month_day!S28="","",_tag_month_day!S28)</f>
+        <f>IF(_tag_month_all!S28="","",_tag_month_all!S28)</f>
         <v/>
       </c>
       <c r="U31" s="35" t="str">
-        <f>IF(_tag_month_day!T28="","",_tag_month_day!T28)</f>
+        <f>IF(_tag_month_all!T28="","",_tag_month_all!T28)</f>
         <v/>
       </c>
       <c r="V31" s="29" t="str">
-        <f>IF(_tag_month_day!U28="","",_tag_month_day!U28)</f>
+        <f>IF(_tag_month_all!U28="","",_tag_month_all!U28)</f>
         <v/>
       </c>
       <c r="W31" s="30" t="str">
-        <f>IF(_tag_month_day!V28="","",_tag_month_day!V28)</f>
+        <f>IF(_tag_month_all!V28="","",_tag_month_all!V28)</f>
         <v/>
       </c>
       <c r="X31" s="30" t="str">
-        <f>IF(_tag_month_day!W28="","",_tag_month_day!W28)</f>
+        <f>IF(_tag_month_all!W28="","",_tag_month_all!W28)</f>
         <v/>
       </c>
       <c r="Y31" s="30" t="str">
-        <f>IF(_tag_month_day!X28="","",_tag_month_day!X28)</f>
+        <f>IF(_tag_month_all!X28="","",_tag_month_all!X28)</f>
         <v/>
       </c>
       <c r="Z31" s="30" t="str">
-        <f>IF(_tag_month_day!Y28="","",_tag_month_day!Y28)</f>
+        <f>IF(_tag_month_all!Y28="","",_tag_month_all!Y28)</f>
         <v/>
       </c>
       <c r="AA31" s="30" t="str">
-        <f>IF(_tag_month_day!Z28="","",_tag_month_day!Z28)</f>
+        <f>IF(_tag_month_all!Z28="","",_tag_month_all!Z28)</f>
         <v/>
       </c>
       <c r="AB31" s="30" t="str">
-        <f>IF(_tag_month_day!AA28="","",_tag_month_day!AA28)</f>
+        <f>IF(_tag_month_all!AA28="","",_tag_month_all!AA28)</f>
         <v/>
       </c>
       <c r="AC31" s="30" t="str">
-        <f>IF(_tag_month_day!AB28="","",_tag_month_day!AB28)</f>
+        <f>IF(_tag_month_all!AB28="","",_tag_month_all!AB28)</f>
         <v/>
       </c>
       <c r="AD31" s="17" t="str">
-        <f>IF(_tag_month_day!AC28="","",_tag_month_day!AC28)</f>
+        <f>IF(_tag_month_all!AC28="","",_tag_month_all!AC28)</f>
         <v/>
       </c>
       <c r="AE31" s="17" t="str">
-        <f>IF(_tag_month_day!AD28="","",_tag_month_day!AD28)</f>
+        <f>IF(_tag_month_all!AD28="","",_tag_month_all!AD28)</f>
         <v/>
       </c>
       <c r="AF31" s="17" t="str">
-        <f>IF(_tag_month_day!AE28="","",_tag_month_day!AE28)</f>
+        <f>IF(_tag_month_all!AE28="","",_tag_month_all!AE28)</f>
         <v/>
       </c>
       <c r="AG31" s="17" t="str">
-        <f>IF(_tag_month_day!AF28="","",_tag_month_day!AF28)</f>
+        <f>IF(_tag_month_all!AF28="","",_tag_month_all!AF28)</f>
         <v/>
       </c>
       <c r="AH31" s="29" t="str">
-        <f>IF(_tag_month_day!AG28="","",_tag_month_day!AG28)</f>
+        <f>IF(_tag_month_all!AG28="","",_tag_month_all!AG28)</f>
         <v/>
       </c>
       <c r="AI31" s="29" t="str">
-        <f>IF(_tag_month_day!AH28="","",_tag_month_day!AH28)</f>
+        <f>IF(_tag_month_all!AH28="","",_tag_month_all!AH28)</f>
         <v/>
       </c>
       <c r="AJ31" s="38" t="str">
-        <f>IF(_tag_month_day!AI28="","",_tag_month_day!AI28)</f>
+        <f>IF(_tag_month_all!AI28="","",_tag_month_all!AI28)</f>
         <v/>
       </c>
       <c r="AK31" s="8" t="str">
@@ -8216,143 +8128,143 @@
         <v>28</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>IF(_tag_month_day!A29="","",_tag_month_day!A29)</f>
+        <f>IF(_tag_month_all!A29="","",_tag_month_all!A29)</f>
         <v/>
       </c>
       <c r="C32" s="16" t="str">
-        <f>IF(_tag_month_day!B29="","",_tag_month_day!B29)</f>
+        <f>IF(_tag_month_all!B29="","",_tag_month_all!B29)</f>
         <v/>
       </c>
       <c r="D32" s="17" t="str">
-        <f>IF(_tag_month_day!C29="","",_tag_month_day!C29)</f>
+        <f>IF(_tag_month_all!C29="","",_tag_month_all!C29)</f>
         <v/>
       </c>
       <c r="E32" s="18" t="str">
-        <f>IF(_tag_month_day!D29="","",_tag_month_day!D29)</f>
+        <f>IF(_tag_month_all!D29="","",_tag_month_all!D29)</f>
         <v/>
       </c>
       <c r="F32" s="19" t="str">
-        <f>IF(_tag_month_day!E29="","",_tag_month_day!E29)</f>
+        <f>IF(_tag_month_all!E29="","",_tag_month_all!E29)</f>
         <v/>
       </c>
       <c r="G32" s="20" t="str">
-        <f>IF(_tag_month_day!F29="","",_tag_month_day!F29)</f>
+        <f>IF(_tag_month_all!F29="","",_tag_month_all!F29)</f>
         <v/>
       </c>
       <c r="H32" s="21" t="str">
-        <f>IF(_tag_month_day!G29="","",_tag_month_day!G29)</f>
+        <f>IF(_tag_month_all!G29="","",_tag_month_all!G29)</f>
         <v/>
       </c>
       <c r="I32" s="18" t="str">
-        <f>IF(_tag_month_day!H29="","",_tag_month_day!H29)</f>
+        <f>IF(_tag_month_all!H29="","",_tag_month_all!H29)</f>
         <v/>
       </c>
       <c r="J32" s="18" t="str">
-        <f>IF(_tag_month_day!I29="","",_tag_month_day!I29)</f>
+        <f>IF(_tag_month_all!I29="","",_tag_month_all!I29)</f>
         <v/>
       </c>
       <c r="K32" s="27" t="str">
-        <f>IF(_tag_month_day!J29="","",_tag_month_day!J29)</f>
+        <f>IF(_tag_month_all!J29="","",_tag_month_all!J29)</f>
         <v/>
       </c>
       <c r="L32" s="18" t="str">
-        <f>IF(_tag_month_day!K29="","",_tag_month_day!K29)</f>
+        <f>IF(_tag_month_all!K29="","",_tag_month_all!K29)</f>
         <v/>
       </c>
       <c r="M32" s="28" t="str">
-        <f>IF(_tag_month_day!L29="","",_tag_month_day!L29)</f>
+        <f>IF(_tag_month_all!L29="","",_tag_month_all!L29)</f>
         <v/>
       </c>
       <c r="N32" s="29" t="str">
-        <f>IF(_tag_month_day!M29="","",_tag_month_day!M29)</f>
+        <f>IF(_tag_month_all!M29="","",_tag_month_all!M29)</f>
         <v/>
       </c>
       <c r="O32" s="30" t="str">
-        <f>IF(_tag_month_day!N29="","",_tag_month_day!N29)</f>
+        <f>IF(_tag_month_all!N29="","",_tag_month_all!N29)</f>
         <v/>
       </c>
       <c r="P32" s="30" t="str">
-        <f>IF(_tag_month_day!O29="","",_tag_month_day!O29)</f>
+        <f>IF(_tag_month_all!O29="","",_tag_month_all!O29)</f>
         <v/>
       </c>
       <c r="Q32" s="30" t="str">
-        <f>IF(_tag_month_day!P29="","",_tag_month_day!P29)</f>
+        <f>IF(_tag_month_all!P29="","",_tag_month_all!P29)</f>
         <v/>
       </c>
       <c r="R32" s="35" t="str">
-        <f>IF(_tag_month_day!Q29="","",_tag_month_day!Q29)</f>
+        <f>IF(_tag_month_all!Q29="","",_tag_month_all!Q29)</f>
         <v/>
       </c>
       <c r="S32" s="35" t="str">
-        <f>IF(_tag_month_day!R29="","",_tag_month_day!R29)</f>
+        <f>IF(_tag_month_all!R29="","",_tag_month_all!R29)</f>
         <v/>
       </c>
       <c r="T32" s="35" t="str">
-        <f>IF(_tag_month_day!S29="","",_tag_month_day!S29)</f>
+        <f>IF(_tag_month_all!S29="","",_tag_month_all!S29)</f>
         <v/>
       </c>
       <c r="U32" s="35" t="str">
-        <f>IF(_tag_month_day!T29="","",_tag_month_day!T29)</f>
+        <f>IF(_tag_month_all!T29="","",_tag_month_all!T29)</f>
         <v/>
       </c>
       <c r="V32" s="29" t="str">
-        <f>IF(_tag_month_day!U29="","",_tag_month_day!U29)</f>
+        <f>IF(_tag_month_all!U29="","",_tag_month_all!U29)</f>
         <v/>
       </c>
       <c r="W32" s="30" t="str">
-        <f>IF(_tag_month_day!V29="","",_tag_month_day!V29)</f>
+        <f>IF(_tag_month_all!V29="","",_tag_month_all!V29)</f>
         <v/>
       </c>
       <c r="X32" s="30" t="str">
-        <f>IF(_tag_month_day!W29="","",_tag_month_day!W29)</f>
+        <f>IF(_tag_month_all!W29="","",_tag_month_all!W29)</f>
         <v/>
       </c>
       <c r="Y32" s="30" t="str">
-        <f>IF(_tag_month_day!X29="","",_tag_month_day!X29)</f>
+        <f>IF(_tag_month_all!X29="","",_tag_month_all!X29)</f>
         <v/>
       </c>
       <c r="Z32" s="30" t="str">
-        <f>IF(_tag_month_day!Y29="","",_tag_month_day!Y29)</f>
+        <f>IF(_tag_month_all!Y29="","",_tag_month_all!Y29)</f>
         <v/>
       </c>
       <c r="AA32" s="30" t="str">
-        <f>IF(_tag_month_day!Z29="","",_tag_month_day!Z29)</f>
+        <f>IF(_tag_month_all!Z29="","",_tag_month_all!Z29)</f>
         <v/>
       </c>
       <c r="AB32" s="30" t="str">
-        <f>IF(_tag_month_day!AA29="","",_tag_month_day!AA29)</f>
+        <f>IF(_tag_month_all!AA29="","",_tag_month_all!AA29)</f>
         <v/>
       </c>
       <c r="AC32" s="30" t="str">
-        <f>IF(_tag_month_day!AB29="","",_tag_month_day!AB29)</f>
+        <f>IF(_tag_month_all!AB29="","",_tag_month_all!AB29)</f>
         <v/>
       </c>
       <c r="AD32" s="17" t="str">
-        <f>IF(_tag_month_day!AC29="","",_tag_month_day!AC29)</f>
+        <f>IF(_tag_month_all!AC29="","",_tag_month_all!AC29)</f>
         <v/>
       </c>
       <c r="AE32" s="17" t="str">
-        <f>IF(_tag_month_day!AD29="","",_tag_month_day!AD29)</f>
+        <f>IF(_tag_month_all!AD29="","",_tag_month_all!AD29)</f>
         <v/>
       </c>
       <c r="AF32" s="17" t="str">
-        <f>IF(_tag_month_day!AE29="","",_tag_month_day!AE29)</f>
+        <f>IF(_tag_month_all!AE29="","",_tag_month_all!AE29)</f>
         <v/>
       </c>
       <c r="AG32" s="17" t="str">
-        <f>IF(_tag_month_day!AF29="","",_tag_month_day!AF29)</f>
+        <f>IF(_tag_month_all!AF29="","",_tag_month_all!AF29)</f>
         <v/>
       </c>
       <c r="AH32" s="29" t="str">
-        <f>IF(_tag_month_day!AG29="","",_tag_month_day!AG29)</f>
+        <f>IF(_tag_month_all!AG29="","",_tag_month_all!AG29)</f>
         <v/>
       </c>
       <c r="AI32" s="29" t="str">
-        <f>IF(_tag_month_day!AH29="","",_tag_month_day!AH29)</f>
+        <f>IF(_tag_month_all!AH29="","",_tag_month_all!AH29)</f>
         <v/>
       </c>
       <c r="AJ32" s="38" t="str">
-        <f>IF(_tag_month_day!AI29="","",_tag_month_day!AI29)</f>
+        <f>IF(_tag_month_all!AI29="","",_tag_month_all!AI29)</f>
         <v/>
       </c>
       <c r="AK32" s="8" t="str">
@@ -8482,143 +8394,143 @@
         <v>29</v>
       </c>
       <c r="B33" s="16" t="str">
-        <f>IF(_tag_month_day!A30="","",_tag_month_day!A30)</f>
+        <f>IF(_tag_month_all!A30="","",_tag_month_all!A30)</f>
         <v/>
       </c>
       <c r="C33" s="16" t="str">
-        <f>IF(_tag_month_day!B30="","",_tag_month_day!B30)</f>
+        <f>IF(_tag_month_all!B30="","",_tag_month_all!B30)</f>
         <v/>
       </c>
       <c r="D33" s="17" t="str">
-        <f>IF(_tag_month_day!C30="","",_tag_month_day!C30)</f>
+        <f>IF(_tag_month_all!C30="","",_tag_month_all!C30)</f>
         <v/>
       </c>
       <c r="E33" s="18" t="str">
-        <f>IF(_tag_month_day!D30="","",_tag_month_day!D30)</f>
+        <f>IF(_tag_month_all!D30="","",_tag_month_all!D30)</f>
         <v/>
       </c>
       <c r="F33" s="19" t="str">
-        <f>IF(_tag_month_day!E30="","",_tag_month_day!E30)</f>
+        <f>IF(_tag_month_all!E30="","",_tag_month_all!E30)</f>
         <v/>
       </c>
       <c r="G33" s="20" t="str">
-        <f>IF(_tag_month_day!F30="","",_tag_month_day!F30)</f>
+        <f>IF(_tag_month_all!F30="","",_tag_month_all!F30)</f>
         <v/>
       </c>
       <c r="H33" s="21" t="str">
-        <f>IF(_tag_month_day!G30="","",_tag_month_day!G30)</f>
+        <f>IF(_tag_month_all!G30="","",_tag_month_all!G30)</f>
         <v/>
       </c>
       <c r="I33" s="18" t="str">
-        <f>IF(_tag_month_day!H30="","",_tag_month_day!H30)</f>
+        <f>IF(_tag_month_all!H30="","",_tag_month_all!H30)</f>
         <v/>
       </c>
       <c r="J33" s="18" t="str">
-        <f>IF(_tag_month_day!I30="","",_tag_month_day!I30)</f>
+        <f>IF(_tag_month_all!I30="","",_tag_month_all!I30)</f>
         <v/>
       </c>
       <c r="K33" s="27" t="str">
-        <f>IF(_tag_month_day!J30="","",_tag_month_day!J30)</f>
+        <f>IF(_tag_month_all!J30="","",_tag_month_all!J30)</f>
         <v/>
       </c>
       <c r="L33" s="18" t="str">
-        <f>IF(_tag_month_day!K30="","",_tag_month_day!K30)</f>
+        <f>IF(_tag_month_all!K30="","",_tag_month_all!K30)</f>
         <v/>
       </c>
       <c r="M33" s="28" t="str">
-        <f>IF(_tag_month_day!L30="","",_tag_month_day!L30)</f>
+        <f>IF(_tag_month_all!L30="","",_tag_month_all!L30)</f>
         <v/>
       </c>
       <c r="N33" s="29" t="str">
-        <f>IF(_tag_month_day!M30="","",_tag_month_day!M30)</f>
+        <f>IF(_tag_month_all!M30="","",_tag_month_all!M30)</f>
         <v/>
       </c>
       <c r="O33" s="30" t="str">
-        <f>IF(_tag_month_day!N30="","",_tag_month_day!N30)</f>
+        <f>IF(_tag_month_all!N30="","",_tag_month_all!N30)</f>
         <v/>
       </c>
       <c r="P33" s="30" t="str">
-        <f>IF(_tag_month_day!O30="","",_tag_month_day!O30)</f>
+        <f>IF(_tag_month_all!O30="","",_tag_month_all!O30)</f>
         <v/>
       </c>
       <c r="Q33" s="30" t="str">
-        <f>IF(_tag_month_day!P30="","",_tag_month_day!P30)</f>
+        <f>IF(_tag_month_all!P30="","",_tag_month_all!P30)</f>
         <v/>
       </c>
       <c r="R33" s="35" t="str">
-        <f>IF(_tag_month_day!Q30="","",_tag_month_day!Q30)</f>
+        <f>IF(_tag_month_all!Q30="","",_tag_month_all!Q30)</f>
         <v/>
       </c>
       <c r="S33" s="35" t="str">
-        <f>IF(_tag_month_day!R30="","",_tag_month_day!R30)</f>
+        <f>IF(_tag_month_all!R30="","",_tag_month_all!R30)</f>
         <v/>
       </c>
       <c r="T33" s="35" t="str">
-        <f>IF(_tag_month_day!S30="","",_tag_month_day!S30)</f>
+        <f>IF(_tag_month_all!S30="","",_tag_month_all!S30)</f>
         <v/>
       </c>
       <c r="U33" s="35" t="str">
-        <f>IF(_tag_month_day!T30="","",_tag_month_day!T30)</f>
+        <f>IF(_tag_month_all!T30="","",_tag_month_all!T30)</f>
         <v/>
       </c>
       <c r="V33" s="29" t="str">
-        <f>IF(_tag_month_day!U30="","",_tag_month_day!U30)</f>
+        <f>IF(_tag_month_all!U30="","",_tag_month_all!U30)</f>
         <v/>
       </c>
       <c r="W33" s="30" t="str">
-        <f>IF(_tag_month_day!V30="","",_tag_month_day!V30)</f>
+        <f>IF(_tag_month_all!V30="","",_tag_month_all!V30)</f>
         <v/>
       </c>
       <c r="X33" s="30" t="str">
-        <f>IF(_tag_month_day!W30="","",_tag_month_day!W30)</f>
+        <f>IF(_tag_month_all!W30="","",_tag_month_all!W30)</f>
         <v/>
       </c>
       <c r="Y33" s="30" t="str">
-        <f>IF(_tag_month_day!X30="","",_tag_month_day!X30)</f>
+        <f>IF(_tag_month_all!X30="","",_tag_month_all!X30)</f>
         <v/>
       </c>
       <c r="Z33" s="30" t="str">
-        <f>IF(_tag_month_day!Y30="","",_tag_month_day!Y30)</f>
+        <f>IF(_tag_month_all!Y30="","",_tag_month_all!Y30)</f>
         <v/>
       </c>
       <c r="AA33" s="30" t="str">
-        <f>IF(_tag_month_day!Z30="","",_tag_month_day!Z30)</f>
+        <f>IF(_tag_month_all!Z30="","",_tag_month_all!Z30)</f>
         <v/>
       </c>
       <c r="AB33" s="30" t="str">
-        <f>IF(_tag_month_day!AA30="","",_tag_month_day!AA30)</f>
+        <f>IF(_tag_month_all!AA30="","",_tag_month_all!AA30)</f>
         <v/>
       </c>
       <c r="AC33" s="30" t="str">
-        <f>IF(_tag_month_day!AB30="","",_tag_month_day!AB30)</f>
+        <f>IF(_tag_month_all!AB30="","",_tag_month_all!AB30)</f>
         <v/>
       </c>
       <c r="AD33" s="17" t="str">
-        <f>IF(_tag_month_day!AC30="","",_tag_month_day!AC30)</f>
+        <f>IF(_tag_month_all!AC30="","",_tag_month_all!AC30)</f>
         <v/>
       </c>
       <c r="AE33" s="17" t="str">
-        <f>IF(_tag_month_day!AD30="","",_tag_month_day!AD30)</f>
+        <f>IF(_tag_month_all!AD30="","",_tag_month_all!AD30)</f>
         <v/>
       </c>
       <c r="AF33" s="17" t="str">
-        <f>IF(_tag_month_day!AE30="","",_tag_month_day!AE30)</f>
+        <f>IF(_tag_month_all!AE30="","",_tag_month_all!AE30)</f>
         <v/>
       </c>
       <c r="AG33" s="17" t="str">
-        <f>IF(_tag_month_day!AF30="","",_tag_month_day!AF30)</f>
+        <f>IF(_tag_month_all!AF30="","",_tag_month_all!AF30)</f>
         <v/>
       </c>
       <c r="AH33" s="29" t="str">
-        <f>IF(_tag_month_day!AG30="","",_tag_month_day!AG30)</f>
+        <f>IF(_tag_month_all!AG30="","",_tag_month_all!AG30)</f>
         <v/>
       </c>
       <c r="AI33" s="29" t="str">
-        <f>IF(_tag_month_day!AH30="","",_tag_month_day!AH30)</f>
+        <f>IF(_tag_month_all!AH30="","",_tag_month_all!AH30)</f>
         <v/>
       </c>
       <c r="AJ33" s="38" t="str">
-        <f>IF(_tag_month_day!AI30="","",_tag_month_day!AI30)</f>
+        <f>IF(_tag_month_all!AI30="","",_tag_month_all!AI30)</f>
         <v/>
       </c>
       <c r="AK33" s="8" t="str">
@@ -8748,143 +8660,143 @@
         <v>30</v>
       </c>
       <c r="B34" s="16" t="str">
-        <f>IF(_tag_month_day!A31="","",_tag_month_day!A31)</f>
+        <f>IF(_tag_month_all!A31="","",_tag_month_all!A31)</f>
         <v/>
       </c>
       <c r="C34" s="16" t="str">
-        <f>IF(_tag_month_day!B31="","",_tag_month_day!B31)</f>
+        <f>IF(_tag_month_all!B31="","",_tag_month_all!B31)</f>
         <v/>
       </c>
       <c r="D34" s="17" t="str">
-        <f>IF(_tag_month_day!C31="","",_tag_month_day!C31)</f>
+        <f>IF(_tag_month_all!C31="","",_tag_month_all!C31)</f>
         <v/>
       </c>
       <c r="E34" s="18" t="str">
-        <f>IF(_tag_month_day!D31="","",_tag_month_day!D31)</f>
+        <f>IF(_tag_month_all!D31="","",_tag_month_all!D31)</f>
         <v/>
       </c>
       <c r="F34" s="19" t="str">
-        <f>IF(_tag_month_day!E31="","",_tag_month_day!E31)</f>
+        <f>IF(_tag_month_all!E31="","",_tag_month_all!E31)</f>
         <v/>
       </c>
       <c r="G34" s="20" t="str">
-        <f>IF(_tag_month_day!F31="","",_tag_month_day!F31)</f>
+        <f>IF(_tag_month_all!F31="","",_tag_month_all!F31)</f>
         <v/>
       </c>
       <c r="H34" s="21" t="str">
-        <f>IF(_tag_month_day!G31="","",_tag_month_day!G31)</f>
+        <f>IF(_tag_month_all!G31="","",_tag_month_all!G31)</f>
         <v/>
       </c>
       <c r="I34" s="18" t="str">
-        <f>IF(_tag_month_day!H31="","",_tag_month_day!H31)</f>
+        <f>IF(_tag_month_all!H31="","",_tag_month_all!H31)</f>
         <v/>
       </c>
       <c r="J34" s="18" t="str">
-        <f>IF(_tag_month_day!I31="","",_tag_month_day!I31)</f>
+        <f>IF(_tag_month_all!I31="","",_tag_month_all!I31)</f>
         <v/>
       </c>
       <c r="K34" s="27" t="str">
-        <f>IF(_tag_month_day!J31="","",_tag_month_day!J31)</f>
+        <f>IF(_tag_month_all!J31="","",_tag_month_all!J31)</f>
         <v/>
       </c>
       <c r="L34" s="18" t="str">
-        <f>IF(_tag_month_day!K31="","",_tag_month_day!K31)</f>
+        <f>IF(_tag_month_all!K31="","",_tag_month_all!K31)</f>
         <v/>
       </c>
       <c r="M34" s="28" t="str">
-        <f>IF(_tag_month_day!L31="","",_tag_month_day!L31)</f>
+        <f>IF(_tag_month_all!L31="","",_tag_month_all!L31)</f>
         <v/>
       </c>
       <c r="N34" s="29" t="str">
-        <f>IF(_tag_month_day!M31="","",_tag_month_day!M31)</f>
+        <f>IF(_tag_month_all!M31="","",_tag_month_all!M31)</f>
         <v/>
       </c>
       <c r="O34" s="30" t="str">
-        <f>IF(_tag_month_day!N31="","",_tag_month_day!N31)</f>
+        <f>IF(_tag_month_all!N31="","",_tag_month_all!N31)</f>
         <v/>
       </c>
       <c r="P34" s="30" t="str">
-        <f>IF(_tag_month_day!O31="","",_tag_month_day!O31)</f>
+        <f>IF(_tag_month_all!O31="","",_tag_month_all!O31)</f>
         <v/>
       </c>
       <c r="Q34" s="30" t="str">
-        <f>IF(_tag_month_day!P31="","",_tag_month_day!P31)</f>
+        <f>IF(_tag_month_all!P31="","",_tag_month_all!P31)</f>
         <v/>
       </c>
       <c r="R34" s="35" t="str">
-        <f>IF(_tag_month_day!Q31="","",_tag_month_day!Q31)</f>
+        <f>IF(_tag_month_all!Q31="","",_tag_month_all!Q31)</f>
         <v/>
       </c>
       <c r="S34" s="35" t="str">
-        <f>IF(_tag_month_day!R31="","",_tag_month_day!R31)</f>
+        <f>IF(_tag_month_all!R31="","",_tag_month_all!R31)</f>
         <v/>
       </c>
       <c r="T34" s="35" t="str">
-        <f>IF(_tag_month_day!S31="","",_tag_month_day!S31)</f>
+        <f>IF(_tag_month_all!S31="","",_tag_month_all!S31)</f>
         <v/>
       </c>
       <c r="U34" s="35" t="str">
-        <f>IF(_tag_month_day!T31="","",_tag_month_day!T31)</f>
+        <f>IF(_tag_month_all!T31="","",_tag_month_all!T31)</f>
         <v/>
       </c>
       <c r="V34" s="29" t="str">
-        <f>IF(_tag_month_day!U31="","",_tag_month_day!U31)</f>
+        <f>IF(_tag_month_all!U31="","",_tag_month_all!U31)</f>
         <v/>
       </c>
       <c r="W34" s="30" t="str">
-        <f>IF(_tag_month_day!V31="","",_tag_month_day!V31)</f>
+        <f>IF(_tag_month_all!V31="","",_tag_month_all!V31)</f>
         <v/>
       </c>
       <c r="X34" s="30" t="str">
-        <f>IF(_tag_month_day!W31="","",_tag_month_day!W31)</f>
+        <f>IF(_tag_month_all!W31="","",_tag_month_all!W31)</f>
         <v/>
       </c>
       <c r="Y34" s="30" t="str">
-        <f>IF(_tag_month_day!X31="","",_tag_month_day!X31)</f>
+        <f>IF(_tag_month_all!X31="","",_tag_month_all!X31)</f>
         <v/>
       </c>
       <c r="Z34" s="30" t="str">
-        <f>IF(_tag_month_day!Y31="","",_tag_month_day!Y31)</f>
+        <f>IF(_tag_month_all!Y31="","",_tag_month_all!Y31)</f>
         <v/>
       </c>
       <c r="AA34" s="30" t="str">
-        <f>IF(_tag_month_day!Z31="","",_tag_month_day!Z31)</f>
+        <f>IF(_tag_month_all!Z31="","",_tag_month_all!Z31)</f>
         <v/>
       </c>
       <c r="AB34" s="30" t="str">
-        <f>IF(_tag_month_day!AA31="","",_tag_month_day!AA31)</f>
+        <f>IF(_tag_month_all!AA31="","",_tag_month_all!AA31)</f>
         <v/>
       </c>
       <c r="AC34" s="30" t="str">
-        <f>IF(_tag_month_day!AB31="","",_tag_month_day!AB31)</f>
+        <f>IF(_tag_month_all!AB31="","",_tag_month_all!AB31)</f>
         <v/>
       </c>
       <c r="AD34" s="17" t="str">
-        <f>IF(_tag_month_day!AC31="","",_tag_month_day!AC31)</f>
+        <f>IF(_tag_month_all!AC31="","",_tag_month_all!AC31)</f>
         <v/>
       </c>
       <c r="AE34" s="17" t="str">
-        <f>IF(_tag_month_day!AD31="","",_tag_month_day!AD31)</f>
+        <f>IF(_tag_month_all!AD31="","",_tag_month_all!AD31)</f>
         <v/>
       </c>
       <c r="AF34" s="17" t="str">
-        <f>IF(_tag_month_day!AE31="","",_tag_month_day!AE31)</f>
+        <f>IF(_tag_month_all!AE31="","",_tag_month_all!AE31)</f>
         <v/>
       </c>
       <c r="AG34" s="17" t="str">
-        <f>IF(_tag_month_day!AF31="","",_tag_month_day!AF31)</f>
+        <f>IF(_tag_month_all!AF31="","",_tag_month_all!AF31)</f>
         <v/>
       </c>
       <c r="AH34" s="29" t="str">
-        <f>IF(_tag_month_day!AG31="","",_tag_month_day!AG31)</f>
+        <f>IF(_tag_month_all!AG31="","",_tag_month_all!AG31)</f>
         <v/>
       </c>
       <c r="AI34" s="29" t="str">
-        <f>IF(_tag_month_day!AH31="","",_tag_month_day!AH31)</f>
+        <f>IF(_tag_month_all!AH31="","",_tag_month_all!AH31)</f>
         <v/>
       </c>
       <c r="AJ34" s="38" t="str">
-        <f>IF(_tag_month_day!AI31="","",_tag_month_day!AI31)</f>
+        <f>IF(_tag_month_all!AI31="","",_tag_month_all!AI31)</f>
         <v/>
       </c>
       <c r="AK34" s="8" t="str">
@@ -9014,143 +8926,143 @@
         <v>31</v>
       </c>
       <c r="B35" s="16" t="str">
-        <f>IF(_tag_month_day!A32="","",_tag_month_day!A32)</f>
+        <f>IF(_tag_month_all!A32="","",_tag_month_all!A32)</f>
         <v/>
       </c>
       <c r="C35" s="16" t="str">
-        <f>IF(_tag_month_day!B32="","",_tag_month_day!B32)</f>
+        <f>IF(_tag_month_all!B32="","",_tag_month_all!B32)</f>
         <v/>
       </c>
       <c r="D35" s="17" t="str">
-        <f>IF(_tag_month_day!C32="","",_tag_month_day!C32)</f>
+        <f>IF(_tag_month_all!C32="","",_tag_month_all!C32)</f>
         <v/>
       </c>
       <c r="E35" s="18" t="str">
-        <f>IF(_tag_month_day!D32="","",_tag_month_day!D32)</f>
+        <f>IF(_tag_month_all!D32="","",_tag_month_all!D32)</f>
         <v/>
       </c>
       <c r="F35" s="22" t="str">
-        <f>IF(_tag_month_day!E32="","",_tag_month_day!E32)</f>
+        <f>IF(_tag_month_all!E32="","",_tag_month_all!E32)</f>
         <v/>
       </c>
       <c r="G35" s="20" t="str">
-        <f>IF(_tag_month_day!F32="","",_tag_month_day!F32)</f>
+        <f>IF(_tag_month_all!F32="","",_tag_month_all!F32)</f>
         <v/>
       </c>
       <c r="H35" s="23" t="str">
-        <f>IF(_tag_month_day!G32="","",_tag_month_day!G32)</f>
+        <f>IF(_tag_month_all!G32="","",_tag_month_all!G32)</f>
         <v/>
       </c>
       <c r="I35" s="18" t="str">
-        <f>IF(_tag_month_day!H32="","",_tag_month_day!H32)</f>
+        <f>IF(_tag_month_all!H32="","",_tag_month_all!H32)</f>
         <v/>
       </c>
       <c r="J35" s="18" t="str">
-        <f>IF(_tag_month_day!I32="","",_tag_month_day!I32)</f>
+        <f>IF(_tag_month_all!I32="","",_tag_month_all!I32)</f>
         <v/>
       </c>
       <c r="K35" s="31" t="str">
-        <f>IF(_tag_month_day!J32="","",_tag_month_day!J32)</f>
+        <f>IF(_tag_month_all!J32="","",_tag_month_all!J32)</f>
         <v/>
       </c>
       <c r="L35" s="18" t="str">
-        <f>IF(_tag_month_day!K32="","",_tag_month_day!K32)</f>
+        <f>IF(_tag_month_all!K32="","",_tag_month_all!K32)</f>
         <v/>
       </c>
       <c r="M35" s="32" t="str">
-        <f>IF(_tag_month_day!L32="","",_tag_month_day!L32)</f>
+        <f>IF(_tag_month_all!L32="","",_tag_month_all!L32)</f>
         <v/>
       </c>
       <c r="N35" s="29" t="str">
-        <f>IF(_tag_month_day!M32="","",_tag_month_day!M32)</f>
+        <f>IF(_tag_month_all!M32="","",_tag_month_all!M32)</f>
         <v/>
       </c>
       <c r="O35" s="30" t="str">
-        <f>IF(_tag_month_day!N32="","",_tag_month_day!N32)</f>
+        <f>IF(_tag_month_all!N32="","",_tag_month_all!N32)</f>
         <v/>
       </c>
       <c r="P35" s="30" t="str">
-        <f>IF(_tag_month_day!O32="","",_tag_month_day!O32)</f>
+        <f>IF(_tag_month_all!O32="","",_tag_month_all!O32)</f>
         <v/>
       </c>
       <c r="Q35" s="30" t="str">
-        <f>IF(_tag_month_day!P32="","",_tag_month_day!P32)</f>
+        <f>IF(_tag_month_all!P32="","",_tag_month_all!P32)</f>
         <v/>
       </c>
       <c r="R35" s="35" t="str">
-        <f>IF(_tag_month_day!Q32="","",_tag_month_day!Q32)</f>
+        <f>IF(_tag_month_all!Q32="","",_tag_month_all!Q32)</f>
         <v/>
       </c>
       <c r="S35" s="35" t="str">
-        <f>IF(_tag_month_day!R32="","",_tag_month_day!R32)</f>
+        <f>IF(_tag_month_all!R32="","",_tag_month_all!R32)</f>
         <v/>
       </c>
       <c r="T35" s="35" t="str">
-        <f>IF(_tag_month_day!S32="","",_tag_month_day!S32)</f>
+        <f>IF(_tag_month_all!S32="","",_tag_month_all!S32)</f>
         <v/>
       </c>
       <c r="U35" s="35" t="str">
-        <f>IF(_tag_month_day!T32="","",_tag_month_day!T32)</f>
+        <f>IF(_tag_month_all!T32="","",_tag_month_all!T32)</f>
         <v/>
       </c>
       <c r="V35" s="29" t="str">
-        <f>IF(_tag_month_day!U32="","",_tag_month_day!U32)</f>
+        <f>IF(_tag_month_all!U32="","",_tag_month_all!U32)</f>
         <v/>
       </c>
       <c r="W35" s="30" t="str">
-        <f>IF(_tag_month_day!V32="","",_tag_month_day!V32)</f>
+        <f>IF(_tag_month_all!V32="","",_tag_month_all!V32)</f>
         <v/>
       </c>
       <c r="X35" s="30" t="str">
-        <f>IF(_tag_month_day!W32="","",_tag_month_day!W32)</f>
+        <f>IF(_tag_month_all!W32="","",_tag_month_all!W32)</f>
         <v/>
       </c>
       <c r="Y35" s="30" t="str">
-        <f>IF(_tag_month_day!X32="","",_tag_month_day!X32)</f>
+        <f>IF(_tag_month_all!X32="","",_tag_month_all!X32)</f>
         <v/>
       </c>
       <c r="Z35" s="30" t="str">
-        <f>IF(_tag_month_day!Y32="","",_tag_month_day!Y32)</f>
+        <f>IF(_tag_month_all!Y32="","",_tag_month_all!Y32)</f>
         <v/>
       </c>
       <c r="AA35" s="30" t="str">
-        <f>IF(_tag_month_day!Z32="","",_tag_month_day!Z32)</f>
+        <f>IF(_tag_month_all!Z32="","",_tag_month_all!Z32)</f>
         <v/>
       </c>
       <c r="AB35" s="30" t="str">
-        <f>IF(_tag_month_day!AA32="","",_tag_month_day!AA32)</f>
+        <f>IF(_tag_month_all!AA32="","",_tag_month_all!AA32)</f>
         <v/>
       </c>
       <c r="AC35" s="30" t="str">
-        <f>IF(_tag_month_day!AB32="","",_tag_month_day!AB32)</f>
+        <f>IF(_tag_month_all!AB32="","",_tag_month_all!AB32)</f>
         <v/>
       </c>
       <c r="AD35" s="17" t="str">
-        <f>IF(_tag_month_day!AC32="","",_tag_month_day!AC32)</f>
+        <f>IF(_tag_month_all!AC32="","",_tag_month_all!AC32)</f>
         <v/>
       </c>
       <c r="AE35" s="17" t="str">
-        <f>IF(_tag_month_day!AD32="","",_tag_month_day!AD32)</f>
+        <f>IF(_tag_month_all!AD32="","",_tag_month_all!AD32)</f>
         <v/>
       </c>
       <c r="AF35" s="17" t="str">
-        <f>IF(_tag_month_day!AE32="","",_tag_month_day!AE32)</f>
+        <f>IF(_tag_month_all!AE32="","",_tag_month_all!AE32)</f>
         <v/>
       </c>
       <c r="AG35" s="17" t="str">
-        <f>IF(_tag_month_day!AF32="","",_tag_month_day!AF32)</f>
+        <f>IF(_tag_month_all!AF32="","",_tag_month_all!AF32)</f>
         <v/>
       </c>
       <c r="AH35" s="29" t="str">
-        <f>IF(_tag_month_day!AG32="","",_tag_month_day!AG32)</f>
+        <f>IF(_tag_month_all!AG32="","",_tag_month_all!AG32)</f>
         <v/>
       </c>
       <c r="AI35" s="29" t="str">
-        <f>IF(_tag_month_day!AH32="","",_tag_month_day!AH32)</f>
+        <f>IF(_tag_month_all!AH32="","",_tag_month_all!AH32)</f>
         <v/>
       </c>
       <c r="AJ35" s="38" t="str">
-        <f>IF(_tag_month_day!AI32="","",_tag_month_day!AI32)</f>
+        <f>IF(_tag_month_all!AI32="","",_tag_month_all!AI32)</f>
         <v/>
       </c>
       <c r="AK35" s="8" t="str">
@@ -9277,7 +9189,7 @@
     </row>
     <row r="36" spans="1:67" ht="14.25">
       <c r="A36" s="24" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B36" s="25" t="str">
         <f>IFERROR(AVERAGE(B4:B35),"")</f>
@@ -10600,17 +10512,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10622,117 +10534,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:35" ht="48">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -10745,7 +10657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -10753,7 +10665,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B1">
         <v>6</v>
